--- a/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9990693316697783</v>
+        <v>0.9990693316697782</v>
       </c>
       <c r="D2">
         <v>1.017354257152342</v>
       </c>
       <c r="E2">
-        <v>0.9836874341700997</v>
+        <v>0.9836874341700999</v>
       </c>
       <c r="F2">
-        <v>1.010436951391178</v>
+        <v>1.010436951391177</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,7 +439,7 @@
         <v>1.044966378326091</v>
       </c>
       <c r="J2">
-        <v>1.021277914544397</v>
+        <v>1.021277914544396</v>
       </c>
       <c r="K2">
         <v>1.02857700018201</v>
@@ -448,7 +448,7 @@
         <v>0.995378806243729</v>
       </c>
       <c r="M2">
-        <v>1.021752772922951</v>
+        <v>1.02175277292295</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,7 +465,7 @@
         <v>1.021974794197166</v>
       </c>
       <c r="E3">
-        <v>0.9886419828246855</v>
+        <v>0.9886419828246856</v>
       </c>
       <c r="F3">
         <v>1.016147235122933</v>
@@ -480,7 +480,7 @@
         <v>1.025605880093944</v>
       </c>
       <c r="K3">
-        <v>1.032334016987264</v>
+        <v>1.032334016987265</v>
       </c>
       <c r="L3">
         <v>0.9994222844681919</v>
@@ -500,10 +500,10 @@
         <v>1.009153858912716</v>
       </c>
       <c r="D4">
-        <v>1.024886319361285</v>
+        <v>1.024886319361284</v>
       </c>
       <c r="E4">
-        <v>0.9917791295991243</v>
+        <v>0.9917791295991244</v>
       </c>
       <c r="F4">
         <v>1.01975185770053</v>
@@ -541,7 +541,7 @@
         <v>1.026092396719499</v>
       </c>
       <c r="E5">
-        <v>0.9930822680997239</v>
+        <v>0.9930822680997241</v>
       </c>
       <c r="F5">
         <v>1.021246609772225</v>
@@ -553,7 +553,7 @@
         <v>1.049027838974376</v>
       </c>
       <c r="J5">
-        <v>1.029451576459722</v>
+        <v>1.029451576459723</v>
       </c>
       <c r="K5">
         <v>1.035668818079396</v>
@@ -579,7 +579,7 @@
         <v>1.026293873653442</v>
       </c>
       <c r="E6">
-        <v>0.993300169922665</v>
+        <v>0.9933001699226647</v>
       </c>
       <c r="F6">
         <v>1.021496402930737</v>
@@ -594,13 +594,13 @@
         <v>1.029639467155047</v>
       </c>
       <c r="K6">
-        <v>1.035831652354191</v>
+        <v>1.03583165235419</v>
       </c>
       <c r="L6">
         <v>1.003215435909562</v>
       </c>
       <c r="M6">
-        <v>1.031087206106475</v>
+        <v>1.031087206106474</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009175512673097</v>
+        <v>1.009175512673098</v>
       </c>
       <c r="D7">
-        <v>1.024902504438459</v>
+        <v>1.02490250443846</v>
       </c>
       <c r="E7">
         <v>0.9917966030066083</v>
       </c>
       <c r="F7">
-        <v>1.019771910457423</v>
+        <v>1.019771910457424</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.048480889987377</v>
       </c>
       <c r="J7">
-        <v>1.028341378956791</v>
+        <v>1.028341378956792</v>
       </c>
       <c r="K7">
-        <v>1.034706484835658</v>
+        <v>1.034706484835659</v>
       </c>
       <c r="L7">
         <v>1.001992019501817</v>
       </c>
       <c r="M7">
-        <v>1.029634498374153</v>
+        <v>1.029634498374154</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,7 +655,7 @@
         <v>1.018932501927573</v>
       </c>
       <c r="E8">
-        <v>0.9853765535314264</v>
+        <v>0.9853765535314262</v>
       </c>
       <c r="F8">
         <v>1.012386086169137</v>
@@ -673,7 +673,7 @@
         <v>1.029861984743249</v>
       </c>
       <c r="L8">
-        <v>0.9967583212197045</v>
+        <v>0.9967583212197043</v>
       </c>
       <c r="M8">
         <v>1.023400853682531</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9862155498871119</v>
+        <v>0.9862155498871125</v>
       </c>
       <c r="D9">
         <v>1.007773559772466</v>
       </c>
       <c r="E9">
-        <v>0.9735005754643746</v>
+        <v>0.9735005754643744</v>
       </c>
       <c r="F9">
-        <v>0.9986313534413578</v>
+        <v>0.9986313534413581</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040407186130614</v>
+        <v>1.040407186130615</v>
       </c>
       <c r="J9">
-        <v>1.012264642326667</v>
+        <v>1.012264642326668</v>
       </c>
       <c r="K9">
-        <v>1.020741762955243</v>
+        <v>1.020741762955244</v>
       </c>
       <c r="L9">
-        <v>0.9870387350552677</v>
+        <v>0.9870387350552675</v>
       </c>
       <c r="M9">
-        <v>1.011746675078526</v>
+        <v>1.011746675078527</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9755489981697707</v>
+        <v>0.9755489981697719</v>
       </c>
       <c r="D10">
-        <v>0.9998437943530438</v>
+        <v>0.9998437943530449</v>
       </c>
       <c r="E10">
-        <v>0.9651493291682113</v>
+        <v>0.9651493291682115</v>
       </c>
       <c r="F10">
-        <v>0.9888898949893075</v>
+        <v>0.9888898949893085</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036563034893492</v>
+        <v>1.036563034893493</v>
       </c>
       <c r="J10">
-        <v>1.004767469002971</v>
+        <v>1.004767469002972</v>
       </c>
       <c r="K10">
-        <v>1.01421586971394</v>
+        <v>1.014215869713941</v>
       </c>
       <c r="L10">
-        <v>0.9801776843692745</v>
+        <v>0.9801776843692747</v>
       </c>
       <c r="M10">
-        <v>1.003462685653708</v>
+        <v>1.003462685653709</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9707436295657857</v>
+        <v>0.9707436295657853</v>
       </c>
       <c r="D11">
-        <v>0.9962783670715532</v>
+        <v>0.996278367071553</v>
       </c>
       <c r="E11">
-        <v>0.9614163135711721</v>
+        <v>0.9614163135711723</v>
       </c>
       <c r="F11">
         <v>0.9845173846598175</v>
@@ -790,7 +790,7 @@
         <v>0.9771044848632966</v>
       </c>
       <c r="M11">
-        <v>0.9997373085956252</v>
+        <v>0.9997373085956253</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9689283928185126</v>
+        <v>0.9689283928185118</v>
       </c>
       <c r="D12">
-        <v>0.9949327320007525</v>
+        <v>0.9949327320007516</v>
       </c>
       <c r="E12">
-        <v>0.9600108238913284</v>
+        <v>0.9600108238913282</v>
       </c>
       <c r="F12">
-        <v>0.9828682474785485</v>
+        <v>0.9828682474785478</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>1.000108562875968</v>
       </c>
       <c r="K12">
-        <v>1.010157661064832</v>
+        <v>1.010157661064831</v>
       </c>
       <c r="L12">
-        <v>0.9759464618963619</v>
+        <v>0.9759464618963617</v>
       </c>
       <c r="M12">
-        <v>0.9983311932096745</v>
+        <v>0.9983311932096739</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -845,10 +845,10 @@
         <v>0.9952223635350868</v>
       </c>
       <c r="E13">
-        <v>0.960313183311435</v>
+        <v>0.9603131833114346</v>
       </c>
       <c r="F13">
-        <v>0.9832231548569863</v>
+        <v>0.9832231548569861</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>1.010397327787798</v>
       </c>
       <c r="L13">
-        <v>0.9761956277520726</v>
+        <v>0.9761956277520722</v>
       </c>
       <c r="M13">
-        <v>0.9986338476826379</v>
+        <v>0.9986338476826376</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9705942137845925</v>
+        <v>0.9705942137845921</v>
       </c>
       <c r="D14">
-        <v>0.9961675795904589</v>
+        <v>0.9961675795904587</v>
       </c>
       <c r="E14">
-        <v>0.961300528649447</v>
+        <v>0.9613005286494469</v>
       </c>
       <c r="F14">
-        <v>0.9843815873543468</v>
+        <v>0.9843815873543463</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.034761881798079</v>
       </c>
       <c r="J14">
-        <v>1.001281109239297</v>
+        <v>1.001281109239296</v>
       </c>
       <c r="K14">
         <v>1.011179197738373</v>
       </c>
       <c r="L14">
-        <v>0.9770091058370762</v>
+        <v>0.977009105837076</v>
       </c>
       <c r="M14">
-        <v>0.9996215440717275</v>
+        <v>0.9996215440717271</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,13 +915,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9713757174210974</v>
+        <v>0.9713757174210969</v>
       </c>
       <c r="D15">
-        <v>0.9967470922077665</v>
+        <v>0.9967470922077661</v>
       </c>
       <c r="E15">
-        <v>0.9619063209199007</v>
+        <v>0.9619063209199012</v>
       </c>
       <c r="F15">
         <v>0.9850919672274617</v>
@@ -933,13 +933,13 @@
         <v>1.035046561593449</v>
       </c>
       <c r="J15">
-        <v>1.001831130671395</v>
+        <v>1.001831130671394</v>
       </c>
       <c r="K15">
         <v>1.01165834504905</v>
       </c>
       <c r="L15">
-        <v>0.9775080945024395</v>
+        <v>0.9775080945024398</v>
       </c>
       <c r="M15">
         <v>1.000227086173975</v>
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.975863793936022</v>
+        <v>0.9758637939360206</v>
       </c>
       <c r="D16">
-        <v>1.000077520823394</v>
+        <v>1.000077520823393</v>
       </c>
       <c r="E16">
-        <v>0.9653945047992575</v>
+        <v>0.9653945047992573</v>
       </c>
       <c r="F16">
-        <v>0.98917668207674</v>
+        <v>0.9891766820767395</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036677159829189</v>
+        <v>1.036677159829188</v>
       </c>
       <c r="J16">
-        <v>1.004988900412903</v>
+        <v>1.004988900412902</v>
       </c>
       <c r="K16">
-        <v>1.014408702119108</v>
+        <v>1.014408702119107</v>
       </c>
       <c r="L16">
-        <v>0.9803793930338187</v>
+        <v>0.9803793930338186</v>
       </c>
       <c r="M16">
         <v>1.003706882327784</v>
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9786275440198455</v>
+        <v>0.9786275440198451</v>
       </c>
       <c r="D17">
         <v>1.002130332233692</v>
       </c>
       <c r="E17">
-        <v>0.9675503667626184</v>
+        <v>0.9675503667626182</v>
       </c>
       <c r="F17">
-        <v>0.9916963691624977</v>
+        <v>0.991696369162497</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,10 +1012,10 @@
         <v>1.006932554568627</v>
       </c>
       <c r="K17">
-        <v>1.016101111829312</v>
+        <v>1.016101111829311</v>
       </c>
       <c r="L17">
-        <v>0.9821523273459452</v>
+        <v>0.982152327345945</v>
       </c>
       <c r="M17">
         <v>1.005851574590893</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802217458460658</v>
+        <v>0.9802217458460663</v>
       </c>
       <c r="D18">
-        <v>1.003315094514239</v>
+        <v>1.00331509451424</v>
       </c>
       <c r="E18">
-        <v>0.9687966641943031</v>
+        <v>0.968796664194303</v>
       </c>
       <c r="F18">
-        <v>0.9931512939424908</v>
+        <v>0.993151293942491</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>1.017076849414317</v>
       </c>
       <c r="L18">
-        <v>0.9831766594461053</v>
+        <v>0.983176659446105</v>
       </c>
       <c r="M18">
         <v>1.007089301509879</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9807623651047345</v>
+        <v>0.9807623651047352</v>
       </c>
       <c r="D19">
-        <v>1.00371697170058</v>
+        <v>1.003716971700581</v>
       </c>
       <c r="E19">
-        <v>0.9692197611093397</v>
+        <v>0.9692197611093402</v>
       </c>
       <c r="F19">
-        <v>0.9936449326665175</v>
+        <v>0.9936449326665182</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.038447976165983</v>
       </c>
       <c r="J19">
-        <v>1.008433370865768</v>
+        <v>1.008433370865769</v>
       </c>
       <c r="K19">
-        <v>1.017407651574194</v>
+        <v>1.017407651574195</v>
       </c>
       <c r="L19">
-        <v>0.9835243020267782</v>
+        <v>0.9835243020267787</v>
       </c>
       <c r="M19">
         <v>1.007509134105282</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9783328813428951</v>
+        <v>0.9783328813428954</v>
       </c>
       <c r="D20">
-        <v>1.001911399274291</v>
+        <v>1.001911399274292</v>
       </c>
       <c r="E20">
         <v>0.9673202287626576</v>
       </c>
       <c r="F20">
-        <v>0.9914275702957548</v>
+        <v>0.9914275702957549</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,10 +1123,10 @@
         <v>1.037570945276641</v>
       </c>
       <c r="J20">
-        <v>1.006725363896854</v>
+        <v>1.006725363896855</v>
       </c>
       <c r="K20">
-        <v>1.015920722090134</v>
+        <v>1.015920722090135</v>
       </c>
       <c r="L20">
         <v>0.9819631287419022</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9702196035657249</v>
+        <v>0.9702196035657259</v>
       </c>
       <c r="D21">
-        <v>0.9958898370076976</v>
+        <v>0.9958898370076984</v>
       </c>
       <c r="E21">
-        <v>0.9610103125630785</v>
+        <v>0.9610103125630786</v>
       </c>
       <c r="F21">
-        <v>0.9840411631342086</v>
+        <v>0.984041163134209</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034625346409491</v>
+        <v>1.034625346409492</v>
       </c>
       <c r="J21">
-        <v>1.001017443395442</v>
+        <v>1.001017443395443</v>
       </c>
       <c r="K21">
-        <v>1.010949498331864</v>
+        <v>1.010949498331865</v>
       </c>
       <c r="L21">
-        <v>0.9767700219162299</v>
+        <v>0.9767700219162301</v>
       </c>
       <c r="M21">
-        <v>0.9993313222556988</v>
+        <v>0.9993313222556992</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9649417972622416</v>
+        <v>0.9649417972622429</v>
       </c>
       <c r="D22">
-        <v>0.9919798917803505</v>
+        <v>0.9919798917803512</v>
       </c>
       <c r="E22">
-        <v>0.9569330206187358</v>
+        <v>0.9569330206187359</v>
       </c>
       <c r="F22">
-        <v>0.9792514063995695</v>
+        <v>0.9792514063995703</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032696756839777</v>
+        <v>1.032696756839778</v>
       </c>
       <c r="J22">
-        <v>0.9973017529697871</v>
+        <v>0.9973017529697882</v>
       </c>
       <c r="K22">
-        <v>1.007711920613648</v>
+        <v>1.007711920613649</v>
       </c>
       <c r="L22">
-        <v>0.9734088024902162</v>
+        <v>0.9734088024902164</v>
       </c>
       <c r="M22">
-        <v>0.9952454154927547</v>
+        <v>0.9952454154927556</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,13 +1219,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9677572304681543</v>
+        <v>0.9677572304681535</v>
       </c>
       <c r="D23">
-        <v>0.9940649121132799</v>
+        <v>0.994064912113279</v>
       </c>
       <c r="E23">
-        <v>0.959105373865348</v>
+        <v>0.9591053738653482</v>
       </c>
       <c r="F23">
         <v>0.9818050016130445</v>
@@ -1234,19 +1234,19 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033726690756114</v>
+        <v>1.033726690756113</v>
       </c>
       <c r="J23">
-        <v>0.9992840897596305</v>
+        <v>0.9992840897596297</v>
       </c>
       <c r="K23">
-        <v>1.009439306852812</v>
+        <v>1.009439306852811</v>
       </c>
       <c r="L23">
-        <v>0.9752001653090259</v>
+        <v>0.9752001653090262</v>
       </c>
       <c r="M23">
-        <v>0.9974243354046476</v>
+        <v>0.9974243354046475</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9784660817074876</v>
+        <v>0.9784660817074868</v>
       </c>
       <c r="D24">
-        <v>1.002010364507723</v>
+        <v>1.002010364507722</v>
       </c>
       <c r="E24">
-        <v>0.9674242526719036</v>
+        <v>0.9674242526719031</v>
       </c>
       <c r="F24">
-        <v>0.9915490744321408</v>
+        <v>0.99154907443214</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037619093146763</v>
+        <v>1.037619093146762</v>
       </c>
       <c r="J24">
-        <v>1.006819024203178</v>
+        <v>1.006819024203177</v>
       </c>
       <c r="K24">
         <v>1.016002267632235</v>
       </c>
       <c r="L24">
-        <v>0.9820486496194929</v>
+        <v>0.9820486496194925</v>
       </c>
       <c r="M24">
-        <v>1.005726241143234</v>
+        <v>1.005726241143233</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9901991038592562</v>
+        <v>0.9901991038592552</v>
       </c>
       <c r="D25">
         <v>1.01074005848236</v>
       </c>
       <c r="E25">
-        <v>0.9766429283008874</v>
+        <v>0.9766429283008871</v>
       </c>
       <c r="F25">
         <v>1.002282185086912</v>
@@ -1313,13 +1313,13 @@
         <v>1.041829534130894</v>
       </c>
       <c r="J25">
-        <v>1.015060869799322</v>
+        <v>1.015060869799321</v>
       </c>
       <c r="K25">
         <v>1.023173905693336</v>
       </c>
       <c r="L25">
-        <v>0.989614987806734</v>
+        <v>0.9896149878067335</v>
       </c>
       <c r="M25">
         <v>1.014845176076667</v>

--- a/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9990693316697782</v>
+        <v>0.9990693316697783</v>
       </c>
       <c r="D2">
         <v>1.017354257152342</v>
       </c>
       <c r="E2">
-        <v>0.9836874341700999</v>
+        <v>0.9836874341700997</v>
       </c>
       <c r="F2">
-        <v>1.010436951391177</v>
+        <v>1.010436951391178</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,7 +439,7 @@
         <v>1.044966378326091</v>
       </c>
       <c r="J2">
-        <v>1.021277914544396</v>
+        <v>1.021277914544397</v>
       </c>
       <c r="K2">
         <v>1.02857700018201</v>
@@ -448,7 +448,7 @@
         <v>0.995378806243729</v>
       </c>
       <c r="M2">
-        <v>1.02175277292295</v>
+        <v>1.021752772922951</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,7 +465,7 @@
         <v>1.021974794197166</v>
       </c>
       <c r="E3">
-        <v>0.9886419828246856</v>
+        <v>0.9886419828246855</v>
       </c>
       <c r="F3">
         <v>1.016147235122933</v>
@@ -480,7 +480,7 @@
         <v>1.025605880093944</v>
       </c>
       <c r="K3">
-        <v>1.032334016987265</v>
+        <v>1.032334016987264</v>
       </c>
       <c r="L3">
         <v>0.9994222844681919</v>
@@ -500,10 +500,10 @@
         <v>1.009153858912716</v>
       </c>
       <c r="D4">
-        <v>1.024886319361284</v>
+        <v>1.024886319361285</v>
       </c>
       <c r="E4">
-        <v>0.9917791295991244</v>
+        <v>0.9917791295991243</v>
       </c>
       <c r="F4">
         <v>1.01975185770053</v>
@@ -541,7 +541,7 @@
         <v>1.026092396719499</v>
       </c>
       <c r="E5">
-        <v>0.9930822680997241</v>
+        <v>0.9930822680997239</v>
       </c>
       <c r="F5">
         <v>1.021246609772225</v>
@@ -553,7 +553,7 @@
         <v>1.049027838974376</v>
       </c>
       <c r="J5">
-        <v>1.029451576459723</v>
+        <v>1.029451576459722</v>
       </c>
       <c r="K5">
         <v>1.035668818079396</v>
@@ -579,7 +579,7 @@
         <v>1.026293873653442</v>
       </c>
       <c r="E6">
-        <v>0.9933001699226647</v>
+        <v>0.993300169922665</v>
       </c>
       <c r="F6">
         <v>1.021496402930737</v>
@@ -594,13 +594,13 @@
         <v>1.029639467155047</v>
       </c>
       <c r="K6">
-        <v>1.03583165235419</v>
+        <v>1.035831652354191</v>
       </c>
       <c r="L6">
         <v>1.003215435909562</v>
       </c>
       <c r="M6">
-        <v>1.031087206106474</v>
+        <v>1.031087206106475</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009175512673098</v>
+        <v>1.009175512673097</v>
       </c>
       <c r="D7">
-        <v>1.02490250443846</v>
+        <v>1.024902504438459</v>
       </c>
       <c r="E7">
         <v>0.9917966030066083</v>
       </c>
       <c r="F7">
-        <v>1.019771910457424</v>
+        <v>1.019771910457423</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.048480889987377</v>
       </c>
       <c r="J7">
-        <v>1.028341378956792</v>
+        <v>1.028341378956791</v>
       </c>
       <c r="K7">
-        <v>1.034706484835659</v>
+        <v>1.034706484835658</v>
       </c>
       <c r="L7">
         <v>1.001992019501817</v>
       </c>
       <c r="M7">
-        <v>1.029634498374154</v>
+        <v>1.029634498374153</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,7 +655,7 @@
         <v>1.018932501927573</v>
       </c>
       <c r="E8">
-        <v>0.9853765535314262</v>
+        <v>0.9853765535314264</v>
       </c>
       <c r="F8">
         <v>1.012386086169137</v>
@@ -673,7 +673,7 @@
         <v>1.029861984743249</v>
       </c>
       <c r="L8">
-        <v>0.9967583212197043</v>
+        <v>0.9967583212197045</v>
       </c>
       <c r="M8">
         <v>1.023400853682531</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9862155498871125</v>
+        <v>0.9862155498871119</v>
       </c>
       <c r="D9">
         <v>1.007773559772466</v>
       </c>
       <c r="E9">
-        <v>0.9735005754643744</v>
+        <v>0.9735005754643746</v>
       </c>
       <c r="F9">
-        <v>0.9986313534413581</v>
+        <v>0.9986313534413578</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040407186130615</v>
+        <v>1.040407186130614</v>
       </c>
       <c r="J9">
-        <v>1.012264642326668</v>
+        <v>1.012264642326667</v>
       </c>
       <c r="K9">
-        <v>1.020741762955244</v>
+        <v>1.020741762955243</v>
       </c>
       <c r="L9">
-        <v>0.9870387350552675</v>
+        <v>0.9870387350552677</v>
       </c>
       <c r="M9">
-        <v>1.011746675078527</v>
+        <v>1.011746675078526</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9755489981697719</v>
+        <v>0.9755489981697707</v>
       </c>
       <c r="D10">
-        <v>0.9998437943530449</v>
+        <v>0.9998437943530438</v>
       </c>
       <c r="E10">
-        <v>0.9651493291682115</v>
+        <v>0.9651493291682113</v>
       </c>
       <c r="F10">
-        <v>0.9888898949893085</v>
+        <v>0.9888898949893075</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036563034893493</v>
+        <v>1.036563034893492</v>
       </c>
       <c r="J10">
-        <v>1.004767469002972</v>
+        <v>1.004767469002971</v>
       </c>
       <c r="K10">
-        <v>1.014215869713941</v>
+        <v>1.01421586971394</v>
       </c>
       <c r="L10">
-        <v>0.9801776843692747</v>
+        <v>0.9801776843692745</v>
       </c>
       <c r="M10">
-        <v>1.003462685653709</v>
+        <v>1.003462685653708</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9707436295657853</v>
+        <v>0.9707436295657857</v>
       </c>
       <c r="D11">
-        <v>0.996278367071553</v>
+        <v>0.9962783670715532</v>
       </c>
       <c r="E11">
-        <v>0.9614163135711723</v>
+        <v>0.9614163135711721</v>
       </c>
       <c r="F11">
         <v>0.9845173846598175</v>
@@ -790,7 +790,7 @@
         <v>0.9771044848632966</v>
       </c>
       <c r="M11">
-        <v>0.9997373085956253</v>
+        <v>0.9997373085956252</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9689283928185118</v>
+        <v>0.9689283928185126</v>
       </c>
       <c r="D12">
-        <v>0.9949327320007516</v>
+        <v>0.9949327320007525</v>
       </c>
       <c r="E12">
-        <v>0.9600108238913282</v>
+        <v>0.9600108238913284</v>
       </c>
       <c r="F12">
-        <v>0.9828682474785478</v>
+        <v>0.9828682474785485</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>1.000108562875968</v>
       </c>
       <c r="K12">
-        <v>1.010157661064831</v>
+        <v>1.010157661064832</v>
       </c>
       <c r="L12">
-        <v>0.9759464618963617</v>
+        <v>0.9759464618963619</v>
       </c>
       <c r="M12">
-        <v>0.9983311932096739</v>
+        <v>0.9983311932096745</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -845,10 +845,10 @@
         <v>0.9952223635350868</v>
       </c>
       <c r="E13">
-        <v>0.9603131833114346</v>
+        <v>0.960313183311435</v>
       </c>
       <c r="F13">
-        <v>0.9832231548569861</v>
+        <v>0.9832231548569863</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>1.010397327787798</v>
       </c>
       <c r="L13">
-        <v>0.9761956277520722</v>
+        <v>0.9761956277520726</v>
       </c>
       <c r="M13">
-        <v>0.9986338476826376</v>
+        <v>0.9986338476826379</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9705942137845921</v>
+        <v>0.9705942137845925</v>
       </c>
       <c r="D14">
-        <v>0.9961675795904587</v>
+        <v>0.9961675795904589</v>
       </c>
       <c r="E14">
-        <v>0.9613005286494469</v>
+        <v>0.961300528649447</v>
       </c>
       <c r="F14">
-        <v>0.9843815873543463</v>
+        <v>0.9843815873543468</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.034761881798079</v>
       </c>
       <c r="J14">
-        <v>1.001281109239296</v>
+        <v>1.001281109239297</v>
       </c>
       <c r="K14">
         <v>1.011179197738373</v>
       </c>
       <c r="L14">
-        <v>0.977009105837076</v>
+        <v>0.9770091058370762</v>
       </c>
       <c r="M14">
-        <v>0.9996215440717271</v>
+        <v>0.9996215440717275</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,13 +915,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9713757174210969</v>
+        <v>0.9713757174210974</v>
       </c>
       <c r="D15">
-        <v>0.9967470922077661</v>
+        <v>0.9967470922077665</v>
       </c>
       <c r="E15">
-        <v>0.9619063209199012</v>
+        <v>0.9619063209199007</v>
       </c>
       <c r="F15">
         <v>0.9850919672274617</v>
@@ -933,13 +933,13 @@
         <v>1.035046561593449</v>
       </c>
       <c r="J15">
-        <v>1.001831130671394</v>
+        <v>1.001831130671395</v>
       </c>
       <c r="K15">
         <v>1.01165834504905</v>
       </c>
       <c r="L15">
-        <v>0.9775080945024398</v>
+        <v>0.9775080945024395</v>
       </c>
       <c r="M15">
         <v>1.000227086173975</v>
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9758637939360206</v>
+        <v>0.975863793936022</v>
       </c>
       <c r="D16">
-        <v>1.000077520823393</v>
+        <v>1.000077520823394</v>
       </c>
       <c r="E16">
-        <v>0.9653945047992573</v>
+        <v>0.9653945047992575</v>
       </c>
       <c r="F16">
-        <v>0.9891766820767395</v>
+        <v>0.98917668207674</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036677159829188</v>
+        <v>1.036677159829189</v>
       </c>
       <c r="J16">
-        <v>1.004988900412902</v>
+        <v>1.004988900412903</v>
       </c>
       <c r="K16">
-        <v>1.014408702119107</v>
+        <v>1.014408702119108</v>
       </c>
       <c r="L16">
-        <v>0.9803793930338186</v>
+        <v>0.9803793930338187</v>
       </c>
       <c r="M16">
         <v>1.003706882327784</v>
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9786275440198451</v>
+        <v>0.9786275440198455</v>
       </c>
       <c r="D17">
         <v>1.002130332233692</v>
       </c>
       <c r="E17">
-        <v>0.9675503667626182</v>
+        <v>0.9675503667626184</v>
       </c>
       <c r="F17">
-        <v>0.991696369162497</v>
+        <v>0.9916963691624977</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,10 +1012,10 @@
         <v>1.006932554568627</v>
       </c>
       <c r="K17">
-        <v>1.016101111829311</v>
+        <v>1.016101111829312</v>
       </c>
       <c r="L17">
-        <v>0.982152327345945</v>
+        <v>0.9821523273459452</v>
       </c>
       <c r="M17">
         <v>1.005851574590893</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802217458460663</v>
+        <v>0.9802217458460658</v>
       </c>
       <c r="D18">
-        <v>1.00331509451424</v>
+        <v>1.003315094514239</v>
       </c>
       <c r="E18">
-        <v>0.968796664194303</v>
+        <v>0.9687966641943031</v>
       </c>
       <c r="F18">
-        <v>0.993151293942491</v>
+        <v>0.9931512939424908</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>1.017076849414317</v>
       </c>
       <c r="L18">
-        <v>0.983176659446105</v>
+        <v>0.9831766594461053</v>
       </c>
       <c r="M18">
         <v>1.007089301509879</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9807623651047352</v>
+        <v>0.9807623651047345</v>
       </c>
       <c r="D19">
-        <v>1.003716971700581</v>
+        <v>1.00371697170058</v>
       </c>
       <c r="E19">
-        <v>0.9692197611093402</v>
+        <v>0.9692197611093397</v>
       </c>
       <c r="F19">
-        <v>0.9936449326665182</v>
+        <v>0.9936449326665175</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.038447976165983</v>
       </c>
       <c r="J19">
-        <v>1.008433370865769</v>
+        <v>1.008433370865768</v>
       </c>
       <c r="K19">
-        <v>1.017407651574195</v>
+        <v>1.017407651574194</v>
       </c>
       <c r="L19">
-        <v>0.9835243020267787</v>
+        <v>0.9835243020267782</v>
       </c>
       <c r="M19">
         <v>1.007509134105282</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9783328813428954</v>
+        <v>0.9783328813428951</v>
       </c>
       <c r="D20">
-        <v>1.001911399274292</v>
+        <v>1.001911399274291</v>
       </c>
       <c r="E20">
         <v>0.9673202287626576</v>
       </c>
       <c r="F20">
-        <v>0.9914275702957549</v>
+        <v>0.9914275702957548</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,10 +1123,10 @@
         <v>1.037570945276641</v>
       </c>
       <c r="J20">
-        <v>1.006725363896855</v>
+        <v>1.006725363896854</v>
       </c>
       <c r="K20">
-        <v>1.015920722090135</v>
+        <v>1.015920722090134</v>
       </c>
       <c r="L20">
         <v>0.9819631287419022</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9702196035657259</v>
+        <v>0.9702196035657249</v>
       </c>
       <c r="D21">
-        <v>0.9958898370076984</v>
+        <v>0.9958898370076976</v>
       </c>
       <c r="E21">
-        <v>0.9610103125630786</v>
+        <v>0.9610103125630785</v>
       </c>
       <c r="F21">
-        <v>0.984041163134209</v>
+        <v>0.9840411631342086</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034625346409492</v>
+        <v>1.034625346409491</v>
       </c>
       <c r="J21">
-        <v>1.001017443395443</v>
+        <v>1.001017443395442</v>
       </c>
       <c r="K21">
-        <v>1.010949498331865</v>
+        <v>1.010949498331864</v>
       </c>
       <c r="L21">
-        <v>0.9767700219162301</v>
+        <v>0.9767700219162299</v>
       </c>
       <c r="M21">
-        <v>0.9993313222556992</v>
+        <v>0.9993313222556988</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9649417972622429</v>
+        <v>0.9649417972622416</v>
       </c>
       <c r="D22">
-        <v>0.9919798917803512</v>
+        <v>0.9919798917803505</v>
       </c>
       <c r="E22">
-        <v>0.9569330206187359</v>
+        <v>0.9569330206187358</v>
       </c>
       <c r="F22">
-        <v>0.9792514063995703</v>
+        <v>0.9792514063995695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032696756839778</v>
+        <v>1.032696756839777</v>
       </c>
       <c r="J22">
-        <v>0.9973017529697882</v>
+        <v>0.9973017529697871</v>
       </c>
       <c r="K22">
-        <v>1.007711920613649</v>
+        <v>1.007711920613648</v>
       </c>
       <c r="L22">
-        <v>0.9734088024902164</v>
+        <v>0.9734088024902162</v>
       </c>
       <c r="M22">
-        <v>0.9952454154927556</v>
+        <v>0.9952454154927547</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,13 +1219,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9677572304681535</v>
+        <v>0.9677572304681543</v>
       </c>
       <c r="D23">
-        <v>0.994064912113279</v>
+        <v>0.9940649121132799</v>
       </c>
       <c r="E23">
-        <v>0.9591053738653482</v>
+        <v>0.959105373865348</v>
       </c>
       <c r="F23">
         <v>0.9818050016130445</v>
@@ -1234,19 +1234,19 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033726690756113</v>
+        <v>1.033726690756114</v>
       </c>
       <c r="J23">
-        <v>0.9992840897596297</v>
+        <v>0.9992840897596305</v>
       </c>
       <c r="K23">
-        <v>1.009439306852811</v>
+        <v>1.009439306852812</v>
       </c>
       <c r="L23">
-        <v>0.9752001653090262</v>
+        <v>0.9752001653090259</v>
       </c>
       <c r="M23">
-        <v>0.9974243354046475</v>
+        <v>0.9974243354046476</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9784660817074868</v>
+        <v>0.9784660817074876</v>
       </c>
       <c r="D24">
-        <v>1.002010364507722</v>
+        <v>1.002010364507723</v>
       </c>
       <c r="E24">
-        <v>0.9674242526719031</v>
+        <v>0.9674242526719036</v>
       </c>
       <c r="F24">
-        <v>0.99154907443214</v>
+        <v>0.9915490744321408</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037619093146762</v>
+        <v>1.037619093146763</v>
       </c>
       <c r="J24">
-        <v>1.006819024203177</v>
+        <v>1.006819024203178</v>
       </c>
       <c r="K24">
         <v>1.016002267632235</v>
       </c>
       <c r="L24">
-        <v>0.9820486496194925</v>
+        <v>0.9820486496194929</v>
       </c>
       <c r="M24">
-        <v>1.005726241143233</v>
+        <v>1.005726241143234</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9901991038592552</v>
+        <v>0.9901991038592562</v>
       </c>
       <c r="D25">
         <v>1.01074005848236</v>
       </c>
       <c r="E25">
-        <v>0.9766429283008871</v>
+        <v>0.9766429283008874</v>
       </c>
       <c r="F25">
         <v>1.002282185086912</v>
@@ -1313,13 +1313,13 @@
         <v>1.041829534130894</v>
       </c>
       <c r="J25">
-        <v>1.015060869799321</v>
+        <v>1.015060869799322</v>
       </c>
       <c r="K25">
         <v>1.023173905693336</v>
       </c>
       <c r="L25">
-        <v>0.9896149878067335</v>
+        <v>0.989614987806734</v>
       </c>
       <c r="M25">
         <v>1.014845176076667</v>

--- a/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9990693316697783</v>
+        <v>0.9990705657275775</v>
       </c>
       <c r="D2">
-        <v>1.017354257152342</v>
+        <v>1.0173555334695</v>
       </c>
       <c r="E2">
-        <v>0.9836874341700997</v>
+        <v>0.9836897735756417</v>
       </c>
       <c r="F2">
-        <v>1.010436951391178</v>
+        <v>1.010438153788039</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044966378326091</v>
+        <v>1.044967085552582</v>
       </c>
       <c r="J2">
-        <v>1.021277914544397</v>
+        <v>1.021279111597128</v>
       </c>
       <c r="K2">
-        <v>1.02857700018201</v>
+        <v>1.028578259471854</v>
       </c>
       <c r="L2">
-        <v>0.995378806243729</v>
+        <v>0.9953811116730023</v>
       </c>
       <c r="M2">
-        <v>1.021752772922951</v>
+        <v>1.021753959001169</v>
+      </c>
+      <c r="N2">
+        <v>1.016346271444366</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005257521482934</v>
+        <v>1.005255602837586</v>
       </c>
       <c r="D3">
-        <v>1.021974794197166</v>
+        <v>1.021973605398634</v>
       </c>
       <c r="E3">
-        <v>0.9886419828246855</v>
+        <v>0.9886431229253888</v>
       </c>
       <c r="F3">
-        <v>1.016147235122933</v>
+        <v>1.016146211592476</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047126656932269</v>
+        <v>1.047125932407576</v>
       </c>
       <c r="J3">
-        <v>1.025605880093944</v>
+        <v>1.025604013011854</v>
       </c>
       <c r="K3">
-        <v>1.032334016987264</v>
+        <v>1.032332842597678</v>
       </c>
       <c r="L3">
-        <v>0.9994222844681919</v>
+        <v>0.9994234095579051</v>
       </c>
       <c r="M3">
-        <v>1.026577595175413</v>
+        <v>1.02657658422839</v>
+      </c>
+      <c r="N3">
+        <v>1.019319191477136</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009153858912716</v>
+        <v>1.009149980861348</v>
       </c>
       <c r="D4">
-        <v>1.024886319361285</v>
+        <v>1.024883595442036</v>
       </c>
       <c r="E4">
-        <v>0.9917791295991243</v>
+        <v>0.991779530374934</v>
       </c>
       <c r="F4">
-        <v>1.01975185770053</v>
+        <v>1.019749452493472</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048473436293177</v>
+        <v>1.0484718184625</v>
       </c>
       <c r="J4">
-        <v>1.028326271534747</v>
+        <v>1.028322490273233</v>
       </c>
       <c r="K4">
-        <v>1.034693387353597</v>
+        <v>1.034690694369642</v>
       </c>
       <c r="L4">
-        <v>1.001977796482429</v>
+        <v>1.001978192320947</v>
       </c>
       <c r="M4">
-        <v>1.029617599563883</v>
+        <v>1.029615222013184</v>
+      </c>
+      <c r="N4">
+        <v>1.021186850346134</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010767284535949</v>
+        <v>1.010762600580699</v>
       </c>
       <c r="D5">
-        <v>1.026092396719499</v>
+        <v>1.026089040759931</v>
       </c>
       <c r="E5">
-        <v>0.9930822680997239</v>
+        <v>0.9930823662139098</v>
       </c>
       <c r="F5">
-        <v>1.021246609772225</v>
+        <v>1.021243636681506</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049027838974376</v>
+        <v>1.049025852954965</v>
       </c>
       <c r="J5">
-        <v>1.029451576459722</v>
+        <v>1.029447005736958</v>
       </c>
       <c r="K5">
-        <v>1.035668818079396</v>
+        <v>1.035665499175464</v>
       </c>
       <c r="L5">
-        <v>1.003038190948884</v>
+        <v>1.003038287888614</v>
       </c>
       <c r="M5">
-        <v>1.030876849261748</v>
+        <v>1.030873909383612</v>
+      </c>
+      <c r="N5">
+        <v>1.021959166777057</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011036777465614</v>
+        <v>1.011031959201115</v>
       </c>
       <c r="D6">
-        <v>1.026293873653442</v>
+        <v>1.026290412324584</v>
       </c>
       <c r="E6">
-        <v>0.993300169922665</v>
+        <v>0.9933002176791988</v>
       </c>
       <c r="F6">
-        <v>1.021496402930737</v>
+        <v>1.021493335221456</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049120246913651</v>
+        <v>1.049118199489409</v>
       </c>
       <c r="J6">
-        <v>1.029639467155047</v>
+        <v>1.029634764741764</v>
       </c>
       <c r="K6">
-        <v>1.035831652354191</v>
+        <v>1.035828229062427</v>
       </c>
       <c r="L6">
-        <v>1.003215435909562</v>
+        <v>1.003215483097216</v>
       </c>
       <c r="M6">
-        <v>1.031087206106475</v>
+        <v>1.031084172499314</v>
+      </c>
+      <c r="N6">
+        <v>1.022088104392973</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009175512673097</v>
+        <v>1.009171623784973</v>
       </c>
       <c r="D7">
-        <v>1.024902504438459</v>
+        <v>1.024899772022795</v>
       </c>
       <c r="E7">
-        <v>0.9917966030066083</v>
+        <v>0.9917969997070084</v>
       </c>
       <c r="F7">
-        <v>1.019771910457423</v>
+        <v>1.019769497612633</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048480889987377</v>
+        <v>1.048479267208756</v>
       </c>
       <c r="J7">
-        <v>1.028341378956791</v>
+        <v>1.028337587087931</v>
       </c>
       <c r="K7">
-        <v>1.034706484835658</v>
+        <v>1.034703783440212</v>
       </c>
       <c r="L7">
-        <v>1.001992019501817</v>
+        <v>1.001992411316992</v>
       </c>
       <c r="M7">
-        <v>1.029634498374153</v>
+        <v>1.029632113262922</v>
+      </c>
+      <c r="N7">
+        <v>1.021197219840289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001183750844236</v>
+        <v>1.00118390181263</v>
       </c>
       <c r="D8">
-        <v>1.018932501927573</v>
+        <v>1.01893293207596</v>
       </c>
       <c r="E8">
-        <v>0.9853765535314264</v>
+        <v>0.9853784796227283</v>
       </c>
       <c r="F8">
-        <v>1.012386086169137</v>
+        <v>1.012386523484415</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045707304064147</v>
+        <v>1.045707520199882</v>
       </c>
       <c r="J8">
-        <v>1.022757670644167</v>
+        <v>1.022757817247469</v>
       </c>
       <c r="K8">
-        <v>1.029861984743249</v>
+        <v>1.029862409332847</v>
       </c>
       <c r="L8">
-        <v>0.9967583212197045</v>
+        <v>0.9967602202337358</v>
       </c>
       <c r="M8">
-        <v>1.023400853682531</v>
+        <v>1.023401285254428</v>
+      </c>
+      <c r="N8">
+        <v>1.017362935019378</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9862155498871119</v>
+        <v>0.98622351129236</v>
       </c>
       <c r="D9">
-        <v>1.007773559772466</v>
+        <v>1.007780074205191</v>
       </c>
       <c r="E9">
-        <v>0.9735005754643746</v>
+        <v>0.973505509935285</v>
       </c>
       <c r="F9">
-        <v>0.9986313534413578</v>
+        <v>0.9986373163036854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040407186130614</v>
+        <v>1.040410925395225</v>
       </c>
       <c r="J9">
-        <v>1.012264642326667</v>
+        <v>1.0122723114377</v>
       </c>
       <c r="K9">
-        <v>1.020741762955243</v>
+        <v>1.020748173775643</v>
       </c>
       <c r="L9">
-        <v>0.9870387350552677</v>
+        <v>0.9870435837275031</v>
       </c>
       <c r="M9">
-        <v>1.011746675078526</v>
+        <v>1.01175254085734</v>
+      </c>
+      <c r="N9">
+        <v>1.010149835134153</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9755489981697707</v>
+        <v>0.9755627512930106</v>
       </c>
       <c r="D10">
-        <v>0.9998437943530438</v>
+        <v>0.9998547921541618</v>
       </c>
       <c r="E10">
-        <v>0.9651493291682113</v>
+        <v>0.9651565318321664</v>
       </c>
       <c r="F10">
-        <v>0.9888898949893075</v>
+        <v>0.988899966675157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036563034893492</v>
+        <v>1.036569359271792</v>
       </c>
       <c r="J10">
-        <v>1.004767469002971</v>
+        <v>1.004780636712206</v>
       </c>
       <c r="K10">
-        <v>1.01421586971394</v>
+        <v>1.014226668868529</v>
       </c>
       <c r="L10">
-        <v>0.9801776843692745</v>
+        <v>0.9801847443531273</v>
       </c>
       <c r="M10">
-        <v>1.003462685653708</v>
+        <v>1.003472570125497</v>
+      </c>
+      <c r="N10">
+        <v>1.004991687185037</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9707436295657857</v>
+        <v>0.9707600615883308</v>
       </c>
       <c r="D11">
-        <v>0.9962783670715532</v>
+        <v>0.9962914298362969</v>
       </c>
       <c r="E11">
-        <v>0.9614163135711721</v>
+        <v>0.9614245746604978</v>
       </c>
       <c r="F11">
-        <v>0.9845173846598175</v>
+        <v>0.9845293597191833</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03481632627128</v>
+        <v>1.034823838462083</v>
       </c>
       <c r="J11">
-        <v>1.001386271333354</v>
+        <v>1.001401959277409</v>
       </c>
       <c r="K11">
-        <v>1.011270810880481</v>
+        <v>1.011283624891587</v>
       </c>
       <c r="L11">
-        <v>0.9771044848632966</v>
+        <v>0.9771125731862178</v>
       </c>
       <c r="M11">
-        <v>0.9997373085956252</v>
+        <v>0.999749048405666</v>
+      </c>
+      <c r="N11">
+        <v>1.002664500297787</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9689283928185126</v>
+        <v>0.9689458488680974</v>
       </c>
       <c r="D12">
-        <v>0.9949327320007525</v>
+        <v>0.9949465825960725</v>
       </c>
       <c r="E12">
-        <v>0.9600108238913284</v>
+        <v>0.9600194909981238</v>
       </c>
       <c r="F12">
-        <v>0.9828682474785485</v>
+        <v>0.9828809505553633</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034154366365737</v>
+        <v>1.034162331285025</v>
       </c>
       <c r="J12">
-        <v>1.000108562875968</v>
+        <v>1.000125210338784</v>
       </c>
       <c r="K12">
-        <v>1.010157661064832</v>
+        <v>1.010171242754219</v>
       </c>
       <c r="L12">
-        <v>0.9759464618963619</v>
+        <v>0.9759549441136299</v>
       </c>
       <c r="M12">
-        <v>0.9983311932096745</v>
+        <v>0.9983436416278109</v>
+      </c>
+      <c r="N12">
+        <v>1.001784971876476</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.969319177844859</v>
+        <v>0.9693364128685473</v>
       </c>
       <c r="D13">
-        <v>0.9952223635350868</v>
+        <v>0.9952360441568372</v>
       </c>
       <c r="E13">
-        <v>0.960313183311435</v>
+        <v>0.9603217627186819</v>
       </c>
       <c r="F13">
-        <v>0.9832231548569863</v>
+        <v>0.9832357007786816</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034296968235015</v>
+        <v>1.034304835499232</v>
       </c>
       <c r="J13">
-        <v>1.000383647481077</v>
+        <v>1.000400088021905</v>
       </c>
       <c r="K13">
-        <v>1.010397327787798</v>
+        <v>1.010410743899509</v>
       </c>
       <c r="L13">
-        <v>0.9761956277520726</v>
+        <v>0.9762040249154141</v>
       </c>
       <c r="M13">
-        <v>0.9986338476826379</v>
+        <v>0.998646143183756</v>
+      </c>
+      <c r="N13">
+        <v>1.001974335175366</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9705942137845925</v>
+        <v>0.9706107298419933</v>
       </c>
       <c r="D14">
-        <v>0.9961675795904589</v>
+        <v>0.9961807070388832</v>
       </c>
       <c r="E14">
-        <v>0.961300528649447</v>
+        <v>0.9613088230288201</v>
       </c>
       <c r="F14">
-        <v>0.9843815873543468</v>
+        <v>0.9843936221481736</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034761881798079</v>
+        <v>1.034769431168702</v>
       </c>
       <c r="J14">
-        <v>1.001281109239297</v>
+        <v>1.001296876004782</v>
       </c>
       <c r="K14">
-        <v>1.011179197738373</v>
+        <v>1.011192074800019</v>
       </c>
       <c r="L14">
-        <v>0.9770091058370762</v>
+        <v>0.9770172264680919</v>
       </c>
       <c r="M14">
-        <v>0.9996215440717275</v>
+        <v>0.9996333420451738</v>
+      </c>
+      <c r="N14">
+        <v>1.002592112766995</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9713757174210974</v>
+        <v>0.9713917944438939</v>
       </c>
       <c r="D15">
-        <v>0.9967470922077665</v>
+        <v>0.996759881657963</v>
       </c>
       <c r="E15">
-        <v>0.9619063209199007</v>
+        <v>0.9619144414355432</v>
       </c>
       <c r="F15">
-        <v>0.9850919672274617</v>
+        <v>0.9851036899603551</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035046561593449</v>
+        <v>1.035053916666254</v>
       </c>
       <c r="J15">
-        <v>1.001831130671395</v>
+        <v>1.001846485480941</v>
       </c>
       <c r="K15">
-        <v>1.01165834504905</v>
+        <v>1.011670892603839</v>
       </c>
       <c r="L15">
-        <v>0.9775080945024395</v>
+        <v>0.9775160463743453</v>
       </c>
       <c r="M15">
-        <v>1.000227086173975</v>
+        <v>1.000238580251388</v>
+      </c>
+      <c r="N15">
+        <v>1.002970711223685</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.975863793936022</v>
+        <v>0.9758773731410891</v>
       </c>
       <c r="D16">
-        <v>1.000077520823394</v>
+        <v>1.000088384368169</v>
       </c>
       <c r="E16">
-        <v>0.9653945047992575</v>
+        <v>0.965401638941887</v>
       </c>
       <c r="F16">
-        <v>0.98917668207674</v>
+        <v>0.9891866302525194</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036677159829189</v>
+        <v>1.036683406920065</v>
       </c>
       <c r="J16">
-        <v>1.004988900412903</v>
+        <v>1.005001903999708</v>
       </c>
       <c r="K16">
-        <v>1.014408702119108</v>
+        <v>1.014419370138145</v>
       </c>
       <c r="L16">
-        <v>0.9803793930338187</v>
+        <v>0.9803863863676558</v>
       </c>
       <c r="M16">
-        <v>1.003706882327784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.003716646270222</v>
+      </c>
+      <c r="N16">
+        <v>1.005144075501934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9786275440198455</v>
+        <v>0.9786396043607486</v>
       </c>
       <c r="D17">
-        <v>1.002130332233692</v>
+        <v>1.002140022290263</v>
       </c>
       <c r="E17">
-        <v>0.9675503667626184</v>
+        <v>0.9675569035346508</v>
       </c>
       <c r="F17">
-        <v>0.9916963691624977</v>
+        <v>0.9917052390214095</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037677447152441</v>
+        <v>1.037683018380121</v>
       </c>
       <c r="J17">
-        <v>1.006932554568627</v>
+        <v>1.006944122222613</v>
       </c>
       <c r="K17">
-        <v>1.016101111829312</v>
+        <v>1.016110632920294</v>
       </c>
       <c r="L17">
-        <v>0.9821523273459452</v>
+        <v>0.9821587392244177</v>
       </c>
       <c r="M17">
-        <v>1.005851574590893</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.005860285529568</v>
+      </c>
+      <c r="N17">
+        <v>1.006481593674577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802217458460658</v>
+        <v>0.9802329365177214</v>
       </c>
       <c r="D18">
-        <v>1.003315094514239</v>
+        <v>1.003324111856931</v>
       </c>
       <c r="E18">
-        <v>0.9687966641943031</v>
+        <v>0.9688028597846617</v>
       </c>
       <c r="F18">
-        <v>0.9931512939424908</v>
+        <v>0.9931595466468807</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038253029056747</v>
+        <v>1.038258212575868</v>
       </c>
       <c r="J18">
-        <v>1.008053352654765</v>
+        <v>1.008064096010542</v>
       </c>
       <c r="K18">
-        <v>1.017076849414317</v>
+        <v>1.017085712433943</v>
       </c>
       <c r="L18">
-        <v>0.9831766594461053</v>
+        <v>0.9831827389092065</v>
       </c>
       <c r="M18">
-        <v>1.007089301509879</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.00709740920576</v>
+      </c>
+      <c r="N18">
+        <v>1.00725278252543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9807623651047345</v>
+        <v>0.9807732619079891</v>
       </c>
       <c r="D19">
-        <v>1.00371697170058</v>
+        <v>1.003725761597469</v>
       </c>
       <c r="E19">
-        <v>0.9692197611093397</v>
+        <v>0.9692258415565483</v>
       </c>
       <c r="F19">
-        <v>0.9936449326665175</v>
+        <v>0.9936529768742556</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038447976165983</v>
+        <v>1.038453028556073</v>
       </c>
       <c r="J19">
-        <v>1.008433370865768</v>
+        <v>1.008443835336626</v>
       </c>
       <c r="K19">
-        <v>1.017407651574194</v>
+        <v>1.017416292002077</v>
       </c>
       <c r="L19">
-        <v>0.9835243020267782</v>
+        <v>0.9835302692517165</v>
       </c>
       <c r="M19">
-        <v>1.007509134105282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.007517037909294</v>
+      </c>
+      <c r="N19">
+        <v>1.007514247381649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9783328813428951</v>
+        <v>0.9783451029398049</v>
       </c>
       <c r="D20">
-        <v>1.001911399274291</v>
+        <v>1.001921214003311</v>
       </c>
       <c r="E20">
-        <v>0.9673202287626576</v>
+        <v>0.9673268288670075</v>
       </c>
       <c r="F20">
-        <v>0.9914275702957548</v>
+        <v>0.9914365546104345</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037570945276641</v>
+        <v>1.037576588336187</v>
       </c>
       <c r="J20">
-        <v>1.006725363896854</v>
+        <v>1.006737084224922</v>
       </c>
       <c r="K20">
-        <v>1.015920722090134</v>
+        <v>1.015930365093098</v>
       </c>
       <c r="L20">
-        <v>0.9819631287419022</v>
+        <v>0.9819696022994511</v>
       </c>
       <c r="M20">
-        <v>1.005622849194764</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.005631671963007</v>
+      </c>
+      <c r="N20">
+        <v>1.006339024829456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9702196035657249</v>
+        <v>0.9702363305124775</v>
       </c>
       <c r="D21">
-        <v>0.9958898370076976</v>
+        <v>0.9959031267577896</v>
       </c>
       <c r="E21">
-        <v>0.9610103125630785</v>
+        <v>0.9610186905083548</v>
       </c>
       <c r="F21">
-        <v>0.9840411631342086</v>
+        <v>0.9840533478415027</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034625346409491</v>
+        <v>1.034632989062931</v>
       </c>
       <c r="J21">
-        <v>1.001017443395442</v>
+        <v>1.00103340790369</v>
       </c>
       <c r="K21">
-        <v>1.010949498331864</v>
+        <v>1.010962533580464</v>
       </c>
       <c r="L21">
-        <v>0.9767700219162299</v>
+        <v>0.9767782236387162</v>
       </c>
       <c r="M21">
-        <v>0.9993313222556988</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9993432661828437</v>
+      </c>
+      <c r="N21">
+        <v>1.002410618567401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9649417972622416</v>
+        <v>0.9649615264834549</v>
       </c>
       <c r="D22">
-        <v>0.9919798917803505</v>
+        <v>0.9919954881800398</v>
       </c>
       <c r="E22">
-        <v>0.9569330206187358</v>
+        <v>0.9569425916938945</v>
       </c>
       <c r="F22">
-        <v>0.9792514063995695</v>
+        <v>0.9792657263745771</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032696756839777</v>
+        <v>1.032705724132779</v>
       </c>
       <c r="J22">
-        <v>0.9973017529697871</v>
+        <v>0.9973205227918601</v>
       </c>
       <c r="K22">
-        <v>1.007711920613648</v>
+        <v>1.007727201436382</v>
       </c>
       <c r="L22">
-        <v>0.9734088024902162</v>
+        <v>0.9734181605465223</v>
       </c>
       <c r="M22">
-        <v>0.9952454154927547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9952594356709583</v>
+      </c>
+      <c r="N22">
+        <v>0.9998526696905721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9677572304681543</v>
+        <v>0.9677753508256843</v>
       </c>
       <c r="D23">
-        <v>0.9940649121132799</v>
+        <v>0.9940792733366077</v>
       </c>
       <c r="E23">
-        <v>0.959105373865348</v>
+        <v>0.9591143047704119</v>
       </c>
       <c r="F23">
-        <v>0.9818050016130445</v>
+        <v>0.9818181770947793</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033726690756114</v>
+        <v>1.033734948979417</v>
       </c>
       <c r="J23">
-        <v>0.9992840897596305</v>
+        <v>0.9993013585424745</v>
       </c>
       <c r="K23">
-        <v>1.009439306852812</v>
+        <v>1.009453385805724</v>
       </c>
       <c r="L23">
-        <v>0.9752001653090259</v>
+        <v>0.9752089032772575</v>
       </c>
       <c r="M23">
-        <v>0.9974243354046476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9974372433285462</v>
+      </c>
+      <c r="N23">
+        <v>1.001217403661304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9784660817074876</v>
+        <v>0.9784782303897492</v>
       </c>
       <c r="D24">
-        <v>1.002010364507723</v>
+        <v>1.002020122866449</v>
       </c>
       <c r="E24">
-        <v>0.9674242526719036</v>
+        <v>0.9674308241367922</v>
       </c>
       <c r="F24">
-        <v>0.9915490744321408</v>
+        <v>0.9915580069928676</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037619093146763</v>
+        <v>1.037624703728552</v>
       </c>
       <c r="J24">
-        <v>1.006819024203178</v>
+        <v>1.006830675503615</v>
       </c>
       <c r="K24">
-        <v>1.016002267632235</v>
+        <v>1.016011855514853</v>
       </c>
       <c r="L24">
-        <v>0.9820486496194929</v>
+        <v>0.9820550952861965</v>
       </c>
       <c r="M24">
-        <v>1.005726241143234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.00573501334681</v>
+      </c>
+      <c r="N24">
+        <v>1.006403473175153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9901991038592562</v>
+        <v>0.9902049527555555</v>
       </c>
       <c r="D25">
-        <v>1.01074005848236</v>
+        <v>1.010744931441236</v>
       </c>
       <c r="E25">
-        <v>0.9766429283008874</v>
+        <v>0.9766470429683292</v>
       </c>
       <c r="F25">
-        <v>1.002282185086912</v>
+        <v>1.002286651588325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041829534130894</v>
+        <v>1.041832324670245</v>
       </c>
       <c r="J25">
-        <v>1.015060869799322</v>
+        <v>1.015066516376319</v>
       </c>
       <c r="K25">
-        <v>1.023173905693336</v>
+        <v>1.023178705040249</v>
       </c>
       <c r="L25">
-        <v>0.989614987806734</v>
+        <v>0.9896190346087299</v>
       </c>
       <c r="M25">
-        <v>1.014845176076667</v>
+        <v>1.014849573644389</v>
+      </c>
+      <c r="N25">
+        <v>1.012072826930303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9990705657275775</v>
+        <v>1.019853143888162</v>
       </c>
       <c r="D2">
-        <v>1.0173555334695</v>
+        <v>1.038027697111426</v>
       </c>
       <c r="E2">
-        <v>0.9836897735756417</v>
+        <v>1.032862386550929</v>
       </c>
       <c r="F2">
-        <v>1.010438153788039</v>
+        <v>1.043904854491852</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044967085552582</v>
+        <v>1.051700780641042</v>
       </c>
       <c r="J2">
-        <v>1.021279111597128</v>
+        <v>1.041455842563836</v>
       </c>
       <c r="K2">
-        <v>1.028578259471854</v>
+        <v>1.048981497062598</v>
       </c>
       <c r="L2">
-        <v>0.9953811116730023</v>
+        <v>1.043882120990913</v>
       </c>
       <c r="M2">
-        <v>1.021753959001169</v>
+        <v>1.054784622739295</v>
       </c>
       <c r="N2">
-        <v>1.016346271444366</v>
+        <v>1.042934829316932</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005255602837586</v>
+        <v>1.026000024697443</v>
       </c>
       <c r="D3">
-        <v>1.021973605398634</v>
+        <v>1.042763147289909</v>
       </c>
       <c r="E3">
-        <v>0.9886431229253888</v>
+        <v>1.037783646441032</v>
       </c>
       <c r="F3">
-        <v>1.016146211592476</v>
+        <v>1.049051104638334</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047125932407576</v>
+        <v>1.053543877260205</v>
       </c>
       <c r="J3">
-        <v>1.025604013011854</v>
+        <v>1.045806151703409</v>
       </c>
       <c r="K3">
-        <v>1.032332842597678</v>
+        <v>1.052876610939969</v>
       </c>
       <c r="L3">
-        <v>0.9994234095579051</v>
+        <v>1.047954868331669</v>
       </c>
       <c r="M3">
-        <v>1.02657658422839</v>
+        <v>1.059092599181703</v>
       </c>
       <c r="N3">
-        <v>1.019319191477136</v>
+        <v>1.04729131639447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009149980861348</v>
+        <v>1.029878427417362</v>
       </c>
       <c r="D4">
-        <v>1.024883595442036</v>
+        <v>1.045754215327575</v>
       </c>
       <c r="E4">
-        <v>0.991779530374934</v>
+        <v>1.040900436864199</v>
       </c>
       <c r="F4">
-        <v>1.019749452493472</v>
+        <v>1.052306309213918</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0484718184625</v>
+        <v>1.054696514371895</v>
       </c>
       <c r="J4">
-        <v>1.028322490273233</v>
+        <v>1.048547534822974</v>
       </c>
       <c r="K4">
-        <v>1.034690694369642</v>
+        <v>1.055330091892052</v>
       </c>
       <c r="L4">
-        <v>1.001978192320947</v>
+        <v>1.050529071599526</v>
       </c>
       <c r="M4">
-        <v>1.029615222013184</v>
+        <v>1.0618119129482</v>
       </c>
       <c r="N4">
-        <v>1.021186850346134</v>
+        <v>1.050036592592506</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010762600580699</v>
+        <v>1.0314862820479</v>
       </c>
       <c r="D5">
-        <v>1.026089040759931</v>
+        <v>1.046994898729854</v>
       </c>
       <c r="E5">
-        <v>0.9930823662139098</v>
+        <v>1.042195256361845</v>
       </c>
       <c r="F5">
-        <v>1.021243636681506</v>
+        <v>1.05365767132914</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049025852954965</v>
+        <v>1.055171840821288</v>
       </c>
       <c r="J5">
-        <v>1.029447005736958</v>
+        <v>1.049683135430147</v>
       </c>
       <c r="K5">
-        <v>1.035665499175464</v>
+        <v>1.056346157078038</v>
       </c>
       <c r="L5">
-        <v>1.003038287888614</v>
+        <v>1.051597238853708</v>
       </c>
       <c r="M5">
-        <v>1.030873909383612</v>
+        <v>1.062939450415402</v>
       </c>
       <c r="N5">
-        <v>1.021959166777057</v>
+        <v>1.051173805882796</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011031959201115</v>
+        <v>1.031754951327788</v>
       </c>
       <c r="D6">
-        <v>1.026290412324584</v>
+        <v>1.047202252527579</v>
       </c>
       <c r="E6">
-        <v>0.9933002176791988</v>
+        <v>1.04241177417471</v>
       </c>
       <c r="F6">
-        <v>1.021493335221456</v>
+        <v>1.053883588266132</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049118199489409</v>
+        <v>1.055251117360154</v>
       </c>
       <c r="J6">
-        <v>1.029634764741764</v>
+        <v>1.049872838531975</v>
       </c>
       <c r="K6">
-        <v>1.035828229062427</v>
+        <v>1.056515875010899</v>
       </c>
       <c r="L6">
-        <v>1.003215483097216</v>
+        <v>1.051775783221282</v>
       </c>
       <c r="M6">
-        <v>1.031084172499314</v>
+        <v>1.063127869278158</v>
       </c>
       <c r="N6">
-        <v>1.022088104392973</v>
+        <v>1.051363778384788</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009171623784973</v>
+        <v>1.029899999171775</v>
       </c>
       <c r="D7">
-        <v>1.024899772022795</v>
+        <v>1.045770858323087</v>
       </c>
       <c r="E7">
-        <v>0.9917969997070084</v>
+        <v>1.040917798230027</v>
       </c>
       <c r="F7">
-        <v>1.019769497612633</v>
+        <v>1.052324432486877</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048479267208756</v>
+        <v>1.054702901605711</v>
       </c>
       <c r="J7">
-        <v>1.028337587087931</v>
+        <v>1.048562774153277</v>
       </c>
       <c r="K7">
-        <v>1.034703783440212</v>
+        <v>1.055343728211102</v>
       </c>
       <c r="L7">
-        <v>1.001992411316992</v>
+        <v>1.05054339884501</v>
       </c>
       <c r="M7">
-        <v>1.029632113262922</v>
+        <v>1.061827039840057</v>
       </c>
       <c r="N7">
-        <v>1.021197219840289</v>
+        <v>1.050051853564406</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00118390181263</v>
+        <v>1.021951694267277</v>
       </c>
       <c r="D8">
-        <v>1.01893293207596</v>
+        <v>1.039643655180682</v>
       </c>
       <c r="E8">
-        <v>0.9853784796227283</v>
+        <v>1.034539982478723</v>
       </c>
       <c r="F8">
-        <v>1.012386523484415</v>
+        <v>1.045660015076896</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045707520199882</v>
+        <v>1.052332143300802</v>
       </c>
       <c r="J8">
-        <v>1.022757817247469</v>
+        <v>1.042941737358041</v>
       </c>
       <c r="K8">
-        <v>1.029862409332847</v>
+        <v>1.050312124970551</v>
       </c>
       <c r="L8">
-        <v>0.9967602202337358</v>
+        <v>1.045271562491296</v>
       </c>
       <c r="M8">
-        <v>1.023401285254428</v>
+        <v>1.056255071534358</v>
       </c>
       <c r="N8">
-        <v>1.017362935019378</v>
+        <v>1.044422834252179</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.98622351129236</v>
+        <v>1.007134461713741</v>
       </c>
       <c r="D9">
-        <v>1.007780074205191</v>
+        <v>1.028251343273977</v>
       </c>
       <c r="E9">
-        <v>0.973505509935285</v>
+        <v>1.022749753015797</v>
       </c>
       <c r="F9">
-        <v>0.9986373163036854</v>
+        <v>1.033306422901516</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040410925395225</v>
+        <v>1.04783257888455</v>
       </c>
       <c r="J9">
-        <v>1.0122723114377</v>
+        <v>1.032437775021643</v>
       </c>
       <c r="K9">
-        <v>1.020748173775643</v>
+        <v>1.040902107578061</v>
       </c>
       <c r="L9">
-        <v>0.9870435837275031</v>
+        <v>1.035484207659244</v>
       </c>
       <c r="M9">
-        <v>1.01175254085734</v>
+        <v>1.045881288534553</v>
       </c>
       <c r="N9">
-        <v>1.010149835134153</v>
+        <v>1.033903955084442</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9755627512930106</v>
+        <v>0.9966300463026171</v>
       </c>
       <c r="D10">
-        <v>0.9998547921541618</v>
+        <v>1.020201788887098</v>
       </c>
       <c r="E10">
-        <v>0.9651565318321664</v>
+        <v>1.014466932409414</v>
       </c>
       <c r="F10">
-        <v>0.988899966675157</v>
+        <v>1.024603513000053</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036569359271792</v>
+        <v>1.044592158362157</v>
       </c>
       <c r="J10">
-        <v>1.004780636712206</v>
+        <v>1.024978009840179</v>
       </c>
       <c r="K10">
-        <v>1.014226668868529</v>
+        <v>1.034215628377944</v>
       </c>
       <c r="L10">
-        <v>0.9801847443531273</v>
+        <v>1.02857980401547</v>
       </c>
       <c r="M10">
-        <v>1.003472570125497</v>
+        <v>1.038542312137561</v>
       </c>
       <c r="N10">
-        <v>1.004991687185037</v>
+        <v>1.026433596180773</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9707600615883308</v>
+        <v>0.9919126136443772</v>
       </c>
       <c r="D11">
-        <v>0.9962914298362969</v>
+        <v>1.01659476729124</v>
       </c>
       <c r="E11">
-        <v>0.9614245746604978</v>
+        <v>1.010767202366133</v>
       </c>
       <c r="F11">
-        <v>0.9845293597191833</v>
+        <v>1.020709969663595</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034823838462083</v>
+        <v>1.043125844248928</v>
       </c>
       <c r="J11">
-        <v>1.001401959277409</v>
+        <v>1.021625751048095</v>
       </c>
       <c r="K11">
-        <v>1.011283624891587</v>
+        <v>1.031210372364793</v>
       </c>
       <c r="L11">
-        <v>0.9771125731862178</v>
+        <v>1.02548888204878</v>
       </c>
       <c r="M11">
-        <v>0.999749048405666</v>
+        <v>1.035251616457139</v>
       </c>
       <c r="N11">
-        <v>1.002664500297787</v>
+        <v>1.023076576796694</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9689458488680974</v>
+        <v>0.9901330247997056</v>
       </c>
       <c r="D12">
-        <v>0.9949465825960725</v>
+        <v>1.015235409521837</v>
       </c>
       <c r="E12">
-        <v>0.9600194909981238</v>
+        <v>1.009374725581493</v>
       </c>
       <c r="F12">
-        <v>0.9828809505553633</v>
+        <v>1.01924358216895</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034162331285025</v>
+        <v>1.042571118373152</v>
       </c>
       <c r="J12">
-        <v>1.000125210338784</v>
+        <v>1.020360923727062</v>
       </c>
       <c r="K12">
-        <v>1.010171242754219</v>
+        <v>1.030076430399351</v>
       </c>
       <c r="L12">
-        <v>0.9759549441136299</v>
+        <v>1.024324497903743</v>
       </c>
       <c r="M12">
-        <v>0.9983436416278109</v>
+        <v>1.034011164244146</v>
       </c>
       <c r="N12">
-        <v>1.001784971876476</v>
+        <v>1.021809953275788</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9693364128685473</v>
+        <v>0.9905160224587424</v>
       </c>
       <c r="D13">
-        <v>0.9952360441568372</v>
+        <v>1.015527903180115</v>
       </c>
       <c r="E13">
-        <v>0.9603217627186819</v>
+        <v>1.009674262545026</v>
       </c>
       <c r="F13">
-        <v>0.9832357007786816</v>
+        <v>1.019559062353925</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034304835499232</v>
+        <v>1.04269057461256</v>
       </c>
       <c r="J13">
-        <v>1.000400088021905</v>
+        <v>1.020633144937761</v>
       </c>
       <c r="K13">
-        <v>1.010410743899509</v>
+        <v>1.030320483218394</v>
       </c>
       <c r="L13">
-        <v>0.9762040249154141</v>
+        <v>1.024575017068299</v>
       </c>
       <c r="M13">
-        <v>0.998646143183756</v>
+        <v>1.034278086655458</v>
       </c>
       <c r="N13">
-        <v>1.001974335175366</v>
+        <v>1.022082561071831</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9706107298419933</v>
+        <v>0.9917660816071763</v>
       </c>
       <c r="D14">
-        <v>0.9961807070388832</v>
+        <v>1.016482809082131</v>
       </c>
       <c r="E14">
-        <v>0.9613088230288201</v>
+        <v>1.010652479219861</v>
       </c>
       <c r="F14">
-        <v>0.9843936221481736</v>
+        <v>1.02058917700248</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034769431168702</v>
+        <v>1.043080199433011</v>
       </c>
       <c r="J14">
-        <v>1.001296876004782</v>
+        <v>1.021521608840098</v>
       </c>
       <c r="K14">
-        <v>1.011192074800019</v>
+        <v>1.031117007504326</v>
       </c>
       <c r="L14">
-        <v>0.9770172264680919</v>
+        <v>1.025392972271744</v>
       </c>
       <c r="M14">
-        <v>0.9996333420451738</v>
+        <v>1.035149457620569</v>
       </c>
       <c r="N14">
-        <v>1.002592112766995</v>
+        <v>1.022972286694817</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9713917944438939</v>
+        <v>0.9925326021705246</v>
       </c>
       <c r="D15">
-        <v>0.996759881657963</v>
+        <v>1.017068526819295</v>
       </c>
       <c r="E15">
-        <v>0.9619144414355432</v>
+        <v>1.011252736284962</v>
       </c>
       <c r="F15">
-        <v>0.9851036899603551</v>
+        <v>1.021221151590147</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035053916666254</v>
+        <v>1.043318907328166</v>
       </c>
       <c r="J15">
-        <v>1.001846485480941</v>
+        <v>1.022066375995499</v>
       </c>
       <c r="K15">
-        <v>1.011670892603839</v>
+        <v>1.031605396973573</v>
       </c>
       <c r="L15">
-        <v>0.9775160463743453</v>
+        <v>1.025894750925984</v>
       </c>
       <c r="M15">
-        <v>1.000238580251388</v>
+        <v>1.035683896776543</v>
       </c>
       <c r="N15">
-        <v>1.002970711223685</v>
+        <v>1.023517827482065</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9758773731410891</v>
+        <v>0.9969394058505964</v>
       </c>
       <c r="D16">
-        <v>1.000088384368169</v>
+        <v>1.020438507318007</v>
       </c>
       <c r="E16">
-        <v>0.965401638941887</v>
+        <v>1.014709984206912</v>
       </c>
       <c r="F16">
-        <v>0.9891866302525194</v>
+        <v>1.02485916578352</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036683406920065</v>
+        <v>1.044688093385498</v>
       </c>
       <c r="J16">
-        <v>1.005001903999708</v>
+        <v>1.025197806937014</v>
       </c>
       <c r="K16">
-        <v>1.014419370138145</v>
+        <v>1.034412666074738</v>
       </c>
       <c r="L16">
-        <v>0.9803863863676558</v>
+        <v>1.028782716192985</v>
       </c>
       <c r="M16">
-        <v>1.003716646270222</v>
+        <v>1.038758228240116</v>
       </c>
       <c r="N16">
-        <v>1.005144075501934</v>
+        <v>1.026653705414696</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9786396043607486</v>
+        <v>0.9996571335785656</v>
       </c>
       <c r="D17">
-        <v>1.002140022290263</v>
+        <v>1.022519000036473</v>
       </c>
       <c r="E17">
-        <v>0.9675569035346508</v>
+        <v>1.01684748570436</v>
       </c>
       <c r="F17">
-        <v>0.9917052390214095</v>
+        <v>1.027106780462387</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037683018380121</v>
+        <v>1.045529638943675</v>
       </c>
       <c r="J17">
-        <v>1.006944122222613</v>
+        <v>1.027128494016578</v>
       </c>
       <c r="K17">
-        <v>1.016110632920294</v>
+        <v>1.036143383370318</v>
       </c>
       <c r="L17">
-        <v>0.9821587392244177</v>
+        <v>1.030566427970521</v>
       </c>
       <c r="M17">
-        <v>1.005860285529568</v>
+        <v>1.040655655712419</v>
       </c>
       <c r="N17">
-        <v>1.006481593674577</v>
+        <v>1.028587134291367</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802329365177214</v>
+        <v>1.001226177828702</v>
       </c>
       <c r="D18">
-        <v>1.003324111856931</v>
+        <v>1.02372088586783</v>
       </c>
       <c r="E18">
-        <v>0.9688028597846617</v>
+        <v>1.018083419121027</v>
       </c>
       <c r="F18">
-        <v>0.9931595466468807</v>
+        <v>1.028405801225805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038258212575868</v>
+        <v>1.046014443128191</v>
       </c>
       <c r="J18">
-        <v>1.008064096010542</v>
+        <v>1.028242941543106</v>
       </c>
       <c r="K18">
-        <v>1.017085712433943</v>
+        <v>1.037142353585655</v>
       </c>
       <c r="L18">
-        <v>0.9831827389092065</v>
+        <v>1.031597142787795</v>
       </c>
       <c r="M18">
-        <v>1.00709740920576</v>
+        <v>1.041751588433675</v>
       </c>
       <c r="N18">
-        <v>1.00725278252543</v>
+        <v>1.029703164461211</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9807732619079891</v>
+        <v>1.001758496119741</v>
       </c>
       <c r="D19">
-        <v>1.003725761597469</v>
+        <v>1.024128762444782</v>
       </c>
       <c r="E19">
-        <v>0.9692258415565483</v>
+        <v>1.018503037960717</v>
       </c>
       <c r="F19">
-        <v>0.9936529768742556</v>
+        <v>1.02884674161635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038453028556073</v>
+        <v>1.046178738424958</v>
       </c>
       <c r="J19">
-        <v>1.008443835336626</v>
+        <v>1.028620994033103</v>
       </c>
       <c r="K19">
-        <v>1.017416292002077</v>
+        <v>1.037481223590704</v>
       </c>
       <c r="L19">
-        <v>0.9835302692517165</v>
+        <v>1.03194697629308</v>
       </c>
       <c r="M19">
-        <v>1.007517037909294</v>
+        <v>1.042123474641393</v>
       </c>
       <c r="N19">
-        <v>1.007514247381649</v>
+        <v>1.030081753829107</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9783451029398049</v>
+        <v>0.9993672320650377</v>
       </c>
       <c r="D20">
-        <v>1.001921214003311</v>
+        <v>1.022296994793986</v>
       </c>
       <c r="E20">
-        <v>0.9673268288670075</v>
+        <v>1.016619281216253</v>
       </c>
       <c r="F20">
-        <v>0.9914365546104345</v>
+        <v>1.026866880663819</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037576588336187</v>
+        <v>1.04543997937553</v>
       </c>
       <c r="J20">
-        <v>1.006737084224922</v>
+        <v>1.026922567665095</v>
       </c>
       <c r="K20">
-        <v>1.015930365093098</v>
+        <v>1.035958790585392</v>
       </c>
       <c r="L20">
-        <v>0.9819696022994511</v>
+        <v>1.030376062647367</v>
       </c>
       <c r="M20">
-        <v>1.005631671963007</v>
+        <v>1.040453205468367</v>
       </c>
       <c r="N20">
-        <v>1.006339024829456</v>
+        <v>1.028380915500845</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9702363305124775</v>
+        <v>0.9913987412079504</v>
       </c>
       <c r="D21">
-        <v>0.9959031267577896</v>
+        <v>1.016202163773681</v>
       </c>
       <c r="E21">
-        <v>0.9610186905083548</v>
+        <v>1.01036493249879</v>
       </c>
       <c r="F21">
-        <v>0.9840533478415027</v>
+        <v>1.020286401735575</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034632989062931</v>
+        <v>1.042965747582409</v>
       </c>
       <c r="J21">
-        <v>1.00103340790369</v>
+        <v>1.021260531867441</v>
       </c>
       <c r="K21">
-        <v>1.010962533580464</v>
+        <v>1.030882948022282</v>
       </c>
       <c r="L21">
-        <v>0.9767782236387162</v>
+        <v>1.025152563259369</v>
       </c>
       <c r="M21">
-        <v>0.9993432661828437</v>
+        <v>1.034893371462748</v>
       </c>
       <c r="N21">
-        <v>1.002410618567401</v>
+        <v>1.022710838962913</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9649615264834549</v>
+        <v>0.9862294344084317</v>
       </c>
       <c r="D22">
-        <v>0.9919954881800398</v>
+        <v>1.0122562593012</v>
       </c>
       <c r="E22">
-        <v>0.9569425916938945</v>
+        <v>1.006326395152876</v>
       </c>
       <c r="F22">
-        <v>0.9792657263745771</v>
+        <v>1.016031630560045</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032705724132779</v>
+        <v>1.041351500253304</v>
       </c>
       <c r="J22">
-        <v>0.9973205227918601</v>
+        <v>1.017586159999112</v>
       </c>
       <c r="K22">
-        <v>1.007727201436382</v>
+        <v>1.027588765576098</v>
       </c>
       <c r="L22">
-        <v>0.9734181605465223</v>
+        <v>1.021773558146423</v>
       </c>
       <c r="M22">
-        <v>0.9952594356709583</v>
+        <v>1.03129205005991</v>
       </c>
       <c r="N22">
-        <v>0.9998526696905721</v>
+        <v>1.019031249065075</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9677753508256843</v>
+        <v>0.9889855732717424</v>
       </c>
       <c r="D23">
-        <v>0.9940792733366077</v>
+        <v>1.014359314676039</v>
       </c>
       <c r="E23">
-        <v>0.9591143047704119</v>
+        <v>1.008477804520156</v>
       </c>
       <c r="F23">
-        <v>0.9818181770947793</v>
+        <v>1.01829877690146</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033734948979417</v>
+        <v>1.042213006007809</v>
       </c>
       <c r="J23">
-        <v>0.9993013585424745</v>
+        <v>1.019545329069061</v>
       </c>
       <c r="K23">
-        <v>1.009453385805724</v>
+        <v>1.029345227038418</v>
       </c>
       <c r="L23">
-        <v>0.9752089032772575</v>
+        <v>1.023574199592085</v>
       </c>
       <c r="M23">
-        <v>0.9974372433285462</v>
+        <v>1.033211617628065</v>
       </c>
       <c r="N23">
-        <v>1.001217403661304</v>
+        <v>1.020993200379822</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9784782303897492</v>
+        <v>0.9994982758770472</v>
       </c>
       <c r="D24">
-        <v>1.002020122866449</v>
+        <v>1.022397345252873</v>
       </c>
       <c r="E24">
-        <v>0.9674308241367922</v>
+        <v>1.016722430394988</v>
       </c>
       <c r="F24">
-        <v>0.9915580069928676</v>
+        <v>1.026975317962562</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037624703728552</v>
+        <v>1.045480511344334</v>
       </c>
       <c r="J24">
-        <v>1.006830675503615</v>
+        <v>1.027015652947534</v>
       </c>
       <c r="K24">
-        <v>1.016011855514853</v>
+        <v>1.036042232569723</v>
       </c>
       <c r="L24">
-        <v>0.9820550952861965</v>
+        <v>1.030462110421976</v>
       </c>
       <c r="M24">
-        <v>1.00573501334681</v>
+        <v>1.04054471732146</v>
       </c>
       <c r="N24">
-        <v>1.006403473175153</v>
+        <v>1.028474132975061</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9902049527555555</v>
+        <v>1.011069089865492</v>
       </c>
       <c r="D25">
-        <v>1.010744931441236</v>
+        <v>1.031272397443261</v>
       </c>
       <c r="E25">
-        <v>0.9766470429683292</v>
+        <v>1.02586825002856</v>
       </c>
       <c r="F25">
-        <v>1.002286651588325</v>
+        <v>1.036577988861729</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041832324670245</v>
+        <v>1.049036346137069</v>
       </c>
       <c r="J25">
-        <v>1.015066516376319</v>
+        <v>1.035229592195937</v>
       </c>
       <c r="K25">
-        <v>1.023178705040249</v>
+        <v>1.043403898808664</v>
       </c>
       <c r="L25">
-        <v>0.9896190346087299</v>
+        <v>1.038077840986042</v>
       </c>
       <c r="M25">
-        <v>1.014849573644389</v>
+        <v>1.048633826404973</v>
       </c>
       <c r="N25">
-        <v>1.012072826930303</v>
+        <v>1.036699736959349</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019853143888162</v>
+        <v>0.9897559763100182</v>
       </c>
       <c r="D2">
-        <v>1.038027697111426</v>
+        <v>1.009766006239097</v>
       </c>
       <c r="E2">
-        <v>1.032862386550929</v>
+        <v>1.011358635752958</v>
       </c>
       <c r="F2">
-        <v>1.043904854491852</v>
+        <v>1.016280888551088</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051700780641042</v>
+        <v>1.039371260572413</v>
       </c>
       <c r="J2">
-        <v>1.041455842563836</v>
+        <v>1.012247461906461</v>
       </c>
       <c r="K2">
-        <v>1.048981497062598</v>
+        <v>1.021090941305664</v>
       </c>
       <c r="L2">
-        <v>1.043882120990913</v>
+        <v>1.022661962725586</v>
       </c>
       <c r="M2">
-        <v>1.054784622739295</v>
+        <v>1.027517970383143</v>
       </c>
       <c r="N2">
-        <v>1.042934829316932</v>
+        <v>1.007667362488392</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026000024697443</v>
+        <v>0.995475737128365</v>
       </c>
       <c r="D3">
-        <v>1.042763147289909</v>
+        <v>1.013957295194585</v>
       </c>
       <c r="E3">
-        <v>1.037783646441032</v>
+        <v>1.016689440309517</v>
       </c>
       <c r="F3">
-        <v>1.049051104638334</v>
+        <v>1.021897794403765</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053543877260205</v>
+        <v>1.040827918380679</v>
       </c>
       <c r="J3">
-        <v>1.045806151703409</v>
+        <v>1.016090502598772</v>
       </c>
       <c r="K3">
-        <v>1.052876610939969</v>
+        <v>1.024414651040701</v>
       </c>
       <c r="L3">
-        <v>1.047954868331669</v>
+        <v>1.02711313884207</v>
       </c>
       <c r="M3">
-        <v>1.059092599181703</v>
+        <v>1.032257950563116</v>
       </c>
       <c r="N3">
-        <v>1.04729131639447</v>
+        <v>1.008987239915749</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029878427417362</v>
+        <v>0.9990839819817089</v>
       </c>
       <c r="D4">
-        <v>1.045754215327575</v>
+        <v>1.016603499248815</v>
       </c>
       <c r="E4">
-        <v>1.040900436864199</v>
+        <v>1.02006471509637</v>
       </c>
       <c r="F4">
-        <v>1.052306309213918</v>
+        <v>1.025451795332292</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054696514371895</v>
+        <v>1.041735493335306</v>
       </c>
       <c r="J4">
-        <v>1.048547534822974</v>
+        <v>1.018511148653948</v>
       </c>
       <c r="K4">
-        <v>1.055330091892052</v>
+        <v>1.02650558105555</v>
       </c>
       <c r="L4">
-        <v>1.050529071599526</v>
+        <v>1.029926860930622</v>
       </c>
       <c r="M4">
-        <v>1.0618119129482</v>
+        <v>1.035252445654457</v>
       </c>
       <c r="N4">
-        <v>1.050036592592506</v>
+        <v>1.009818009495617</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0314862820479</v>
+        <v>1.000579654936329</v>
       </c>
       <c r="D5">
-        <v>1.046994898729854</v>
+        <v>1.017700828042732</v>
       </c>
       <c r="E5">
-        <v>1.042195256361845</v>
+        <v>1.021466729627676</v>
       </c>
       <c r="F5">
-        <v>1.05365767132914</v>
+        <v>1.026927477034075</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055171840821288</v>
+        <v>1.042108921383067</v>
       </c>
       <c r="J5">
-        <v>1.049683135430147</v>
+        <v>1.019513607608686</v>
       </c>
       <c r="K5">
-        <v>1.056346157078038</v>
+        <v>1.027370847536989</v>
       </c>
       <c r="L5">
-        <v>1.051597238853708</v>
+        <v>1.031094510805356</v>
       </c>
       <c r="M5">
-        <v>1.062939450415402</v>
+        <v>1.036494686905083</v>
       </c>
       <c r="N5">
-        <v>1.051173805882796</v>
+        <v>1.010161903835441</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031754951327788</v>
+        <v>1.000829567434218</v>
       </c>
       <c r="D6">
-        <v>1.047202252527579</v>
+        <v>1.017884204322535</v>
       </c>
       <c r="E6">
-        <v>1.04241177417471</v>
+        <v>1.021701162131618</v>
       </c>
       <c r="F6">
-        <v>1.053883588266132</v>
+        <v>1.027174194170346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055251117360154</v>
+        <v>1.042171152828505</v>
       </c>
       <c r="J6">
-        <v>1.049872838531975</v>
+        <v>1.019681052349731</v>
       </c>
       <c r="K6">
-        <v>1.056515875010899</v>
+        <v>1.02751533771047</v>
       </c>
       <c r="L6">
-        <v>1.051775783221282</v>
+        <v>1.031289689675817</v>
       </c>
       <c r="M6">
-        <v>1.063127869278158</v>
+        <v>1.036702309111711</v>
       </c>
       <c r="N6">
-        <v>1.051363778384788</v>
+        <v>1.010219336734</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029899999171775</v>
+        <v>0.9991040494080745</v>
       </c>
       <c r="D7">
-        <v>1.045770858323087</v>
+        <v>1.016618220480736</v>
       </c>
       <c r="E7">
-        <v>1.040917798230027</v>
+        <v>1.020083514477328</v>
       </c>
       <c r="F7">
-        <v>1.052324432486877</v>
+        <v>1.025471584750794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054702901605711</v>
+        <v>1.041740514661977</v>
       </c>
       <c r="J7">
-        <v>1.048562774153277</v>
+        <v>1.018524602400161</v>
       </c>
       <c r="K7">
-        <v>1.055343728211102</v>
+        <v>1.026517196169035</v>
       </c>
       <c r="L7">
-        <v>1.05054339884501</v>
+        <v>1.029942522137325</v>
       </c>
       <c r="M7">
-        <v>1.061827039840057</v>
+        <v>1.035269109007255</v>
       </c>
       <c r="N7">
-        <v>1.050051853564406</v>
+        <v>1.009822625423884</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021951694267277</v>
+        <v>0.9917088321924894</v>
       </c>
       <c r="D8">
-        <v>1.039643655180682</v>
+        <v>1.011196494887146</v>
       </c>
       <c r="E8">
-        <v>1.034539982478723</v>
+        <v>1.013176044071524</v>
       </c>
       <c r="F8">
-        <v>1.045660015076896</v>
+        <v>1.01819635076618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052332143300802</v>
+        <v>1.039870948416407</v>
       </c>
       <c r="J8">
-        <v>1.042941737358041</v>
+        <v>1.013560308181249</v>
       </c>
       <c r="K8">
-        <v>1.050312124970551</v>
+        <v>1.022226908681211</v>
       </c>
       <c r="L8">
-        <v>1.045271562491296</v>
+        <v>1.02418044698387</v>
       </c>
       <c r="M8">
-        <v>1.056255071534358</v>
+        <v>1.029135355443419</v>
       </c>
       <c r="N8">
-        <v>1.044422834252179</v>
+        <v>1.008118373439687</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007134461713741</v>
+        <v>0.9779185394895548</v>
       </c>
       <c r="D9">
-        <v>1.028251343273977</v>
+        <v>1.001108088250866</v>
       </c>
       <c r="E9">
-        <v>1.022749753015797</v>
+        <v>1.000398286927606</v>
       </c>
       <c r="F9">
-        <v>1.033306422901516</v>
+        <v>1.004718448448639</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04783257888455</v>
+        <v>1.036296108238455</v>
       </c>
       <c r="J9">
-        <v>1.032437775021643</v>
+        <v>1.004275893467929</v>
       </c>
       <c r="K9">
-        <v>1.040902107578061</v>
+        <v>1.014183213042585</v>
       </c>
       <c r="L9">
-        <v>1.035484207659244</v>
+        <v>1.013484905507593</v>
       </c>
       <c r="M9">
-        <v>1.045881288534553</v>
+        <v>1.017735433189819</v>
       </c>
       <c r="N9">
-        <v>1.033903955084442</v>
+        <v>1.004926682723936</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9966300463026171</v>
+        <v>0.9681412509219981</v>
       </c>
       <c r="D10">
-        <v>1.020201788887098</v>
+        <v>0.9939767690200745</v>
       </c>
       <c r="E10">
-        <v>1.014466932409414</v>
+        <v>0.9914141709942371</v>
       </c>
       <c r="F10">
-        <v>1.024603513000053</v>
+        <v>0.9952278072798518</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044592158362157</v>
+        <v>1.033705234472276</v>
       </c>
       <c r="J10">
-        <v>1.024978009840179</v>
+        <v>0.9976784946965993</v>
       </c>
       <c r="K10">
-        <v>1.034215628377944</v>
+        <v>1.008455633073018</v>
       </c>
       <c r="L10">
-        <v>1.02857980401547</v>
+        <v>1.005940195120323</v>
       </c>
       <c r="M10">
-        <v>1.038542312137561</v>
+        <v>1.009683763051188</v>
       </c>
       <c r="N10">
-        <v>1.026433596180773</v>
+        <v>1.002656397906825</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9919126136443772</v>
+        <v>0.9637506367655804</v>
       </c>
       <c r="D11">
-        <v>1.01659476729124</v>
+        <v>0.9907810250206145</v>
       </c>
       <c r="E11">
-        <v>1.010767202366133</v>
+        <v>0.9873989719089593</v>
       </c>
       <c r="F11">
-        <v>1.020709969663595</v>
+        <v>0.9909826463019618</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043125844248928</v>
+        <v>1.032529315878015</v>
       </c>
       <c r="J11">
-        <v>1.021625751048095</v>
+        <v>0.9947132480596949</v>
       </c>
       <c r="K11">
-        <v>1.031210372364793</v>
+        <v>1.005878917328668</v>
       </c>
       <c r="L11">
-        <v>1.02548888204878</v>
+        <v>1.002562503002428</v>
       </c>
       <c r="M11">
-        <v>1.035251616457139</v>
+        <v>1.006076644089128</v>
       </c>
       <c r="N11">
-        <v>1.023076576796694</v>
+        <v>1.001635604123685</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9901330247997056</v>
+        <v>0.9620944239158523</v>
       </c>
       <c r="D12">
-        <v>1.015235409521837</v>
+        <v>0.989576686066034</v>
       </c>
       <c r="E12">
-        <v>1.009374725581493</v>
+        <v>0.9858873906163639</v>
       </c>
       <c r="F12">
-        <v>1.01924358216895</v>
+        <v>0.9893839345396193</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042571118373152</v>
+        <v>1.032083952004537</v>
       </c>
       <c r="J12">
-        <v>1.020360923727062</v>
+        <v>0.993594400054281</v>
       </c>
       <c r="K12">
-        <v>1.030076430399351</v>
+        <v>1.004906342413457</v>
       </c>
       <c r="L12">
-        <v>1.024324497903743</v>
+        <v>1.001290054173408</v>
       </c>
       <c r="M12">
-        <v>1.034011164244146</v>
+        <v>1.004717387532702</v>
       </c>
       <c r="N12">
-        <v>1.021809953275788</v>
+        <v>1.001250391219932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9905160224587424</v>
+        <v>0.9624508641817747</v>
       </c>
       <c r="D13">
-        <v>1.015527903180115</v>
+        <v>0.9898358223524597</v>
       </c>
       <c r="E13">
-        <v>1.009674262545026</v>
+        <v>0.9862125656118915</v>
       </c>
       <c r="F13">
-        <v>1.019559062353925</v>
+        <v>0.9897278787820216</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04269057461256</v>
+        <v>1.032179879897288</v>
       </c>
       <c r="J13">
-        <v>1.020633144937761</v>
+        <v>0.9938352043412912</v>
       </c>
       <c r="K13">
-        <v>1.030320483218394</v>
+        <v>1.005115679245458</v>
       </c>
       <c r="L13">
-        <v>1.024575017068299</v>
+        <v>1.00156382548874</v>
       </c>
       <c r="M13">
-        <v>1.034278086655458</v>
+        <v>1.00500985298668</v>
       </c>
       <c r="N13">
-        <v>1.022082561071831</v>
+        <v>1.00133330062885</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9917660816071763</v>
+        <v>0.9636142614781614</v>
       </c>
       <c r="D14">
-        <v>1.016482809082131</v>
+        <v>0.9906818335581152</v>
       </c>
       <c r="E14">
-        <v>1.010652479219861</v>
+        <v>0.9872744437483585</v>
       </c>
       <c r="F14">
-        <v>1.02058917700248</v>
+        <v>0.9908509515486571</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043080199433011</v>
+        <v>1.032492679679072</v>
       </c>
       <c r="J14">
-        <v>1.021521608840098</v>
+        <v>0.9946211260179315</v>
       </c>
       <c r="K14">
-        <v>1.031117007504326</v>
+        <v>1.005798845340875</v>
       </c>
       <c r="L14">
-        <v>1.025392972271744</v>
+        <v>1.00245769279878</v>
       </c>
       <c r="M14">
-        <v>1.035149457620569</v>
+        <v>1.005964691345537</v>
       </c>
       <c r="N14">
-        <v>1.022972286694817</v>
+        <v>1.001603887904219</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9925326021705246</v>
+        <v>0.9643276551652696</v>
       </c>
       <c r="D15">
-        <v>1.017068526819295</v>
+        <v>0.9912007623546607</v>
       </c>
       <c r="E15">
-        <v>1.011252736284962</v>
+        <v>0.9879259875109739</v>
       </c>
       <c r="F15">
-        <v>1.021221151590147</v>
+        <v>0.9915399687952829</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043318907328166</v>
+        <v>1.032684255296491</v>
       </c>
       <c r="J15">
-        <v>1.022066375995499</v>
+        <v>0.9951030142478512</v>
       </c>
       <c r="K15">
-        <v>1.031605396973573</v>
+        <v>1.006217686908789</v>
       </c>
       <c r="L15">
-        <v>1.025894750925984</v>
+        <v>1.003006034974891</v>
       </c>
       <c r="M15">
-        <v>1.035683896776543</v>
+        <v>1.006550386173054</v>
       </c>
       <c r="N15">
-        <v>1.023517827482065</v>
+        <v>1.001769792885132</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9969394058505964</v>
+        <v>0.9684291878896754</v>
       </c>
       <c r="D16">
-        <v>1.020438507318007</v>
+        <v>0.9941864968179777</v>
       </c>
       <c r="E16">
-        <v>1.014709984206912</v>
+        <v>0.9916778980846368</v>
       </c>
       <c r="F16">
-        <v>1.02485916578352</v>
+        <v>0.995506562618839</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044688093385498</v>
+        <v>1.033782099664135</v>
       </c>
       <c r="J16">
-        <v>1.025197806937014</v>
+        <v>0.997872908759486</v>
       </c>
       <c r="K16">
-        <v>1.034412666074738</v>
+        <v>1.008624526208495</v>
       </c>
       <c r="L16">
-        <v>1.028782716192985</v>
+        <v>1.006161929153296</v>
       </c>
       <c r="M16">
-        <v>1.038758228240116</v>
+        <v>1.009920506327484</v>
       </c>
       <c r="N16">
-        <v>1.026653705414696</v>
+        <v>1.002723318278738</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9996571335785656</v>
+        <v>0.9709587539844344</v>
       </c>
       <c r="D17">
-        <v>1.022519000036473</v>
+        <v>0.9960297564431578</v>
       </c>
       <c r="E17">
-        <v>1.01684748570436</v>
+        <v>0.9939969704560357</v>
       </c>
       <c r="F17">
-        <v>1.027106780462387</v>
+        <v>0.9979573758847249</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045529638943675</v>
+        <v>1.034455969343707</v>
       </c>
       <c r="J17">
-        <v>1.027128494016578</v>
+        <v>0.9995805778253813</v>
       </c>
       <c r="K17">
-        <v>1.036143383370318</v>
+        <v>1.010107758369555</v>
       </c>
       <c r="L17">
-        <v>1.030566427970521</v>
+        <v>1.008111079634958</v>
       </c>
       <c r="M17">
-        <v>1.040655655712419</v>
+        <v>1.012001314740567</v>
       </c>
       <c r="N17">
-        <v>1.028587134291367</v>
+        <v>1.003311081184719</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001226177828702</v>
+        <v>0.9724191880137013</v>
       </c>
       <c r="D18">
-        <v>1.02372088586783</v>
+        <v>0.9970945733408731</v>
       </c>
       <c r="E18">
-        <v>1.018083419121027</v>
+        <v>0.9953376831745971</v>
       </c>
       <c r="F18">
-        <v>1.028405801225805</v>
+        <v>0.9993739132603232</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046014443128191</v>
+        <v>1.034843843688871</v>
       </c>
       <c r="J18">
-        <v>1.028242941543106</v>
+        <v>1.000566241793039</v>
       </c>
       <c r="K18">
-        <v>1.037142353585655</v>
+        <v>1.010963647404914</v>
       </c>
       <c r="L18">
-        <v>1.031597142787795</v>
+        <v>1.009237382518766</v>
       </c>
       <c r="M18">
-        <v>1.041751588433675</v>
+        <v>1.013203462535122</v>
       </c>
       <c r="N18">
-        <v>1.029703164461211</v>
+        <v>1.003650298533334</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001758496119741</v>
+        <v>0.9729146613908396</v>
       </c>
       <c r="D19">
-        <v>1.024128762444782</v>
+        <v>0.9974559286659715</v>
       </c>
       <c r="E19">
-        <v>1.018503037960717</v>
+        <v>0.995792842129773</v>
       </c>
       <c r="F19">
-        <v>1.02884674161635</v>
+        <v>0.9998547571628178</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046178738424958</v>
+        <v>1.034975232889868</v>
       </c>
       <c r="J19">
-        <v>1.028620994033103</v>
+        <v>1.000900597543229</v>
       </c>
       <c r="K19">
-        <v>1.037481223590704</v>
+        <v>1.011253940980148</v>
       </c>
       <c r="L19">
-        <v>1.03194697629308</v>
+        <v>1.009619658187153</v>
       </c>
       <c r="M19">
-        <v>1.042123474641393</v>
+        <v>1.01361144126449</v>
       </c>
       <c r="N19">
-        <v>1.030081753829107</v>
+        <v>1.003765360522112</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9993672320650377</v>
+        <v>0.9706889211312404</v>
       </c>
       <c r="D20">
-        <v>1.022296994793986</v>
+        <v>0.9958330677124372</v>
       </c>
       <c r="E20">
-        <v>1.016619281216253</v>
+        <v>0.9937494028520272</v>
       </c>
       <c r="F20">
-        <v>1.026866880663819</v>
+        <v>0.9976957797747488</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04543997937553</v>
+        <v>1.034384208695265</v>
       </c>
       <c r="J20">
-        <v>1.026922567665095</v>
+        <v>0.9993984435720205</v>
       </c>
       <c r="K20">
-        <v>1.035958790585392</v>
+        <v>1.009949585476784</v>
       </c>
       <c r="L20">
-        <v>1.030376062647367</v>
+        <v>1.007903059190964</v>
       </c>
       <c r="M20">
-        <v>1.040453205468367</v>
+        <v>1.011779267486664</v>
       </c>
       <c r="N20">
-        <v>1.028380915500845</v>
+        <v>1.003248396271451</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9913987412079504</v>
+        <v>0.9632723845688246</v>
       </c>
       <c r="D21">
-        <v>1.016202163773681</v>
+        <v>0.9904331911655858</v>
       </c>
       <c r="E21">
-        <v>1.01036493249879</v>
+        <v>0.9869623152470685</v>
       </c>
       <c r="F21">
-        <v>1.020286401735575</v>
+        <v>0.9905208510071415</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042965747582409</v>
+        <v>1.032400808530922</v>
       </c>
       <c r="J21">
-        <v>1.021260531867441</v>
+        <v>0.9943901821693965</v>
       </c>
       <c r="K21">
-        <v>1.030882948022282</v>
+        <v>1.005598105031324</v>
       </c>
       <c r="L21">
-        <v>1.025152563259369</v>
+        <v>1.002194973208194</v>
       </c>
       <c r="M21">
-        <v>1.034893371462748</v>
+        <v>1.005684061997863</v>
       </c>
       <c r="N21">
-        <v>1.022710838962913</v>
+        <v>1.001524376742022</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9862294344084317</v>
+        <v>0.9584616822883979</v>
       </c>
       <c r="D22">
-        <v>1.0122562593012</v>
+        <v>0.9869373754178732</v>
       </c>
       <c r="E22">
-        <v>1.006326395152876</v>
+        <v>0.9825775993961187</v>
       </c>
       <c r="F22">
-        <v>1.016031630560045</v>
+        <v>0.985882310704906</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041351500253304</v>
+        <v>1.031103893711352</v>
       </c>
       <c r="J22">
-        <v>1.017586159999112</v>
+        <v>0.9911398471855531</v>
       </c>
       <c r="K22">
-        <v>1.027588765576098</v>
+        <v>1.002772124166697</v>
       </c>
       <c r="L22">
-        <v>1.021773558146423</v>
+        <v>0.9985022827671577</v>
       </c>
       <c r="M22">
-        <v>1.03129205005991</v>
+        <v>1.001738727344145</v>
       </c>
       <c r="N22">
-        <v>1.019031249065075</v>
+        <v>1.000405232252245</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9889855732717424</v>
+        <v>0.9610265545206772</v>
       </c>
       <c r="D23">
-        <v>1.014359314676039</v>
+        <v>0.9888005127799644</v>
       </c>
       <c r="E23">
-        <v>1.008477804520156</v>
+        <v>0.9849136428573674</v>
       </c>
       <c r="F23">
-        <v>1.01829877690146</v>
+        <v>0.9883538982618759</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042213006007809</v>
+        <v>1.031796303630291</v>
       </c>
       <c r="J23">
-        <v>1.019545329069061</v>
+        <v>0.9928729294242233</v>
       </c>
       <c r="K23">
-        <v>1.029345227038418</v>
+        <v>1.004279105849864</v>
       </c>
       <c r="L23">
-        <v>1.023574199592085</v>
+        <v>1.000470109857599</v>
       </c>
       <c r="M23">
-        <v>1.033211617628065</v>
+        <v>1.003841398352541</v>
       </c>
       <c r="N23">
-        <v>1.020993200379822</v>
+        <v>1.00100198163206</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9994982758770472</v>
+        <v>0.9708108932661808</v>
       </c>
       <c r="D24">
-        <v>1.022397345252873</v>
+        <v>0.9959219747108273</v>
       </c>
       <c r="E24">
-        <v>1.016722430394988</v>
+        <v>0.993861304863651</v>
       </c>
       <c r="F24">
-        <v>1.026975317962562</v>
+        <v>0.9978140238004536</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045480511344334</v>
+        <v>1.03441665022504</v>
       </c>
       <c r="J24">
-        <v>1.027015652947534</v>
+        <v>0.9994807742284064</v>
       </c>
       <c r="K24">
-        <v>1.036042232569723</v>
+        <v>1.010021085529733</v>
       </c>
       <c r="L24">
-        <v>1.030462110421976</v>
+        <v>1.007997087356815</v>
       </c>
       <c r="M24">
-        <v>1.04054471732146</v>
+        <v>1.011879636689247</v>
       </c>
       <c r="N24">
-        <v>1.028474132975061</v>
+        <v>1.003276732028763</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011069089865492</v>
+        <v>0.9815807703217152</v>
       </c>
       <c r="D25">
-        <v>1.031272397443261</v>
+        <v>1.003784062086728</v>
       </c>
       <c r="E25">
-        <v>1.02586825002856</v>
+        <v>1.003779144062776</v>
       </c>
       <c r="F25">
-        <v>1.036577988861729</v>
+        <v>1.008286944214879</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049036346137069</v>
+        <v>1.03725538795878</v>
       </c>
       <c r="J25">
-        <v>1.035229592195937</v>
+        <v>1.006744322699611</v>
       </c>
       <c r="K25">
-        <v>1.043403898808664</v>
+        <v>1.016323918009782</v>
       </c>
       <c r="L25">
-        <v>1.038077840986042</v>
+        <v>1.01631907559937</v>
       </c>
       <c r="M25">
-        <v>1.048633826404973</v>
+        <v>1.020757963839574</v>
       </c>
       <c r="N25">
-        <v>1.036699736959349</v>
+        <v>1.005775692289796</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9897559763100182</v>
+        <v>1.0271363451273</v>
       </c>
       <c r="D2">
-        <v>1.009766006239097</v>
+        <v>1.031593715891273</v>
       </c>
       <c r="E2">
-        <v>1.011358635752958</v>
+        <v>1.050376297517652</v>
       </c>
       <c r="F2">
-        <v>1.016280888551088</v>
+        <v>1.05525434559609</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039371260572413</v>
+        <v>1.032316750418348</v>
       </c>
       <c r="J2">
-        <v>1.012247461906461</v>
+        <v>1.032295897766756</v>
       </c>
       <c r="K2">
-        <v>1.021090941305664</v>
+        <v>1.034401384282966</v>
       </c>
       <c r="L2">
-        <v>1.022661962725586</v>
+        <v>1.053130746599599</v>
       </c>
       <c r="M2">
-        <v>1.027517970383143</v>
+        <v>1.057995308916699</v>
       </c>
       <c r="N2">
-        <v>1.007667362488392</v>
+        <v>1.014719588740343</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.995475737128365</v>
+        <v>1.028303656739852</v>
       </c>
       <c r="D3">
-        <v>1.013957295194585</v>
+        <v>1.032460587905173</v>
       </c>
       <c r="E3">
-        <v>1.016689440309517</v>
+        <v>1.051563489139146</v>
       </c>
       <c r="F3">
-        <v>1.021897794403765</v>
+        <v>1.056493664502133</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040827918380679</v>
+        <v>1.032542132403142</v>
       </c>
       <c r="J3">
-        <v>1.016090502598772</v>
+        <v>1.033102146747051</v>
       </c>
       <c r="K3">
-        <v>1.024414651040701</v>
+        <v>1.035076696333033</v>
       </c>
       <c r="L3">
-        <v>1.02711313884207</v>
+        <v>1.054129406533073</v>
       </c>
       <c r="M3">
-        <v>1.032257950563116</v>
+        <v>1.059046946189337</v>
       </c>
       <c r="N3">
-        <v>1.008987239915749</v>
+        <v>1.014992280135225</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9990839819817089</v>
+        <v>1.029058574355807</v>
       </c>
       <c r="D4">
-        <v>1.016603499248815</v>
+        <v>1.033020964352403</v>
       </c>
       <c r="E4">
-        <v>1.02006471509637</v>
+        <v>1.052332222379775</v>
       </c>
       <c r="F4">
-        <v>1.025451795332292</v>
+        <v>1.057295953330431</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041735493335306</v>
+        <v>1.03268641768842</v>
       </c>
       <c r="J4">
-        <v>1.018511148653948</v>
+        <v>1.033622936928307</v>
       </c>
       <c r="K4">
-        <v>1.02650558105555</v>
+        <v>1.03551248614413</v>
       </c>
       <c r="L4">
-        <v>1.029926860930622</v>
+        <v>1.054775574297346</v>
       </c>
       <c r="M4">
-        <v>1.035252445654457</v>
+        <v>1.05972722942646</v>
       </c>
       <c r="N4">
-        <v>1.009818009495617</v>
+        <v>1.015168276883703</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000579654936329</v>
+        <v>1.029375845113489</v>
       </c>
       <c r="D5">
-        <v>1.017700828042732</v>
+        <v>1.033256415940301</v>
       </c>
       <c r="E5">
-        <v>1.021466729627676</v>
+        <v>1.052655528588349</v>
       </c>
       <c r="F5">
-        <v>1.026927477034075</v>
+        <v>1.057633324741576</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042108921383067</v>
+        <v>1.032746703852003</v>
       </c>
       <c r="J5">
-        <v>1.019513607608686</v>
+        <v>1.03384166093166</v>
       </c>
       <c r="K5">
-        <v>1.027370847536989</v>
+        <v>1.035695409713108</v>
       </c>
       <c r="L5">
-        <v>1.031094510805356</v>
+        <v>1.05504721669227</v>
       </c>
       <c r="M5">
-        <v>1.036494686905083</v>
+        <v>1.060013174688135</v>
       </c>
       <c r="N5">
-        <v>1.010161903835441</v>
+        <v>1.015242157718477</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000829567434218</v>
+        <v>1.029429110656874</v>
       </c>
       <c r="D6">
-        <v>1.017884204322535</v>
+        <v>1.033295941648431</v>
       </c>
       <c r="E6">
-        <v>1.021701162131618</v>
+        <v>1.052709820827742</v>
       </c>
       <c r="F6">
-        <v>1.027174194170346</v>
+        <v>1.057689976157232</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042171152828505</v>
+        <v>1.032756804391566</v>
       </c>
       <c r="J6">
-        <v>1.019681052349731</v>
+        <v>1.033878373003111</v>
       </c>
       <c r="K6">
-        <v>1.02751533771047</v>
+        <v>1.03572610683751</v>
       </c>
       <c r="L6">
-        <v>1.031289689675817</v>
+        <v>1.055092826295289</v>
       </c>
       <c r="M6">
-        <v>1.036702309111711</v>
+        <v>1.060061183504497</v>
       </c>
       <c r="N6">
-        <v>1.010219336734</v>
+        <v>1.015254556296919</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9991040494080745</v>
+        <v>1.029062814120558</v>
       </c>
       <c r="D7">
-        <v>1.016618220480736</v>
+        <v>1.033024110980938</v>
       </c>
       <c r="E7">
-        <v>1.020083514477328</v>
+        <v>1.052336541897794</v>
       </c>
       <c r="F7">
-        <v>1.025471584750794</v>
+        <v>1.05730046095152</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041740514661977</v>
+        <v>1.032687224694119</v>
       </c>
       <c r="J7">
-        <v>1.018524602400161</v>
+        <v>1.033625860377496</v>
       </c>
       <c r="K7">
-        <v>1.026517196169035</v>
+        <v>1.035514931487026</v>
       </c>
       <c r="L7">
-        <v>1.029942522137325</v>
+        <v>1.054779204020585</v>
       </c>
       <c r="M7">
-        <v>1.035269109007255</v>
+        <v>1.059731050419541</v>
       </c>
       <c r="N7">
-        <v>1.009822625423884</v>
+        <v>1.015169264507922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9917088321924894</v>
+        <v>1.027530929747106</v>
       </c>
       <c r="D8">
-        <v>1.011196494887146</v>
+        <v>1.031886793029</v>
       </c>
       <c r="E8">
-        <v>1.013176044071524</v>
+        <v>1.050777403255422</v>
       </c>
       <c r="F8">
-        <v>1.01819635076618</v>
+        <v>1.055673104163698</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039870948416407</v>
+        <v>1.032393240752521</v>
       </c>
       <c r="J8">
-        <v>1.013560308181249</v>
+        <v>1.032568561694526</v>
       </c>
       <c r="K8">
-        <v>1.022226908681211</v>
+        <v>1.034629854283923</v>
       </c>
       <c r="L8">
-        <v>1.02418044698387</v>
+        <v>1.053468255701445</v>
       </c>
       <c r="M8">
-        <v>1.029135355443419</v>
+        <v>1.058350756049397</v>
       </c>
       <c r="N8">
-        <v>1.008118373439687</v>
+        <v>1.014811839958557</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9779185394895548</v>
+        <v>1.02482832464815</v>
       </c>
       <c r="D9">
-        <v>1.001108088250866</v>
+        <v>1.029878477641648</v>
       </c>
       <c r="E9">
-        <v>1.000398286927606</v>
+        <v>1.048034087184047</v>
       </c>
       <c r="F9">
-        <v>1.004718448448639</v>
+        <v>1.052808237729338</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036296108238455</v>
+        <v>1.031863309861523</v>
       </c>
       <c r="J9">
-        <v>1.004275893467929</v>
+        <v>1.030698480075771</v>
       </c>
       <c r="K9">
-        <v>1.014183213042585</v>
+        <v>1.033061154781701</v>
       </c>
       <c r="L9">
-        <v>1.013484905507593</v>
+        <v>1.051157901566162</v>
       </c>
       <c r="M9">
-        <v>1.017735433189819</v>
+        <v>1.055916942441552</v>
       </c>
       <c r="N9">
-        <v>1.004926682723936</v>
+        <v>1.014178534644776</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9681412509219981</v>
+        <v>1.023024301193869</v>
       </c>
       <c r="D10">
-        <v>0.9939767690200745</v>
+        <v>1.028536733768854</v>
       </c>
       <c r="E10">
-        <v>0.9914141709942371</v>
+        <v>1.046207874438275</v>
       </c>
       <c r="F10">
-        <v>0.9952278072798518</v>
+        <v>1.050900080087144</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033705234472276</v>
+        <v>1.031502013880895</v>
       </c>
       <c r="J10">
-        <v>0.9976784946965993</v>
+        <v>1.029447001954771</v>
       </c>
       <c r="K10">
-        <v>1.008455633073018</v>
+        <v>1.03200921137064</v>
       </c>
       <c r="L10">
-        <v>1.005940195120323</v>
+        <v>1.049617393597486</v>
       </c>
       <c r="M10">
-        <v>1.009683763051188</v>
+        <v>1.054293273700589</v>
       </c>
       <c r="N10">
-        <v>1.002656397906825</v>
+        <v>1.013753978582449</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9637506367655804</v>
+        <v>1.022242570224112</v>
       </c>
       <c r="D11">
-        <v>0.9907810250206145</v>
+        <v>1.02795505568326</v>
       </c>
       <c r="E11">
-        <v>0.9873989719089593</v>
+        <v>1.045417717131939</v>
       </c>
       <c r="F11">
-        <v>0.9909826463019618</v>
+        <v>1.050074221421904</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032529315878015</v>
+        <v>1.03134366603433</v>
       </c>
       <c r="J11">
-        <v>0.9947132480596949</v>
+        <v>1.028903955712889</v>
       </c>
       <c r="K11">
-        <v>1.005878917328668</v>
+        <v>1.031552241669065</v>
       </c>
       <c r="L11">
-        <v>1.002562503002428</v>
+        <v>1.048950255202594</v>
       </c>
       <c r="M11">
-        <v>1.006076644089128</v>
+        <v>1.05358992184788</v>
       </c>
       <c r="N11">
-        <v>1.001635604123685</v>
+        <v>1.013569579605935</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9620944239158523</v>
+        <v>1.021952111474384</v>
       </c>
       <c r="D12">
-        <v>0.989576686066034</v>
+        <v>1.027738889441527</v>
       </c>
       <c r="E12">
-        <v>0.9858873906163639</v>
+        <v>1.04512430667064</v>
       </c>
       <c r="F12">
-        <v>0.9893839345396193</v>
+        <v>1.049767516839058</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032083952004537</v>
+        <v>1.031284562157452</v>
       </c>
       <c r="J12">
-        <v>0.993594400054281</v>
+        <v>1.028702070378827</v>
       </c>
       <c r="K12">
-        <v>1.004906342413457</v>
+        <v>1.031382280825497</v>
       </c>
       <c r="L12">
-        <v>1.001290054173408</v>
+        <v>1.048702435488214</v>
       </c>
       <c r="M12">
-        <v>1.004717387532702</v>
+        <v>1.053328620032368</v>
       </c>
       <c r="N12">
-        <v>1.001250391219932</v>
+        <v>1.013501000626008</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9624508641817747</v>
+        <v>1.022014419930789</v>
       </c>
       <c r="D13">
-        <v>0.9898358223524597</v>
+        <v>1.027785262603421</v>
       </c>
       <c r="E13">
-        <v>0.9862125656118915</v>
+        <v>1.045187240204456</v>
       </c>
       <c r="F13">
-        <v>0.9897278787820216</v>
+        <v>1.049833303505642</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032179879897288</v>
+        <v>1.031297253106941</v>
       </c>
       <c r="J13">
-        <v>0.9938352043412912</v>
+        <v>1.028745383353395</v>
       </c>
       <c r="K13">
-        <v>1.005115679245458</v>
+        <v>1.031418748061752</v>
       </c>
       <c r="L13">
-        <v>1.00156382548874</v>
+        <v>1.048755594353264</v>
       </c>
       <c r="M13">
-        <v>1.00500985298668</v>
+        <v>1.053384672250011</v>
       </c>
       <c r="N13">
-        <v>1.00133330062885</v>
+        <v>1.013515714901536</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9636142614781614</v>
+        <v>1.022218562643898</v>
       </c>
       <c r="D14">
-        <v>0.9906818335581152</v>
+        <v>1.027937189463071</v>
       </c>
       <c r="E14">
-        <v>0.9872744437483585</v>
+        <v>1.045393461923185</v>
       </c>
       <c r="F14">
-        <v>0.9908509515486571</v>
+        <v>1.05004886799219</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032492679679072</v>
+        <v>1.031338786334594</v>
       </c>
       <c r="J14">
-        <v>0.9946211260179315</v>
+        <v>1.028887271360888</v>
       </c>
       <c r="K14">
-        <v>1.005798845340875</v>
+        <v>1.031538197185707</v>
       </c>
       <c r="L14">
-        <v>1.00245769279878</v>
+        <v>1.048929770658779</v>
       </c>
       <c r="M14">
-        <v>1.005964691345537</v>
+        <v>1.053568323498587</v>
       </c>
       <c r="N14">
-        <v>1.001603887904219</v>
+        <v>1.013563912581831</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9643276551652696</v>
+        <v>1.022344329834042</v>
       </c>
       <c r="D15">
-        <v>0.9912007623546607</v>
+        <v>1.028030782664014</v>
       </c>
       <c r="E15">
-        <v>0.9879259875109739</v>
+        <v>1.045520533690917</v>
       </c>
       <c r="F15">
-        <v>0.9915399687952829</v>
+        <v>1.05018169176265</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032684255296491</v>
+        <v>1.031364338361246</v>
       </c>
       <c r="J15">
-        <v>0.9951030142478512</v>
+        <v>1.028974670178186</v>
       </c>
       <c r="K15">
-        <v>1.006217686908789</v>
+        <v>1.031611764295484</v>
       </c>
       <c r="L15">
-        <v>1.003006034974891</v>
+        <v>1.049037084420324</v>
       </c>
       <c r="M15">
-        <v>1.006550386173054</v>
+        <v>1.053681470999048</v>
       </c>
       <c r="N15">
-        <v>1.001769792885132</v>
+        <v>1.013593597491052</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9684291878896754</v>
+        <v>1.023076169745374</v>
       </c>
       <c r="D16">
-        <v>0.9941864968179777</v>
+        <v>1.028575323133628</v>
       </c>
       <c r="E16">
-        <v>0.9916778980846368</v>
+        <v>1.04626032717258</v>
       </c>
       <c r="F16">
-        <v>0.995506562618839</v>
+        <v>1.050954897579276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033782099664135</v>
+        <v>1.031512482755844</v>
       </c>
       <c r="J16">
-        <v>0.997872908759486</v>
+        <v>1.029483017847291</v>
       </c>
       <c r="K16">
-        <v>1.008624526208495</v>
+        <v>1.032039507869459</v>
       </c>
       <c r="L16">
-        <v>1.006161929153296</v>
+        <v>1.049661667383655</v>
       </c>
       <c r="M16">
-        <v>1.009920506327484</v>
+        <v>1.054339946540417</v>
       </c>
       <c r="N16">
-        <v>1.002723318278738</v>
+        <v>1.013766204635627</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9709587539844344</v>
+        <v>1.023535077448298</v>
       </c>
       <c r="D17">
-        <v>0.9960297564431578</v>
+        <v>1.028916712570257</v>
       </c>
       <c r="E17">
-        <v>0.9939969704560357</v>
+        <v>1.046724540796878</v>
       </c>
       <c r="F17">
-        <v>0.9979573758847249</v>
+        <v>1.051440011195907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034455969343707</v>
+        <v>1.031604899747806</v>
       </c>
       <c r="J17">
-        <v>0.9995805778253813</v>
+        <v>1.029801582643508</v>
       </c>
       <c r="K17">
-        <v>1.010107758369555</v>
+        <v>1.03230742557338</v>
       </c>
       <c r="L17">
-        <v>1.008111079634958</v>
+        <v>1.050053427048592</v>
       </c>
       <c r="M17">
-        <v>1.012001314740567</v>
+        <v>1.054752911345847</v>
       </c>
       <c r="N17">
-        <v>1.003311081184719</v>
+        <v>1.013874325456059</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9724191880137013</v>
+        <v>1.023802695046705</v>
       </c>
       <c r="D18">
-        <v>0.9970945733408731</v>
+        <v>1.029115772335578</v>
       </c>
       <c r="E18">
-        <v>0.9953376831745971</v>
+        <v>1.046995367228865</v>
       </c>
       <c r="F18">
-        <v>0.9993739132603232</v>
+        <v>1.051723007153716</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034843843688871</v>
+        <v>1.03165862130137</v>
       </c>
       <c r="J18">
-        <v>1.000566241793039</v>
+        <v>1.029987285428291</v>
       </c>
       <c r="K18">
-        <v>1.010963647404914</v>
+        <v>1.032463555544461</v>
       </c>
       <c r="L18">
-        <v>1.009237382518766</v>
+        <v>1.050281925421228</v>
       </c>
       <c r="M18">
-        <v>1.013203462535122</v>
+        <v>1.054993758614751</v>
       </c>
       <c r="N18">
-        <v>1.003650298533334</v>
+        <v>1.013937336165306</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9729146613908396</v>
+        <v>1.023893936389662</v>
       </c>
       <c r="D19">
-        <v>0.9974559286659715</v>
+        <v>1.029183635245166</v>
       </c>
       <c r="E19">
-        <v>0.995792842129773</v>
+        <v>1.047087722014213</v>
       </c>
       <c r="F19">
-        <v>0.9998547571628178</v>
+        <v>1.051819507862128</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034975232889868</v>
+        <v>1.031676907811664</v>
       </c>
       <c r="J19">
-        <v>1.000900597543229</v>
+        <v>1.030050586546393</v>
       </c>
       <c r="K19">
-        <v>1.011253940980148</v>
+        <v>1.032516767789389</v>
       </c>
       <c r="L19">
-        <v>1.009619658187153</v>
+        <v>1.050359836080907</v>
       </c>
       <c r="M19">
-        <v>1.01361144126449</v>
+        <v>1.055075876590407</v>
       </c>
       <c r="N19">
-        <v>1.003765360522112</v>
+        <v>1.013958811982726</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9706889211312404</v>
+        <v>1.023485846753951</v>
       </c>
       <c r="D20">
-        <v>0.9958330677124372</v>
+        <v>1.02888009164286</v>
       </c>
       <c r="E20">
-        <v>0.9937494028520272</v>
+        <v>1.046674729033092</v>
       </c>
       <c r="F20">
-        <v>0.9976957797747488</v>
+        <v>1.051387959243247</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034384208695265</v>
+        <v>1.0315950032844</v>
       </c>
       <c r="J20">
-        <v>0.9993984435720205</v>
+        <v>1.029767415113314</v>
       </c>
       <c r="K20">
-        <v>1.009949585476784</v>
+        <v>1.032278695223238</v>
       </c>
       <c r="L20">
-        <v>1.007903059190964</v>
+        <v>1.05001139582633</v>
       </c>
       <c r="M20">
-        <v>1.011779267486664</v>
+        <v>1.054708607051629</v>
       </c>
       <c r="N20">
-        <v>1.003248396271451</v>
+        <v>1.013862730738287</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9632723845688246</v>
+        <v>1.022158450180733</v>
       </c>
       <c r="D21">
-        <v>0.9904331911655858</v>
+        <v>1.027892453697486</v>
       </c>
       <c r="E21">
-        <v>0.9869623152470685</v>
+        <v>1.045332732320058</v>
       </c>
       <c r="F21">
-        <v>0.9905208510071415</v>
+        <v>1.049985388090625</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032400808530922</v>
+        <v>1.031326563743992</v>
       </c>
       <c r="J21">
-        <v>0.9943901821693965</v>
+        <v>1.02884549368692</v>
       </c>
       <c r="K21">
-        <v>1.005598105031324</v>
+        <v>1.031503028530127</v>
       </c>
       <c r="L21">
-        <v>1.002194973208194</v>
+        <v>1.048878480499309</v>
       </c>
       <c r="M21">
-        <v>1.005684061997863</v>
+        <v>1.05351424405601</v>
       </c>
       <c r="N21">
-        <v>1.001524376742022</v>
+        <v>1.013549721915198</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9584616822883979</v>
+        <v>1.021323346804629</v>
       </c>
       <c r="D22">
-        <v>0.9869373754178732</v>
+        <v>1.027270878027396</v>
       </c>
       <c r="E22">
-        <v>0.9825775993961187</v>
+        <v>1.044489480623814</v>
       </c>
       <c r="F22">
-        <v>0.985882310704906</v>
+        <v>1.049103859542643</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031103893711352</v>
+        <v>1.031156127750871</v>
       </c>
       <c r="J22">
-        <v>0.9911398471855531</v>
+        <v>1.028264838999029</v>
       </c>
       <c r="K22">
-        <v>1.002772124166697</v>
+        <v>1.031014051506109</v>
       </c>
       <c r="L22">
-        <v>0.9985022827671577</v>
+        <v>1.048166085212567</v>
       </c>
       <c r="M22">
-        <v>1.001738727344145</v>
+        <v>1.05276303586247</v>
       </c>
       <c r="N22">
-        <v>1.000405232252245</v>
+        <v>1.013352428947739</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9610265545206772</v>
+        <v>1.02176610065918</v>
       </c>
       <c r="D23">
-        <v>0.9888005127799644</v>
+        <v>1.027600445003567</v>
       </c>
       <c r="E23">
-        <v>0.9849136428573674</v>
+        <v>1.044936456074923</v>
       </c>
       <c r="F23">
-        <v>0.9883538982618759</v>
+        <v>1.049571144474615</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031796303630291</v>
+        <v>1.031246636310851</v>
       </c>
       <c r="J23">
-        <v>0.9928729294242233</v>
+        <v>1.028572750842028</v>
       </c>
       <c r="K23">
-        <v>1.004279105849864</v>
+        <v>1.031273389547785</v>
       </c>
       <c r="L23">
-        <v>1.000470109857599</v>
+        <v>1.048543748145652</v>
       </c>
       <c r="M23">
-        <v>1.003841398352541</v>
+        <v>1.053161291193807</v>
       </c>
       <c r="N23">
-        <v>1.00100198163206</v>
+        <v>1.013457064424941</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9708108932661808</v>
+        <v>1.023508092157125</v>
       </c>
       <c r="D24">
-        <v>0.9959219747108273</v>
+        <v>1.028896639270518</v>
       </c>
       <c r="E24">
-        <v>0.993861304863651</v>
+        <v>1.046697236644426</v>
       </c>
       <c r="F24">
-        <v>0.9978140238004536</v>
+        <v>1.05141147916465</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03441665022504</v>
+        <v>1.031599475637921</v>
       </c>
       <c r="J24">
-        <v>0.9994807742284064</v>
+        <v>1.029782854291506</v>
       </c>
       <c r="K24">
-        <v>1.010021085529733</v>
+        <v>1.032291677670294</v>
       </c>
       <c r="L24">
-        <v>1.007997087356815</v>
+        <v>1.050030387952523</v>
       </c>
       <c r="M24">
-        <v>1.011879636689247</v>
+        <v>1.054728626342077</v>
       </c>
       <c r="N24">
-        <v>1.003276732028763</v>
+        <v>1.013867970060087</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9815807703217152</v>
+        <v>1.025527407399447</v>
       </c>
       <c r="D25">
-        <v>1.003784062086728</v>
+        <v>1.030398178219482</v>
       </c>
       <c r="E25">
-        <v>1.003779144062776</v>
+        <v>1.048742824453866</v>
       </c>
       <c r="F25">
-        <v>1.008286944214879</v>
+        <v>1.053548558608132</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03725538795878</v>
+        <v>1.032001720393711</v>
       </c>
       <c r="J25">
-        <v>1.006744322699611</v>
+        <v>1.031182775050066</v>
       </c>
       <c r="K25">
-        <v>1.016323918009782</v>
+        <v>1.033467781228611</v>
       </c>
       <c r="L25">
-        <v>1.01631907559937</v>
+        <v>1.051755226045945</v>
       </c>
       <c r="M25">
-        <v>1.020757963839574</v>
+        <v>1.056546334361985</v>
       </c>
       <c r="N25">
-        <v>1.005775692289796</v>
+        <v>1.014342672831431</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0271363451273</v>
+        <v>0.9897559763100188</v>
       </c>
       <c r="D2">
-        <v>1.031593715891273</v>
+        <v>1.009766006239097</v>
       </c>
       <c r="E2">
-        <v>1.050376297517652</v>
+        <v>1.011358635752958</v>
       </c>
       <c r="F2">
-        <v>1.05525434559609</v>
+        <v>1.016280888551088</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032316750418348</v>
+        <v>1.039371260572413</v>
       </c>
       <c r="J2">
-        <v>1.032295897766756</v>
+        <v>1.012247461906462</v>
       </c>
       <c r="K2">
-        <v>1.034401384282966</v>
+        <v>1.021090941305665</v>
       </c>
       <c r="L2">
-        <v>1.053130746599599</v>
+        <v>1.022661962725586</v>
       </c>
       <c r="M2">
-        <v>1.057995308916699</v>
+        <v>1.027517970383143</v>
       </c>
       <c r="N2">
-        <v>1.014719588740343</v>
+        <v>1.007667362488392</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028303656739852</v>
+        <v>0.9954757371283655</v>
       </c>
       <c r="D3">
-        <v>1.032460587905173</v>
+        <v>1.013957295194586</v>
       </c>
       <c r="E3">
-        <v>1.051563489139146</v>
+        <v>1.016689440309518</v>
       </c>
       <c r="F3">
-        <v>1.056493664502133</v>
+        <v>1.021897794403766</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032542132403142</v>
+        <v>1.040827918380679</v>
       </c>
       <c r="J3">
-        <v>1.033102146747051</v>
+        <v>1.016090502598773</v>
       </c>
       <c r="K3">
-        <v>1.035076696333033</v>
+        <v>1.024414651040701</v>
       </c>
       <c r="L3">
-        <v>1.054129406533073</v>
+        <v>1.02711313884207</v>
       </c>
       <c r="M3">
-        <v>1.059046946189337</v>
+        <v>1.032257950563117</v>
       </c>
       <c r="N3">
-        <v>1.014992280135225</v>
+        <v>1.008987239915749</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029058574355807</v>
+        <v>0.9990839819817093</v>
       </c>
       <c r="D4">
-        <v>1.033020964352403</v>
+        <v>1.016603499248815</v>
       </c>
       <c r="E4">
-        <v>1.052332222379775</v>
+        <v>1.02006471509637</v>
       </c>
       <c r="F4">
-        <v>1.057295953330431</v>
+        <v>1.025451795332293</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03268641768842</v>
+        <v>1.041735493335306</v>
       </c>
       <c r="J4">
-        <v>1.033622936928307</v>
+        <v>1.018511148653948</v>
       </c>
       <c r="K4">
-        <v>1.03551248614413</v>
+        <v>1.02650558105555</v>
       </c>
       <c r="L4">
-        <v>1.054775574297346</v>
+        <v>1.029926860930623</v>
       </c>
       <c r="M4">
-        <v>1.05972722942646</v>
+        <v>1.035252445654458</v>
       </c>
       <c r="N4">
-        <v>1.015168276883703</v>
+        <v>1.009818009495617</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029375845113489</v>
+        <v>1.000579654936329</v>
       </c>
       <c r="D5">
-        <v>1.033256415940301</v>
+        <v>1.017700828042732</v>
       </c>
       <c r="E5">
-        <v>1.052655528588349</v>
+        <v>1.021466729627675</v>
       </c>
       <c r="F5">
-        <v>1.057633324741576</v>
+        <v>1.026927477034074</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032746703852003</v>
+        <v>1.042108921383067</v>
       </c>
       <c r="J5">
-        <v>1.03384166093166</v>
+        <v>1.019513607608686</v>
       </c>
       <c r="K5">
-        <v>1.035695409713108</v>
+        <v>1.027370847536989</v>
       </c>
       <c r="L5">
-        <v>1.05504721669227</v>
+        <v>1.031094510805355</v>
       </c>
       <c r="M5">
-        <v>1.060013174688135</v>
+        <v>1.036494686905082</v>
       </c>
       <c r="N5">
-        <v>1.015242157718477</v>
+        <v>1.010161903835441</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029429110656874</v>
+        <v>1.000829567434218</v>
       </c>
       <c r="D6">
-        <v>1.033295941648431</v>
+        <v>1.017884204322535</v>
       </c>
       <c r="E6">
-        <v>1.052709820827742</v>
+        <v>1.021701162131618</v>
       </c>
       <c r="F6">
-        <v>1.057689976157232</v>
+        <v>1.027174194170346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032756804391566</v>
+        <v>1.042171152828505</v>
       </c>
       <c r="J6">
-        <v>1.033878373003111</v>
+        <v>1.01968105234973</v>
       </c>
       <c r="K6">
-        <v>1.03572610683751</v>
+        <v>1.02751533771047</v>
       </c>
       <c r="L6">
-        <v>1.055092826295289</v>
+        <v>1.031289689675816</v>
       </c>
       <c r="M6">
-        <v>1.060061183504497</v>
+        <v>1.036702309111711</v>
       </c>
       <c r="N6">
-        <v>1.015254556296919</v>
+        <v>1.010219336734</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029062814120558</v>
+        <v>0.9991040494080746</v>
       </c>
       <c r="D7">
-        <v>1.033024110980938</v>
+        <v>1.016618220480736</v>
       </c>
       <c r="E7">
-        <v>1.052336541897794</v>
+        <v>1.020083514477327</v>
       </c>
       <c r="F7">
-        <v>1.05730046095152</v>
+        <v>1.025471584750794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032687224694119</v>
+        <v>1.041740514661977</v>
       </c>
       <c r="J7">
-        <v>1.033625860377496</v>
+        <v>1.018524602400161</v>
       </c>
       <c r="K7">
-        <v>1.035514931487026</v>
+        <v>1.026517196169035</v>
       </c>
       <c r="L7">
-        <v>1.054779204020585</v>
+        <v>1.029942522137325</v>
       </c>
       <c r="M7">
-        <v>1.059731050419541</v>
+        <v>1.035269109007255</v>
       </c>
       <c r="N7">
-        <v>1.015169264507922</v>
+        <v>1.009822625423884</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027530929747106</v>
+        <v>0.99170883219249</v>
       </c>
       <c r="D8">
-        <v>1.031886793029</v>
+        <v>1.011196494887147</v>
       </c>
       <c r="E8">
-        <v>1.050777403255422</v>
+        <v>1.013176044071525</v>
       </c>
       <c r="F8">
-        <v>1.055673104163698</v>
+        <v>1.01819635076618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032393240752521</v>
+        <v>1.039870948416407</v>
       </c>
       <c r="J8">
-        <v>1.032568561694526</v>
+        <v>1.013560308181249</v>
       </c>
       <c r="K8">
-        <v>1.034629854283923</v>
+        <v>1.022226908681212</v>
       </c>
       <c r="L8">
-        <v>1.053468255701445</v>
+        <v>1.024180446983871</v>
       </c>
       <c r="M8">
-        <v>1.058350756049397</v>
+        <v>1.02913535544342</v>
       </c>
       <c r="N8">
-        <v>1.014811839958557</v>
+        <v>1.008118373439687</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02482832464815</v>
+        <v>0.9779185394895548</v>
       </c>
       <c r="D9">
-        <v>1.029878477641648</v>
+        <v>1.001108088250866</v>
       </c>
       <c r="E9">
-        <v>1.048034087184047</v>
+        <v>1.000398286927606</v>
       </c>
       <c r="F9">
-        <v>1.052808237729338</v>
+        <v>1.004718448448639</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031863309861523</v>
+        <v>1.036296108238455</v>
       </c>
       <c r="J9">
-        <v>1.030698480075771</v>
+        <v>1.004275893467928</v>
       </c>
       <c r="K9">
-        <v>1.033061154781701</v>
+        <v>1.014183213042585</v>
       </c>
       <c r="L9">
-        <v>1.051157901566162</v>
+        <v>1.013484905507593</v>
       </c>
       <c r="M9">
-        <v>1.055916942441552</v>
+        <v>1.017735433189819</v>
       </c>
       <c r="N9">
-        <v>1.014178534644776</v>
+        <v>1.004926682723936</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023024301193869</v>
+        <v>0.9681412509219997</v>
       </c>
       <c r="D10">
-        <v>1.028536733768854</v>
+        <v>0.993976769020076</v>
       </c>
       <c r="E10">
-        <v>1.046207874438275</v>
+        <v>0.9914141709942376</v>
       </c>
       <c r="F10">
-        <v>1.050900080087144</v>
+        <v>0.9952278072798523</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031502013880895</v>
+        <v>1.033705234472277</v>
       </c>
       <c r="J10">
-        <v>1.029447001954771</v>
+        <v>0.9976784946966006</v>
       </c>
       <c r="K10">
-        <v>1.03200921137064</v>
+        <v>1.00845563307302</v>
       </c>
       <c r="L10">
-        <v>1.049617393597486</v>
+        <v>1.005940195120323</v>
       </c>
       <c r="M10">
-        <v>1.054293273700589</v>
+        <v>1.009683763051188</v>
       </c>
       <c r="N10">
-        <v>1.013753978582449</v>
+        <v>1.002656397906825</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022242570224112</v>
+        <v>0.963750636765581</v>
       </c>
       <c r="D11">
-        <v>1.02795505568326</v>
+        <v>0.9907810250206153</v>
       </c>
       <c r="E11">
-        <v>1.045417717131939</v>
+        <v>0.9873989719089598</v>
       </c>
       <c r="F11">
-        <v>1.050074221421904</v>
+        <v>0.9909826463019623</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03134366603433</v>
+        <v>1.032529315878016</v>
       </c>
       <c r="J11">
-        <v>1.028903955712889</v>
+        <v>0.9947132480596954</v>
       </c>
       <c r="K11">
-        <v>1.031552241669065</v>
+        <v>1.005878917328668</v>
       </c>
       <c r="L11">
-        <v>1.048950255202594</v>
+        <v>1.002562503002429</v>
       </c>
       <c r="M11">
-        <v>1.05358992184788</v>
+        <v>1.006076644089128</v>
       </c>
       <c r="N11">
-        <v>1.013569579605935</v>
+        <v>1.001635604123685</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021952111474384</v>
+        <v>0.9620944239158529</v>
       </c>
       <c r="D12">
-        <v>1.027738889441527</v>
+        <v>0.9895766860660344</v>
       </c>
       <c r="E12">
-        <v>1.04512430667064</v>
+        <v>0.9858873906163647</v>
       </c>
       <c r="F12">
-        <v>1.049767516839058</v>
+        <v>0.98938393453962</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031284562157452</v>
+        <v>1.032083952004537</v>
       </c>
       <c r="J12">
-        <v>1.028702070378827</v>
+        <v>0.9935944000542815</v>
       </c>
       <c r="K12">
-        <v>1.031382280825497</v>
+        <v>1.004906342413457</v>
       </c>
       <c r="L12">
-        <v>1.048702435488214</v>
+        <v>1.001290054173408</v>
       </c>
       <c r="M12">
-        <v>1.053328620032368</v>
+        <v>1.004717387532702</v>
       </c>
       <c r="N12">
-        <v>1.013501000626008</v>
+        <v>1.001250391219932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022014419930789</v>
+        <v>0.9624508641817753</v>
       </c>
       <c r="D13">
-        <v>1.027785262603421</v>
+        <v>0.9898358223524605</v>
       </c>
       <c r="E13">
-        <v>1.045187240204456</v>
+        <v>0.9862125656118914</v>
       </c>
       <c r="F13">
-        <v>1.049833303505642</v>
+        <v>0.9897278787820214</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031297253106941</v>
+        <v>1.032179879897289</v>
       </c>
       <c r="J13">
-        <v>1.028745383353395</v>
+        <v>0.9938352043412917</v>
       </c>
       <c r="K13">
-        <v>1.031418748061752</v>
+        <v>1.005115679245458</v>
       </c>
       <c r="L13">
-        <v>1.048755594353264</v>
+        <v>1.00156382548874</v>
       </c>
       <c r="M13">
-        <v>1.053384672250011</v>
+        <v>1.00500985298668</v>
       </c>
       <c r="N13">
-        <v>1.013515714901536</v>
+        <v>1.00133330062885</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022218562643898</v>
+        <v>0.963614261478161</v>
       </c>
       <c r="D14">
-        <v>1.027937189463071</v>
+        <v>0.9906818335581147</v>
       </c>
       <c r="E14">
-        <v>1.045393461923185</v>
+        <v>0.9872744437483588</v>
       </c>
       <c r="F14">
-        <v>1.05004886799219</v>
+        <v>0.9908509515486573</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031338786334594</v>
+        <v>1.032492679679072</v>
       </c>
       <c r="J14">
-        <v>1.028887271360888</v>
+        <v>0.9946211260179314</v>
       </c>
       <c r="K14">
-        <v>1.031538197185707</v>
+        <v>1.005798845340875</v>
       </c>
       <c r="L14">
-        <v>1.048929770658779</v>
+        <v>1.00245769279878</v>
       </c>
       <c r="M14">
-        <v>1.053568323498587</v>
+        <v>1.005964691345538</v>
       </c>
       <c r="N14">
-        <v>1.013563912581831</v>
+        <v>1.001603887904219</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022344329834042</v>
+        <v>0.9643276551652702</v>
       </c>
       <c r="D15">
-        <v>1.028030782664014</v>
+        <v>0.991200762354661</v>
       </c>
       <c r="E15">
-        <v>1.045520533690917</v>
+        <v>0.9879259875109739</v>
       </c>
       <c r="F15">
-        <v>1.05018169176265</v>
+        <v>0.9915399687952827</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031364338361246</v>
+        <v>1.032684255296491</v>
       </c>
       <c r="J15">
-        <v>1.028974670178186</v>
+        <v>0.9951030142478514</v>
       </c>
       <c r="K15">
-        <v>1.031611764295484</v>
+        <v>1.006217686908789</v>
       </c>
       <c r="L15">
-        <v>1.049037084420324</v>
+        <v>1.003006034974891</v>
       </c>
       <c r="M15">
-        <v>1.053681470999048</v>
+        <v>1.006550386173054</v>
       </c>
       <c r="N15">
-        <v>1.013593597491052</v>
+        <v>1.001769792885132</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023076169745374</v>
+        <v>0.9684291878896747</v>
       </c>
       <c r="D16">
-        <v>1.028575323133628</v>
+        <v>0.9941864968179767</v>
       </c>
       <c r="E16">
-        <v>1.04626032717258</v>
+        <v>0.9916778980846368</v>
       </c>
       <c r="F16">
-        <v>1.050954897579276</v>
+        <v>0.9955065626188387</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031512482755844</v>
+        <v>1.033782099664134</v>
       </c>
       <c r="J16">
-        <v>1.029483017847291</v>
+        <v>0.9978729087594852</v>
       </c>
       <c r="K16">
-        <v>1.032039507869459</v>
+        <v>1.008624526208494</v>
       </c>
       <c r="L16">
-        <v>1.049661667383655</v>
+        <v>1.006161929153296</v>
       </c>
       <c r="M16">
-        <v>1.054339946540417</v>
+        <v>1.009920506327484</v>
       </c>
       <c r="N16">
-        <v>1.013766204635627</v>
+        <v>1.002723318278738</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023535077448298</v>
+        <v>0.9709587539844345</v>
       </c>
       <c r="D17">
-        <v>1.028916712570257</v>
+        <v>0.9960297564431579</v>
       </c>
       <c r="E17">
-        <v>1.046724540796878</v>
+        <v>0.9939969704560361</v>
       </c>
       <c r="F17">
-        <v>1.051440011195907</v>
+        <v>0.9979573758847253</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031604899747806</v>
+        <v>1.034455969343707</v>
       </c>
       <c r="J17">
-        <v>1.029801582643508</v>
+        <v>0.9995805778253816</v>
       </c>
       <c r="K17">
-        <v>1.03230742557338</v>
+        <v>1.010107758369555</v>
       </c>
       <c r="L17">
-        <v>1.050053427048592</v>
+        <v>1.008111079634959</v>
       </c>
       <c r="M17">
-        <v>1.054752911345847</v>
+        <v>1.012001314740567</v>
       </c>
       <c r="N17">
-        <v>1.013874325456059</v>
+        <v>1.003311081184719</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023802695046705</v>
+        <v>0.9724191880137011</v>
       </c>
       <c r="D18">
-        <v>1.029115772335578</v>
+        <v>0.9970945733408729</v>
       </c>
       <c r="E18">
-        <v>1.046995367228865</v>
+        <v>0.9953376831745977</v>
       </c>
       <c r="F18">
-        <v>1.051723007153716</v>
+        <v>0.9993739132603235</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03165862130137</v>
+        <v>1.034843843688871</v>
       </c>
       <c r="J18">
-        <v>1.029987285428291</v>
+        <v>1.000566241793039</v>
       </c>
       <c r="K18">
-        <v>1.032463555544461</v>
+        <v>1.010963647404914</v>
       </c>
       <c r="L18">
-        <v>1.050281925421228</v>
+        <v>1.009237382518766</v>
       </c>
       <c r="M18">
-        <v>1.054993758614751</v>
+        <v>1.013203462535123</v>
       </c>
       <c r="N18">
-        <v>1.013937336165306</v>
+        <v>1.003650298533334</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023893936389662</v>
+        <v>0.9729146613908397</v>
       </c>
       <c r="D19">
-        <v>1.029183635245166</v>
+        <v>0.9974559286659717</v>
       </c>
       <c r="E19">
-        <v>1.047087722014213</v>
+        <v>0.9957928421297735</v>
       </c>
       <c r="F19">
-        <v>1.051819507862128</v>
+        <v>0.999854757162818</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031676907811664</v>
+        <v>1.034975232889868</v>
       </c>
       <c r="J19">
-        <v>1.030050586546393</v>
+        <v>1.000900597543229</v>
       </c>
       <c r="K19">
-        <v>1.032516767789389</v>
+        <v>1.011253940980148</v>
       </c>
       <c r="L19">
-        <v>1.050359836080907</v>
+        <v>1.009619658187154</v>
       </c>
       <c r="M19">
-        <v>1.055075876590407</v>
+        <v>1.013611441264491</v>
       </c>
       <c r="N19">
-        <v>1.013958811982726</v>
+        <v>1.003765360522112</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023485846753951</v>
+        <v>0.9706889211312412</v>
       </c>
       <c r="D20">
-        <v>1.02888009164286</v>
+        <v>0.9958330677124378</v>
       </c>
       <c r="E20">
-        <v>1.046674729033092</v>
+        <v>0.9937494028520277</v>
       </c>
       <c r="F20">
-        <v>1.051387959243247</v>
+        <v>0.9976957797747493</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0315950032844</v>
+        <v>1.034384208695266</v>
       </c>
       <c r="J20">
-        <v>1.029767415113314</v>
+        <v>0.9993984435720212</v>
       </c>
       <c r="K20">
-        <v>1.032278695223238</v>
+        <v>1.009949585476785</v>
       </c>
       <c r="L20">
-        <v>1.05001139582633</v>
+        <v>1.007903059190964</v>
       </c>
       <c r="M20">
-        <v>1.054708607051629</v>
+        <v>1.011779267486664</v>
       </c>
       <c r="N20">
-        <v>1.013862730738287</v>
+        <v>1.003248396271451</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022158450180733</v>
+        <v>0.9632723845688231</v>
       </c>
       <c r="D21">
-        <v>1.027892453697486</v>
+        <v>0.9904331911655849</v>
       </c>
       <c r="E21">
-        <v>1.045332732320058</v>
+        <v>0.9869623152470679</v>
       </c>
       <c r="F21">
-        <v>1.049985388090625</v>
+        <v>0.9905208510071403</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031326563743992</v>
+        <v>1.032400808530922</v>
       </c>
       <c r="J21">
-        <v>1.02884549368692</v>
+        <v>0.9943901821693953</v>
       </c>
       <c r="K21">
-        <v>1.031503028530127</v>
+        <v>1.005598105031323</v>
       </c>
       <c r="L21">
-        <v>1.048878480499309</v>
+        <v>1.002194973208194</v>
       </c>
       <c r="M21">
-        <v>1.05351424405601</v>
+        <v>1.005684061997862</v>
       </c>
       <c r="N21">
-        <v>1.013549721915198</v>
+        <v>1.001524376742022</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021323346804629</v>
+        <v>0.9584616822883981</v>
       </c>
       <c r="D22">
-        <v>1.027270878027396</v>
+        <v>0.9869373754178735</v>
       </c>
       <c r="E22">
-        <v>1.044489480623814</v>
+        <v>0.9825775993961194</v>
       </c>
       <c r="F22">
-        <v>1.049103859542643</v>
+        <v>0.9858823107049068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031156127750871</v>
+        <v>1.031103893711352</v>
       </c>
       <c r="J22">
-        <v>1.028264838999029</v>
+        <v>0.9911398471855534</v>
       </c>
       <c r="K22">
-        <v>1.031014051506109</v>
+        <v>1.002772124166697</v>
       </c>
       <c r="L22">
-        <v>1.048166085212567</v>
+        <v>0.9985022827671585</v>
       </c>
       <c r="M22">
-        <v>1.05276303586247</v>
+        <v>1.001738727344146</v>
       </c>
       <c r="N22">
-        <v>1.013352428947739</v>
+        <v>1.000405232252245</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02176610065918</v>
+        <v>0.9610265545206775</v>
       </c>
       <c r="D23">
-        <v>1.027600445003567</v>
+        <v>0.9888005127799644</v>
       </c>
       <c r="E23">
-        <v>1.044936456074923</v>
+        <v>0.9849136428573678</v>
       </c>
       <c r="F23">
-        <v>1.049571144474615</v>
+        <v>0.9883538982618766</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031246636310851</v>
+        <v>1.031796303630291</v>
       </c>
       <c r="J23">
-        <v>1.028572750842028</v>
+        <v>0.9928729294242237</v>
       </c>
       <c r="K23">
-        <v>1.031273389547785</v>
+        <v>1.004279105849865</v>
       </c>
       <c r="L23">
-        <v>1.048543748145652</v>
+        <v>1.0004701098576</v>
       </c>
       <c r="M23">
-        <v>1.053161291193807</v>
+        <v>1.003841398352542</v>
       </c>
       <c r="N23">
-        <v>1.013457064424941</v>
+        <v>1.00100198163206</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023508092157125</v>
+        <v>0.9708108932661805</v>
       </c>
       <c r="D24">
-        <v>1.028896639270518</v>
+        <v>0.995921974710827</v>
       </c>
       <c r="E24">
-        <v>1.046697236644426</v>
+        <v>0.9938613048636524</v>
       </c>
       <c r="F24">
-        <v>1.05141147916465</v>
+        <v>0.997814023800455</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031599475637921</v>
+        <v>1.03441665022504</v>
       </c>
       <c r="J24">
-        <v>1.029782854291506</v>
+        <v>0.9994807742284063</v>
       </c>
       <c r="K24">
-        <v>1.032291677670294</v>
+        <v>1.010021085529733</v>
       </c>
       <c r="L24">
-        <v>1.050030387952523</v>
+        <v>1.007997087356816</v>
       </c>
       <c r="M24">
-        <v>1.054728626342077</v>
+        <v>1.011879636689248</v>
       </c>
       <c r="N24">
-        <v>1.013867970060087</v>
+        <v>1.003276732028763</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025527407399447</v>
+        <v>0.9815807703217143</v>
       </c>
       <c r="D25">
-        <v>1.030398178219482</v>
+        <v>1.003784062086727</v>
       </c>
       <c r="E25">
-        <v>1.048742824453866</v>
+        <v>1.003779144062775</v>
       </c>
       <c r="F25">
-        <v>1.053548558608132</v>
+        <v>1.008286944214877</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032001720393711</v>
+        <v>1.037255387958779</v>
       </c>
       <c r="J25">
-        <v>1.031182775050066</v>
+        <v>1.00674432269961</v>
       </c>
       <c r="K25">
-        <v>1.033467781228611</v>
+        <v>1.016323918009781</v>
       </c>
       <c r="L25">
-        <v>1.051755226045945</v>
+        <v>1.016319075599369</v>
       </c>
       <c r="M25">
-        <v>1.056546334361985</v>
+        <v>1.020757963839573</v>
       </c>
       <c r="N25">
-        <v>1.014342672831431</v>
+        <v>1.005775692289795</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9897559763100188</v>
+        <v>1.013218199323159</v>
       </c>
       <c r="D2">
-        <v>1.009766006239097</v>
+        <v>1.033744451166162</v>
       </c>
       <c r="E2">
-        <v>1.011358635752958</v>
+        <v>1.031176284901331</v>
       </c>
       <c r="F2">
-        <v>1.016280888551088</v>
+        <v>1.041044974476707</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039371260572413</v>
+        <v>1.049826296731957</v>
       </c>
       <c r="J2">
-        <v>1.012247461906462</v>
+        <v>1.035010618214917</v>
       </c>
       <c r="K2">
-        <v>1.021090941305665</v>
+        <v>1.044752867857351</v>
       </c>
       <c r="L2">
-        <v>1.022661962725586</v>
+        <v>1.042217721064351</v>
       </c>
       <c r="M2">
-        <v>1.027517970383143</v>
+        <v>1.051960636994102</v>
       </c>
       <c r="N2">
-        <v>1.007667362488392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01555992447264</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049695691633704</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042714433047994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9954757371283655</v>
+        <v>1.016282298917785</v>
       </c>
       <c r="D3">
-        <v>1.013957295194586</v>
+        <v>1.035790329501407</v>
       </c>
       <c r="E3">
-        <v>1.016689440309518</v>
+        <v>1.033901265681015</v>
       </c>
       <c r="F3">
-        <v>1.021897794403766</v>
+        <v>1.043426942457672</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040827918380679</v>
+        <v>1.050458529630841</v>
       </c>
       <c r="J3">
-        <v>1.016090502598773</v>
+        <v>1.036338723334542</v>
       </c>
       <c r="K3">
-        <v>1.024414651040701</v>
+        <v>1.045984864860303</v>
       </c>
       <c r="L3">
-        <v>1.02711313884207</v>
+        <v>1.044117997891744</v>
       </c>
       <c r="M3">
-        <v>1.032257950563117</v>
+        <v>1.053532758041731</v>
       </c>
       <c r="N3">
-        <v>1.008987239915749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016006661569308</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050939903386913</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.0435829003539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9990839819817093</v>
+        <v>1.018234913428502</v>
       </c>
       <c r="D4">
-        <v>1.016603499248815</v>
+        <v>1.037098369458098</v>
       </c>
       <c r="E4">
-        <v>1.02006471509637</v>
+        <v>1.035646263555963</v>
       </c>
       <c r="F4">
-        <v>1.025451795332293</v>
+        <v>1.044951470805494</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041735493335306</v>
+        <v>1.050854687536049</v>
       </c>
       <c r="J4">
-        <v>1.018511148653948</v>
+        <v>1.037183396753704</v>
       </c>
       <c r="K4">
-        <v>1.02650558105555</v>
+        <v>1.046768754616285</v>
       </c>
       <c r="L4">
-        <v>1.029926860930623</v>
+        <v>1.045332693710007</v>
       </c>
       <c r="M4">
-        <v>1.035252445654458</v>
+        <v>1.054536031316758</v>
       </c>
       <c r="N4">
-        <v>1.009818009495617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016290807635499</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051733915210673</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044138061148884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000579654936329</v>
+        <v>1.019051224550643</v>
       </c>
       <c r="D5">
-        <v>1.017700828042732</v>
+        <v>1.037647995763563</v>
       </c>
       <c r="E5">
-        <v>1.021466729627675</v>
+        <v>1.036377539258826</v>
       </c>
       <c r="F5">
-        <v>1.026927477034074</v>
+        <v>1.045590656879966</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042108921383067</v>
+        <v>1.051019937517151</v>
       </c>
       <c r="J5">
-        <v>1.019513607608686</v>
+        <v>1.037537439013287</v>
       </c>
       <c r="K5">
-        <v>1.027370847536989</v>
+        <v>1.047098565485969</v>
       </c>
       <c r="L5">
-        <v>1.031094510805355</v>
+        <v>1.045841777137186</v>
       </c>
       <c r="M5">
-        <v>1.036494686905082</v>
+        <v>1.054956696768336</v>
       </c>
       <c r="N5">
-        <v>1.010161903835441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016410098590599</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052066838552574</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044378390519723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000829567434218</v>
+        <v>1.019190869004672</v>
       </c>
       <c r="D6">
-        <v>1.017884204322535</v>
+        <v>1.037744239134392</v>
       </c>
       <c r="E6">
-        <v>1.021701162131618</v>
+        <v>1.036502442432708</v>
       </c>
       <c r="F6">
-        <v>1.027174194170346</v>
+        <v>1.045700429195006</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042171152828505</v>
+        <v>1.051049659720939</v>
       </c>
       <c r="J6">
-        <v>1.01968105234973</v>
+        <v>1.037599602558788</v>
       </c>
       <c r="K6">
-        <v>1.02751533771047</v>
+        <v>1.04715788950699</v>
       </c>
       <c r="L6">
-        <v>1.031289689675816</v>
+        <v>1.045929392110119</v>
       </c>
       <c r="M6">
-        <v>1.036702309111711</v>
+        <v>1.055029787234159</v>
       </c>
       <c r="N6">
-        <v>1.010219336734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016431272226042</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.052124683844418</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044429030231582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9991040494080746</v>
+        <v>1.018253881568681</v>
       </c>
       <c r="D7">
-        <v>1.016618220480736</v>
+        <v>1.037116917118538</v>
       </c>
       <c r="E7">
-        <v>1.020083514477327</v>
+        <v>1.035662418849545</v>
       </c>
       <c r="F7">
-        <v>1.025471584750794</v>
+        <v>1.044967213301459</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041740514661977</v>
+        <v>1.050862691282888</v>
       </c>
       <c r="J7">
-        <v>1.018524602400161</v>
+        <v>1.037195978502197</v>
       </c>
       <c r="K7">
-        <v>1.026517196169035</v>
+        <v>1.046784239474947</v>
       </c>
       <c r="L7">
-        <v>1.029942522137325</v>
+        <v>1.045345806625316</v>
       </c>
       <c r="M7">
-        <v>1.035269109007255</v>
+        <v>1.054548773660532</v>
       </c>
       <c r="N7">
-        <v>1.009822625423884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016295666154855</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051743999767341</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044169003674338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.99170883219249</v>
+        <v>1.014270072601616</v>
       </c>
       <c r="D8">
-        <v>1.011196494887147</v>
+        <v>1.034453008273567</v>
       </c>
       <c r="E8">
-        <v>1.013176044071525</v>
+        <v>1.032109023890377</v>
       </c>
       <c r="F8">
-        <v>1.01819635076618</v>
+        <v>1.041862410044821</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039870948416407</v>
+        <v>1.050049839971384</v>
       </c>
       <c r="J8">
-        <v>1.013560308181249</v>
+        <v>1.035472275820179</v>
       </c>
       <c r="K8">
-        <v>1.022226908681212</v>
+        <v>1.045185670501287</v>
       </c>
       <c r="L8">
-        <v>1.024180446983871</v>
+        <v>1.042870937816142</v>
       </c>
       <c r="M8">
-        <v>1.02913535544342</v>
+        <v>1.052503683264562</v>
       </c>
       <c r="N8">
-        <v>1.008118373439687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015716013987958</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050125470830199</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043043231801039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779185394895548</v>
+        <v>1.006998880364343</v>
       </c>
       <c r="D9">
-        <v>1.001108088250866</v>
+        <v>1.02961678447404</v>
       </c>
       <c r="E9">
-        <v>1.000398286927606</v>
+        <v>1.025692663805785</v>
       </c>
       <c r="F9">
-        <v>1.004718448448639</v>
+        <v>1.036247456350762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036296108238455</v>
+        <v>1.048507644919293</v>
       </c>
       <c r="J9">
-        <v>1.004275893467928</v>
+        <v>1.032306888051023</v>
       </c>
       <c r="K9">
-        <v>1.014183213042585</v>
+        <v>1.042246954044584</v>
       </c>
       <c r="L9">
-        <v>1.013484905507593</v>
+        <v>1.038382208460343</v>
       </c>
       <c r="M9">
-        <v>1.017735433189819</v>
+        <v>1.048778597376268</v>
       </c>
       <c r="N9">
-        <v>1.004926682723936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014650719233966</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047177347955375</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040962235804161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9681412509219997</v>
+        <v>1.002018705195881</v>
       </c>
       <c r="D10">
-        <v>0.993976769020076</v>
+        <v>1.026350376827349</v>
       </c>
       <c r="E10">
-        <v>0.9914141709942376</v>
+        <v>1.021392502000811</v>
       </c>
       <c r="F10">
-        <v>0.9952278072798523</v>
+        <v>1.032502964152403</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033705234472277</v>
+        <v>1.047437345182712</v>
       </c>
       <c r="J10">
-        <v>0.9976784946966006</v>
+        <v>1.030152458221919</v>
       </c>
       <c r="K10">
-        <v>1.00845563307302</v>
+        <v>1.040259625683879</v>
       </c>
       <c r="L10">
-        <v>1.005940195120323</v>
+        <v>1.035385959834996</v>
       </c>
       <c r="M10">
-        <v>1.009683763051188</v>
+        <v>1.04630916013712</v>
       </c>
       <c r="N10">
-        <v>1.002656397906825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013928536716412</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045273986944519</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039573806921465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.963750636765581</v>
+        <v>1.000127072051272</v>
       </c>
       <c r="D11">
-        <v>0.9907810250206153</v>
+        <v>1.025274677400063</v>
       </c>
       <c r="E11">
-        <v>0.9873989719089598</v>
+        <v>1.02015175468495</v>
       </c>
       <c r="F11">
-        <v>0.9909826463019623</v>
+        <v>1.031599395457323</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032529315878016</v>
+        <v>1.047173823921742</v>
       </c>
       <c r="J11">
-        <v>0.9947132480596954</v>
+        <v>1.029494565632926</v>
       </c>
       <c r="K11">
-        <v>1.005878917328668</v>
+        <v>1.039735188124028</v>
       </c>
       <c r="L11">
-        <v>1.002562503002429</v>
+        <v>1.034703388267539</v>
       </c>
       <c r="M11">
-        <v>1.006076644089128</v>
+        <v>1.045949022740082</v>
       </c>
       <c r="N11">
-        <v>1.001635604123685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013729786257817</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045421721283083</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039235670601942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9620944239158529</v>
+        <v>0.9995293993810869</v>
       </c>
       <c r="D12">
-        <v>0.9895766860660344</v>
+        <v>1.024999472022254</v>
       </c>
       <c r="E12">
-        <v>0.9858873906163647</v>
+        <v>1.019927512188481</v>
       </c>
       <c r="F12">
-        <v>0.98938393453962</v>
+        <v>1.031533541372147</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032083952004537</v>
+        <v>1.047151654747819</v>
       </c>
       <c r="J12">
-        <v>0.9935944000542815</v>
+        <v>1.029353689232682</v>
       </c>
       <c r="K12">
-        <v>1.004906342413457</v>
+        <v>1.039662898450444</v>
       </c>
       <c r="L12">
-        <v>1.001290054173408</v>
+        <v>1.034682638130656</v>
       </c>
       <c r="M12">
-        <v>1.004717387532702</v>
+        <v>1.04608055750552</v>
       </c>
       <c r="N12">
-        <v>1.001250391219932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013699795179543</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045849776214021</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039184560011427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9624508641817753</v>
+        <v>0.9998972262781374</v>
       </c>
       <c r="D13">
-        <v>0.9898358223524605</v>
+        <v>1.025335562071032</v>
       </c>
       <c r="E13">
-        <v>0.9862125656118914</v>
+        <v>1.020481340640328</v>
       </c>
       <c r="F13">
-        <v>0.9897278787820214</v>
+        <v>1.032124808944778</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032179879897289</v>
+        <v>1.047325038462009</v>
       </c>
       <c r="J13">
-        <v>0.9938352043412917</v>
+        <v>1.029613299358229</v>
       </c>
       <c r="K13">
-        <v>1.005115679245458</v>
+        <v>1.039950493104367</v>
       </c>
       <c r="L13">
-        <v>1.00156382548874</v>
+        <v>1.035183642553743</v>
       </c>
       <c r="M13">
-        <v>1.00500985298668</v>
+        <v>1.046619327458218</v>
       </c>
       <c r="N13">
-        <v>1.00133330062885</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013802570198188</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046550645713856</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039385418380931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.963614261478161</v>
+        <v>1.000593758105437</v>
       </c>
       <c r="D14">
-        <v>0.9906818335581147</v>
+        <v>1.02584964013497</v>
       </c>
       <c r="E14">
-        <v>0.9872744437483588</v>
+        <v>1.021221730282536</v>
       </c>
       <c r="F14">
-        <v>0.9908509515486573</v>
+        <v>1.032837187751118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032492679679072</v>
+        <v>1.047535567910415</v>
       </c>
       <c r="J14">
-        <v>0.9946211260179314</v>
+        <v>1.029977475676626</v>
       </c>
       <c r="K14">
-        <v>1.005798845340875</v>
+        <v>1.040316349625573</v>
       </c>
       <c r="L14">
-        <v>1.00245769279878</v>
+        <v>1.035770693067213</v>
       </c>
       <c r="M14">
-        <v>1.005964691345538</v>
+        <v>1.047181513028251</v>
       </c>
       <c r="N14">
-        <v>1.001603887904219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013935119380968</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047167377219974</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039645504412289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9643276551652702</v>
+        <v>1.000976633586872</v>
       </c>
       <c r="D15">
-        <v>0.991200762354661</v>
+        <v>1.026114044487277</v>
       </c>
       <c r="E15">
-        <v>0.9879259875109739</v>
+        <v>1.021580205928699</v>
       </c>
       <c r="F15">
-        <v>0.9915399687952827</v>
+        <v>1.033165148442428</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032684255296491</v>
+        <v>1.047632999575534</v>
       </c>
       <c r="J15">
-        <v>0.9951030142478514</v>
+        <v>1.030157996493557</v>
       </c>
       <c r="K15">
-        <v>1.006217686908789</v>
+        <v>1.040490448429245</v>
       </c>
       <c r="L15">
-        <v>1.003006034974891</v>
+        <v>1.036036578666361</v>
       </c>
       <c r="M15">
-        <v>1.006550386173054</v>
+        <v>1.04741898686996</v>
       </c>
       <c r="N15">
-        <v>1.001769792885132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013998087916462</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.047392417527283</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039774433203447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9684291878896747</v>
+        <v>1.003009425922711</v>
       </c>
       <c r="D16">
-        <v>0.9941864968179767</v>
+        <v>1.027433337575224</v>
       </c>
       <c r="E16">
-        <v>0.9916778980846368</v>
+        <v>1.023298568006916</v>
       </c>
       <c r="F16">
-        <v>0.9955065626188387</v>
+        <v>1.034657070151767</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033782099664134</v>
+        <v>1.048066363866143</v>
       </c>
       <c r="J16">
-        <v>0.9978729087594852</v>
+        <v>1.031027745224877</v>
       </c>
       <c r="K16">
-        <v>1.008624526208494</v>
+        <v>1.04128905489802</v>
       </c>
       <c r="L16">
-        <v>1.006161929153296</v>
+        <v>1.037224045605977</v>
       </c>
       <c r="M16">
-        <v>1.009920506327484</v>
+        <v>1.048392632816702</v>
       </c>
       <c r="N16">
-        <v>1.002723318278738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014286939758669</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.048123477457547</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040342220837833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9709587539844345</v>
+        <v>1.004206350514541</v>
       </c>
       <c r="D17">
-        <v>0.9960297564431579</v>
+        <v>1.028177810948856</v>
       </c>
       <c r="E17">
-        <v>0.9939969704560361</v>
+        <v>1.024229537479487</v>
       </c>
       <c r="F17">
-        <v>0.9979573758847253</v>
+        <v>1.035425736716296</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034455969343707</v>
+        <v>1.048286499649675</v>
       </c>
       <c r="J17">
-        <v>0.9995805778253816</v>
+        <v>1.031503839060384</v>
       </c>
       <c r="K17">
-        <v>1.010107758369555</v>
+        <v>1.041709183297948</v>
       </c>
       <c r="L17">
-        <v>1.008111079634959</v>
+        <v>1.037825666148024</v>
       </c>
       <c r="M17">
-        <v>1.012001314740567</v>
+        <v>1.048839883112739</v>
       </c>
       <c r="N17">
-        <v>1.003311081184719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014438886232338</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048348689535047</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040641839204554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9724191880137011</v>
+        <v>1.004789635343696</v>
       </c>
       <c r="D18">
-        <v>0.9970945733408729</v>
+        <v>1.028479646128661</v>
       </c>
       <c r="E18">
-        <v>0.9953376831745977</v>
+        <v>1.024540932277174</v>
       </c>
       <c r="F18">
-        <v>0.9993739132603235</v>
+        <v>1.035607496129209</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034843843688871</v>
+        <v>1.048334734953249</v>
       </c>
       <c r="J18">
-        <v>1.000566241793039</v>
+        <v>1.031672909254097</v>
       </c>
       <c r="K18">
-        <v>1.010963647404914</v>
+        <v>1.041824247519746</v>
       </c>
       <c r="L18">
-        <v>1.009237382518766</v>
+        <v>1.037949088727846</v>
       </c>
       <c r="M18">
-        <v>1.013203462535123</v>
+        <v>1.048838655980856</v>
       </c>
       <c r="N18">
-        <v>1.003650298533334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014482142340881</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048111549583552</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040711624547145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9729146613908397</v>
+        <v>1.00482850146756</v>
       </c>
       <c r="D19">
-        <v>0.9974559286659717</v>
+        <v>1.02839682811615</v>
       </c>
       <c r="E19">
-        <v>0.9957928421297735</v>
+        <v>1.024297679195898</v>
       </c>
       <c r="F19">
-        <v>0.999854757162818</v>
+        <v>1.035266049311539</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034975232889868</v>
+        <v>1.048237980259166</v>
       </c>
       <c r="J19">
-        <v>1.000900597543229</v>
+        <v>1.031576758412538</v>
       </c>
       <c r="K19">
-        <v>1.011253940980148</v>
+        <v>1.041680744266419</v>
       </c>
       <c r="L19">
-        <v>1.009619658187154</v>
+        <v>1.037647413611197</v>
       </c>
       <c r="M19">
-        <v>1.013611441264491</v>
+        <v>1.048441164524332</v>
       </c>
       <c r="N19">
-        <v>1.003765360522112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014433516389595</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.047474111660163</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040616522297789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9706889211312412</v>
+        <v>1.003327838989772</v>
       </c>
       <c r="D20">
-        <v>0.9958330677124378</v>
+        <v>1.027222278546051</v>
       </c>
       <c r="E20">
-        <v>0.9937494028520277</v>
+        <v>1.022520377148116</v>
       </c>
       <c r="F20">
-        <v>0.9976957797747493</v>
+        <v>1.033490165737226</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034384208695266</v>
+        <v>1.047732059894081</v>
       </c>
       <c r="J20">
-        <v>0.9993984435720212</v>
+        <v>1.030731078024751</v>
       </c>
       <c r="K20">
-        <v>1.009949585476785</v>
+        <v>1.040802770194401</v>
       </c>
       <c r="L20">
-        <v>1.007903059190964</v>
+        <v>1.036178463621716</v>
       </c>
       <c r="M20">
-        <v>1.011779267486664</v>
+        <v>1.046968628628813</v>
       </c>
       <c r="N20">
-        <v>1.003248396271451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014124397640009</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.045785419082437</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039999663701692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9632723845688231</v>
+        <v>0.9995413828774811</v>
       </c>
       <c r="D21">
-        <v>0.9904331911655849</v>
+        <v>1.024715280942906</v>
       </c>
       <c r="E21">
-        <v>0.9869623152470679</v>
+        <v>1.019194913552875</v>
       </c>
       <c r="F21">
-        <v>0.9905208510071403</v>
+        <v>1.030557805065131</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032400808530922</v>
+        <v>1.046876860012713</v>
       </c>
       <c r="J21">
-        <v>0.9943901821693953</v>
+        <v>1.029058291206497</v>
       </c>
       <c r="K21">
-        <v>1.005598105031323</v>
+        <v>1.039243070429916</v>
       </c>
       <c r="L21">
-        <v>1.002194973208194</v>
+        <v>1.033821534475996</v>
       </c>
       <c r="M21">
-        <v>1.005684061997862</v>
+        <v>1.044982489725369</v>
       </c>
       <c r="N21">
-        <v>1.001524376742022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013559617639652</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044173004634559</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038900112433848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9584616822883981</v>
+        <v>0.9971311226876565</v>
       </c>
       <c r="D22">
-        <v>0.9869373754178735</v>
+        <v>1.02312928971543</v>
       </c>
       <c r="E22">
-        <v>0.9825775993961194</v>
+        <v>1.017112931198935</v>
       </c>
       <c r="F22">
-        <v>0.9858823107049068</v>
+        <v>1.028730779757609</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031103893711352</v>
+        <v>1.046331000040844</v>
       </c>
       <c r="J22">
-        <v>0.9911398471855534</v>
+        <v>1.027997752044697</v>
       </c>
       <c r="K22">
-        <v>1.002772124166697</v>
+        <v>1.0382560662097</v>
       </c>
       <c r="L22">
-        <v>0.9985022827671585</v>
+        <v>1.032352833268157</v>
       </c>
       <c r="M22">
-        <v>1.001738727344146</v>
+        <v>1.043753781112428</v>
       </c>
       <c r="N22">
-        <v>1.000405232252245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013202066836156</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043200568424232</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038188829865627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9610265545206775</v>
+        <v>0.9984052374733705</v>
       </c>
       <c r="D23">
-        <v>0.9888005127799644</v>
+        <v>1.023962046653035</v>
       </c>
       <c r="E23">
-        <v>0.9849136428573678</v>
+        <v>1.018212920198801</v>
       </c>
       <c r="F23">
-        <v>0.9883538982618766</v>
+        <v>1.029694915213647</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031796303630291</v>
+        <v>1.046616597851302</v>
       </c>
       <c r="J23">
-        <v>0.9928729294242237</v>
+        <v>1.028554614618164</v>
       </c>
       <c r="K23">
-        <v>1.004279105849865</v>
+        <v>1.038771123276215</v>
       </c>
       <c r="L23">
-        <v>1.0004701098576</v>
+        <v>1.033127345594161</v>
       </c>
       <c r="M23">
-        <v>1.003841398352542</v>
+        <v>1.044400462648175</v>
       </c>
       <c r="N23">
-        <v>1.00100198163206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013389136905404</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.04371237141308</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038543411638413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9708108932661805</v>
+        <v>1.003349403105537</v>
       </c>
       <c r="D24">
-        <v>0.995921974710827</v>
+        <v>1.027213497391049</v>
       </c>
       <c r="E24">
-        <v>0.9938613048636524</v>
+        <v>1.022502492838405</v>
       </c>
       <c r="F24">
-        <v>0.997814023800455</v>
+        <v>1.033455080018487</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03441665022504</v>
+        <v>1.047716960272133</v>
       </c>
       <c r="J24">
-        <v>0.9994807742284063</v>
+        <v>1.030719127345644</v>
       </c>
       <c r="K24">
-        <v>1.010021085529733</v>
+        <v>1.040778992992063</v>
       </c>
       <c r="L24">
-        <v>1.007997087356816</v>
+        <v>1.03614563657203</v>
       </c>
       <c r="M24">
-        <v>1.011879636689248</v>
+        <v>1.04691909936797</v>
       </c>
       <c r="N24">
-        <v>1.003276732028763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014117466135241</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.045705691957614</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039955598070228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815807703217143</v>
+        <v>1.008920877164946</v>
       </c>
       <c r="D25">
-        <v>1.003784062086727</v>
+        <v>1.030899763251699</v>
       </c>
       <c r="E25">
-        <v>1.003779144062775</v>
+        <v>1.027379531895435</v>
       </c>
       <c r="F25">
-        <v>1.008286944214877</v>
+        <v>1.037726647650716</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037255387958779</v>
+        <v>1.04892759905523</v>
       </c>
       <c r="J25">
-        <v>1.00674432269961</v>
+        <v>1.033151703270955</v>
       </c>
       <c r="K25">
-        <v>1.016323918009781</v>
+        <v>1.043036615875137</v>
       </c>
       <c r="L25">
-        <v>1.016319075599369</v>
+        <v>1.03956718003153</v>
       </c>
       <c r="M25">
-        <v>1.020757963839573</v>
+        <v>1.049766232789843</v>
       </c>
       <c r="N25">
-        <v>1.005775692289795</v>
+        <v>1.01493607546348</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.047958987599103</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041548991932371</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013218199323159</v>
+        <v>1.012542656966416</v>
       </c>
       <c r="D2">
-        <v>1.033744451166162</v>
+        <v>1.03249131596407</v>
       </c>
       <c r="E2">
-        <v>1.031176284901331</v>
+        <v>1.030605963266344</v>
       </c>
       <c r="F2">
-        <v>1.041044974476707</v>
+        <v>1.040290298492076</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049826296731957</v>
+        <v>1.049278358854053</v>
       </c>
       <c r="J2">
-        <v>1.035010618214917</v>
+        <v>1.034354583536001</v>
       </c>
       <c r="K2">
-        <v>1.044752867857351</v>
+        <v>1.043515818827048</v>
       </c>
       <c r="L2">
-        <v>1.042217721064351</v>
+        <v>1.041654760114471</v>
       </c>
       <c r="M2">
-        <v>1.051960636994102</v>
+        <v>1.051215473988315</v>
       </c>
       <c r="N2">
-        <v>1.01555992447264</v>
+        <v>1.016302605384759</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049695691633704</v>
+        <v>1.049105952242332</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042714433047994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04184846865841</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023597076434646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016282298917785</v>
+        <v>1.015516956622346</v>
       </c>
       <c r="D3">
-        <v>1.035790329501407</v>
+        <v>1.034417842318477</v>
       </c>
       <c r="E3">
-        <v>1.033901265681015</v>
+        <v>1.033270137715411</v>
       </c>
       <c r="F3">
-        <v>1.043426942457672</v>
+        <v>1.042596381337273</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050458529630841</v>
+        <v>1.049850289943963</v>
       </c>
       <c r="J3">
-        <v>1.036338723334542</v>
+        <v>1.035593369691904</v>
       </c>
       <c r="K3">
-        <v>1.045984864860303</v>
+        <v>1.044628494688019</v>
       </c>
       <c r="L3">
-        <v>1.044117997891744</v>
+        <v>1.04349430819396</v>
       </c>
       <c r="M3">
-        <v>1.053532758041731</v>
+        <v>1.052711768309566</v>
       </c>
       <c r="N3">
-        <v>1.016006661569308</v>
+        <v>1.016633549524037</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050939903386913</v>
+        <v>1.050290154012272</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.0435829003539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042632293301804</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023797854588262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018234913428502</v>
+        <v>1.017412817375422</v>
       </c>
       <c r="D4">
-        <v>1.037098369458098</v>
+        <v>1.035650097908725</v>
       </c>
       <c r="E4">
-        <v>1.035646263555963</v>
+        <v>1.034976752708858</v>
       </c>
       <c r="F4">
-        <v>1.044951470805494</v>
+        <v>1.044072825920054</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050854687536049</v>
+        <v>1.050208136521047</v>
       </c>
       <c r="J4">
-        <v>1.037183396753704</v>
+        <v>1.036381351371599</v>
       </c>
       <c r="K4">
-        <v>1.046768754616285</v>
+        <v>1.045336485622374</v>
       </c>
       <c r="L4">
-        <v>1.045332693710007</v>
+        <v>1.04467059924801</v>
       </c>
       <c r="M4">
-        <v>1.054536031316758</v>
+        <v>1.053666910231823</v>
       </c>
       <c r="N4">
-        <v>1.016290807635499</v>
+        <v>1.016844105361754</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051733915210673</v>
+        <v>1.051046074334205</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044138061148884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043133871436054</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023923383230623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019051224550643</v>
+        <v>1.0182055262901</v>
       </c>
       <c r="D5">
-        <v>1.037647995763563</v>
+        <v>1.036168171316634</v>
       </c>
       <c r="E5">
-        <v>1.036377539258826</v>
+        <v>1.035692089701386</v>
       </c>
       <c r="F5">
-        <v>1.045590656879966</v>
+        <v>1.044692004513075</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051019937517151</v>
+        <v>1.050357420102103</v>
       </c>
       <c r="J5">
-        <v>1.037537439013287</v>
+        <v>1.036711764203761</v>
       </c>
       <c r="K5">
-        <v>1.047098565485969</v>
+        <v>1.045634665615091</v>
       </c>
       <c r="L5">
-        <v>1.045841777137186</v>
+        <v>1.045163719035065</v>
       </c>
       <c r="M5">
-        <v>1.054956696768336</v>
+        <v>1.054067529433973</v>
       </c>
       <c r="N5">
-        <v>1.016410098590599</v>
+        <v>1.016932554094033</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052066838552574</v>
+        <v>1.051363132953596</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044378390519723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043352545779091</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023976140205683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019190869004672</v>
+        <v>1.018341158591825</v>
       </c>
       <c r="D6">
-        <v>1.037744239134392</v>
+        <v>1.036259099987266</v>
       </c>
       <c r="E6">
-        <v>1.036502442432708</v>
+        <v>1.035814297893321</v>
       </c>
       <c r="F6">
-        <v>1.045700429195006</v>
+        <v>1.044798395033581</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051049659720939</v>
+        <v>1.050384439554823</v>
       </c>
       <c r="J6">
-        <v>1.037599602558788</v>
+        <v>1.036769909398926</v>
       </c>
       <c r="K6">
-        <v>1.04715788950699</v>
+        <v>1.045688660372282</v>
       </c>
       <c r="L6">
-        <v>1.045929392110119</v>
+        <v>1.045248634237374</v>
       </c>
       <c r="M6">
-        <v>1.055029787234159</v>
+        <v>1.054137230839296</v>
       </c>
       <c r="N6">
-        <v>1.016431272226042</v>
+        <v>1.01694830064212</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052124683844418</v>
+        <v>1.051418296125344</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044429030231582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043400284649999</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023986184193086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018253881568681</v>
+        <v>1.017437659596483</v>
       </c>
       <c r="D7">
-        <v>1.037116917118538</v>
+        <v>1.035672420349206</v>
       </c>
       <c r="E7">
-        <v>1.035662418849545</v>
+        <v>1.034995506877016</v>
       </c>
       <c r="F7">
-        <v>1.044967213301459</v>
+        <v>1.044091511524617</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050862691282888</v>
+        <v>1.050218778681007</v>
       </c>
       <c r="J7">
-        <v>1.037195978502197</v>
+        <v>1.036399655530608</v>
       </c>
       <c r="K7">
-        <v>1.046784239474947</v>
+        <v>1.04535569746565</v>
       </c>
       <c r="L7">
-        <v>1.045345806625316</v>
+        <v>1.044686279483372</v>
       </c>
       <c r="M7">
-        <v>1.054548773660532</v>
+        <v>1.053682560246874</v>
       </c>
       <c r="N7">
-        <v>1.016295666154855</v>
+        <v>1.016875184983747</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051743999767341</v>
+        <v>1.051058460093918</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044169003674338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043169444576808</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023928726986122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014270072601616</v>
+        <v>1.013583191356001</v>
       </c>
       <c r="D8">
-        <v>1.034453008273567</v>
+        <v>1.033172290969551</v>
       </c>
       <c r="E8">
-        <v>1.032109023890377</v>
+        <v>1.031526828847495</v>
       </c>
       <c r="F8">
-        <v>1.041862410044821</v>
+        <v>1.041091906901358</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050049839971384</v>
+        <v>1.049490280708556</v>
       </c>
       <c r="J8">
-        <v>1.035472275820179</v>
+        <v>1.03480457959392</v>
       </c>
       <c r="K8">
-        <v>1.045185670501287</v>
+        <v>1.04392091538024</v>
       </c>
       <c r="L8">
-        <v>1.042870937816142</v>
+        <v>1.04229603395877</v>
       </c>
       <c r="M8">
-        <v>1.052503683264562</v>
+        <v>1.051742608288423</v>
       </c>
       <c r="N8">
-        <v>1.015716013987958</v>
+        <v>1.016501513750282</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050125470830199</v>
+        <v>1.049523138676547</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043043231801039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042159941507313</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023673977767635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006998880364343</v>
+        <v>1.006530736895824</v>
       </c>
       <c r="D9">
-        <v>1.02961678447404</v>
+        <v>1.028622607476319</v>
       </c>
       <c r="E9">
-        <v>1.025692663805785</v>
+        <v>1.025258376463242</v>
       </c>
       <c r="F9">
-        <v>1.036247456350762</v>
+        <v>1.035660081561542</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048507644919293</v>
+        <v>1.048093088080757</v>
       </c>
       <c r="J9">
-        <v>1.032306888051023</v>
+        <v>1.031854967196866</v>
       </c>
       <c r="K9">
-        <v>1.042246954044584</v>
+        <v>1.041267765168281</v>
       </c>
       <c r="L9">
-        <v>1.038382208460343</v>
+        <v>1.037954527842518</v>
       </c>
       <c r="M9">
-        <v>1.048778597376268</v>
+        <v>1.048199929915072</v>
       </c>
       <c r="N9">
-        <v>1.014650719233966</v>
+        <v>1.015722605470778</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047177347955375</v>
+        <v>1.046719375507789</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040962235804161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040280571836763</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023181487960643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002018705195881</v>
+        <v>1.00172931328907</v>
       </c>
       <c r="D10">
-        <v>1.026350376827349</v>
+        <v>1.02557064484981</v>
       </c>
       <c r="E10">
-        <v>1.021392502000811</v>
+        <v>1.02107322722918</v>
       </c>
       <c r="F10">
-        <v>1.032502964152403</v>
+        <v>1.032055674658425</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047437345182712</v>
+        <v>1.047134304337585</v>
       </c>
       <c r="J10">
-        <v>1.030152458221919</v>
+        <v>1.029874487395484</v>
       </c>
       <c r="K10">
-        <v>1.040259625683879</v>
+        <v>1.039493067750852</v>
       </c>
       <c r="L10">
-        <v>1.035385959834996</v>
+        <v>1.035072144122398</v>
       </c>
       <c r="M10">
-        <v>1.04630916013712</v>
+        <v>1.04586930918466</v>
       </c>
       <c r="N10">
-        <v>1.013928536716412</v>
+        <v>1.01531162581935</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045273986944519</v>
+        <v>1.044925897966552</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039573806921465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039044156933675</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02284781434447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000127072051272</v>
+        <v>0.9999330338514522</v>
       </c>
       <c r="D11">
-        <v>1.025274677400063</v>
+        <v>1.024586146979252</v>
       </c>
       <c r="E11">
-        <v>1.02015175468495</v>
+        <v>1.01988131735645</v>
       </c>
       <c r="F11">
-        <v>1.031599395457323</v>
+        <v>1.03121424939027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047173823921742</v>
+        <v>1.046921547663598</v>
       </c>
       <c r="J11">
-        <v>1.029494565632926</v>
+        <v>1.029308598959191</v>
       </c>
       <c r="K11">
-        <v>1.039735188124028</v>
+        <v>1.039058836031248</v>
       </c>
       <c r="L11">
-        <v>1.034703388267539</v>
+        <v>1.034437794325539</v>
       </c>
       <c r="M11">
-        <v>1.045949022740082</v>
+        <v>1.045570578610114</v>
       </c>
       <c r="N11">
-        <v>1.013729786257817</v>
+        <v>1.015403235164698</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045421721283083</v>
+        <v>1.045122376669547</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039235670601942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038773009680256</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022803468099767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9995293993810869</v>
+        <v>0.9993636980203768</v>
       </c>
       <c r="D12">
-        <v>1.024999472022254</v>
+        <v>1.024334371359793</v>
       </c>
       <c r="E12">
-        <v>1.019927512188481</v>
+        <v>1.019667198999313</v>
       </c>
       <c r="F12">
-        <v>1.031533541372147</v>
+        <v>1.031164387715601</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047151654747819</v>
+        <v>1.046912456349253</v>
       </c>
       <c r="J12">
-        <v>1.029353689232682</v>
+        <v>1.029195011723256</v>
       </c>
       <c r="K12">
-        <v>1.039662898450444</v>
+        <v>1.039009755378589</v>
       </c>
       <c r="L12">
-        <v>1.034682638130656</v>
+        <v>1.034427063354205</v>
       </c>
       <c r="M12">
-        <v>1.04608055750552</v>
+        <v>1.045717929653855</v>
       </c>
       <c r="N12">
-        <v>1.013699795179543</v>
+        <v>1.015486002133844</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045849776214021</v>
+        <v>1.045563037778597</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039184560011427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038738309121491</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022820947556557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9998972262781374</v>
+        <v>0.9997008844087946</v>
       </c>
       <c r="D13">
-        <v>1.025335562071032</v>
+        <v>1.024636927460371</v>
       </c>
       <c r="E13">
-        <v>1.020481340640328</v>
+        <v>1.020198256284303</v>
       </c>
       <c r="F13">
-        <v>1.032124808944778</v>
+        <v>1.031732541356649</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047325038462009</v>
+        <v>1.04706663142742</v>
       </c>
       <c r="J13">
-        <v>1.029613299358229</v>
+        <v>1.029425241373211</v>
       </c>
       <c r="K13">
-        <v>1.039950493104367</v>
+        <v>1.03926436693693</v>
       </c>
       <c r="L13">
-        <v>1.035183642553743</v>
+        <v>1.034905686789533</v>
       </c>
       <c r="M13">
-        <v>1.046619327458218</v>
+        <v>1.046233961120959</v>
       </c>
       <c r="N13">
-        <v>1.013802570198188</v>
+        <v>1.015535735126446</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046550645713856</v>
+        <v>1.04624600306755</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039385418380931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038915601869128</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022891368197884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000593758105437</v>
+        <v>1.000349606644864</v>
       </c>
       <c r="D14">
-        <v>1.02584964013497</v>
+        <v>1.02510204459178</v>
       </c>
       <c r="E14">
-        <v>1.021221730282536</v>
+        <v>1.020908482076457</v>
       </c>
       <c r="F14">
-        <v>1.032837187751118</v>
+        <v>1.032411371895457</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047535567910415</v>
+        <v>1.04724936913372</v>
       </c>
       <c r="J14">
-        <v>1.029977475676626</v>
+        <v>1.029743482082404</v>
       </c>
       <c r="K14">
-        <v>1.040316349625573</v>
+        <v>1.039581976091492</v>
       </c>
       <c r="L14">
-        <v>1.035770693067213</v>
+        <v>1.035463047315571</v>
       </c>
       <c r="M14">
-        <v>1.047181513028251</v>
+        <v>1.046763093817621</v>
       </c>
       <c r="N14">
-        <v>1.013935119380968</v>
+        <v>1.015557062655388</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047167377219974</v>
+        <v>1.046836649616996</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039645504412289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039141709907824</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022965206422218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000976633586872</v>
+        <v>1.000708431083763</v>
       </c>
       <c r="D15">
-        <v>1.026114044487277</v>
+        <v>1.025342310404503</v>
       </c>
       <c r="E15">
-        <v>1.021580205928699</v>
+        <v>1.021252817433258</v>
       </c>
       <c r="F15">
-        <v>1.033165148442428</v>
+        <v>1.032722860768908</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047632999575534</v>
+        <v>1.047333203859939</v>
       </c>
       <c r="J15">
-        <v>1.030157996493557</v>
+        <v>1.029900857472145</v>
       </c>
       <c r="K15">
-        <v>1.040490448429245</v>
+        <v>1.039732261625053</v>
       </c>
       <c r="L15">
-        <v>1.036036578666361</v>
+        <v>1.035715000384513</v>
       </c>
       <c r="M15">
-        <v>1.04741898686996</v>
+        <v>1.0469843236152</v>
       </c>
       <c r="N15">
-        <v>1.013998087916462</v>
+        <v>1.015559260700974</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047392417527283</v>
+        <v>1.047048859265216</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039774433203447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039254370656984</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022996789821098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003009425922711</v>
+        <v>1.002629284505806</v>
       </c>
       <c r="D16">
-        <v>1.027433337575224</v>
+        <v>1.026548742248719</v>
       </c>
       <c r="E16">
-        <v>1.023298568006916</v>
+        <v>1.022908737234221</v>
       </c>
       <c r="F16">
-        <v>1.034657070151767</v>
+        <v>1.034138501641927</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048066363866143</v>
+        <v>1.047704098490153</v>
       </c>
       <c r="J16">
-        <v>1.031027745224877</v>
+        <v>1.030662518529059</v>
       </c>
       <c r="K16">
-        <v>1.04128905489802</v>
+        <v>1.040419323195577</v>
       </c>
       <c r="L16">
-        <v>1.037224045605977</v>
+        <v>1.036840829466454</v>
       </c>
       <c r="M16">
-        <v>1.048392632816702</v>
+        <v>1.047882617859028</v>
       </c>
       <c r="N16">
-        <v>1.014286939758669</v>
+        <v>1.015554933502363</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048123477457547</v>
+        <v>1.04772034978385</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040342220837833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039743593057685</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023122726740759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,105 +1369,123 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004206350514541</v>
+        <v>1.00377255061147</v>
       </c>
       <c r="D17">
-        <v>1.028177810948856</v>
+        <v>1.027237096456903</v>
       </c>
       <c r="E17">
-        <v>1.024229537479487</v>
+        <v>1.023810353648797</v>
       </c>
       <c r="F17">
-        <v>1.035425736716296</v>
+        <v>1.034869757233364</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048286499649675</v>
+        <v>1.047893991971203</v>
       </c>
       <c r="J17">
-        <v>1.031503839060384</v>
+        <v>1.031086523239844</v>
       </c>
       <c r="K17">
-        <v>1.041709183297948</v>
+        <v>1.040783839561353</v>
       </c>
       <c r="L17">
-        <v>1.037825666148024</v>
+        <v>1.037413395160396</v>
       </c>
       <c r="M17">
-        <v>1.048839883112739</v>
+        <v>1.048292821305006</v>
       </c>
       <c r="N17">
-        <v>1.014438886232338</v>
+        <v>1.015568918379425</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048348689535047</v>
+        <v>1.047916236525553</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040641839204554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040004140065281</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023181077722236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.004789635343696</v>
+        <v>1.004339002366779</v>
       </c>
       <c r="D18">
-        <v>1.028479646128661</v>
+        <v>1.02752123214845</v>
       </c>
       <c r="E18">
-        <v>1.024540932277174</v>
+        <v>1.024114481367647</v>
       </c>
       <c r="F18">
-        <v>1.035607496129209</v>
+        <v>1.035040015397498</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048334734953249</v>
+        <v>1.047933299492124</v>
       </c>
       <c r="J18">
-        <v>1.031672909254097</v>
+        <v>1.031239083703987</v>
       </c>
       <c r="K18">
-        <v>1.041824247519746</v>
+        <v>1.040881240949295</v>
       </c>
       <c r="L18">
-        <v>1.037949088727846</v>
+        <v>1.037529556695135</v>
       </c>
       <c r="M18">
-        <v>1.048838655980856</v>
+        <v>1.048280133557823</v>
       </c>
       <c r="N18">
-        <v>1.014482142340881</v>
+        <v>1.015559282252532</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048111549583552</v>
+        <v>1.047669945998118</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040711624547145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04006030393225</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023179960990023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00482850146756</v>
+        <v>1.004388756703459</v>
       </c>
       <c r="D19">
-        <v>1.02839682811615</v>
+        <v>1.027451692054392</v>
       </c>
       <c r="E19">
-        <v>1.024297679195898</v>
+        <v>1.023881364373924</v>
       </c>
       <c r="F19">
-        <v>1.035266049311539</v>
+        <v>1.034707608865533</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048237980259166</v>
+        <v>1.047844312782864</v>
       </c>
       <c r="J19">
-        <v>1.031576758412538</v>
+        <v>1.031153317154202</v>
       </c>
       <c r="K19">
-        <v>1.041680744266419</v>
+        <v>1.040750724111155</v>
       </c>
       <c r="L19">
-        <v>1.037647413611197</v>
+        <v>1.037237821215956</v>
       </c>
       <c r="M19">
-        <v>1.048441164524332</v>
+        <v>1.047891500130046</v>
       </c>
       <c r="N19">
-        <v>1.014433516389595</v>
+        <v>1.015513318775499</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047474111660163</v>
+        <v>1.047039371754222</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040616522297789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039975007766831</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023130068152084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003327838989772</v>
+        <v>1.002973705929467</v>
       </c>
       <c r="D20">
-        <v>1.027222278546051</v>
+        <v>1.026374482489345</v>
       </c>
       <c r="E20">
-        <v>1.022520377148116</v>
+        <v>1.022162327629153</v>
       </c>
       <c r="F20">
-        <v>1.033490165737226</v>
+        <v>1.032996819296248</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047732059894081</v>
+        <v>1.047391561386688</v>
       </c>
       <c r="J20">
-        <v>1.030731078024751</v>
+        <v>1.030390475527485</v>
       </c>
       <c r="K20">
-        <v>1.040802770194401</v>
+        <v>1.039968897625921</v>
       </c>
       <c r="L20">
-        <v>1.036178463621716</v>
+        <v>1.035826360609953</v>
       </c>
       <c r="M20">
-        <v>1.046968628628813</v>
+        <v>1.046483255257868</v>
       </c>
       <c r="N20">
-        <v>1.014124397640009</v>
+        <v>1.015352839259329</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045785419082437</v>
+        <v>1.045401300020716</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039999663701692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039426517807871</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022940175896884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9995413828774811</v>
+        <v>0.9994122977718375</v>
       </c>
       <c r="D21">
-        <v>1.024715280942906</v>
+        <v>1.024092607573127</v>
       </c>
       <c r="E21">
-        <v>1.019194913552875</v>
+        <v>1.018969254340679</v>
       </c>
       <c r="F21">
-        <v>1.030557805065131</v>
+        <v>1.030218793236699</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046876860012713</v>
+        <v>1.046663125480806</v>
       </c>
       <c r="J21">
-        <v>1.029058291206497</v>
+        <v>1.028934611140812</v>
       </c>
       <c r="K21">
-        <v>1.039243070429916</v>
+        <v>1.038631475613713</v>
       </c>
       <c r="L21">
-        <v>1.033821534475996</v>
+        <v>1.033599944867954</v>
       </c>
       <c r="M21">
-        <v>1.044982489725369</v>
+        <v>1.044649419132921</v>
       </c>
       <c r="N21">
-        <v>1.013559617639652</v>
+        <v>1.015376535172083</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044173004634559</v>
+        <v>1.043909402879105</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038900112433848</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038484449767741</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022684653023607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9971311226876565</v>
+        <v>0.9971431795252553</v>
       </c>
       <c r="D22">
-        <v>1.02312928971543</v>
+        <v>1.022647963593909</v>
       </c>
       <c r="E22">
-        <v>1.017112931198935</v>
+        <v>1.016971421546198</v>
       </c>
       <c r="F22">
-        <v>1.028730779757609</v>
+        <v>1.02848882737812</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046331000040844</v>
+        <v>1.046196842939207</v>
       </c>
       <c r="J22">
-        <v>1.027997752044697</v>
+        <v>1.028009275337961</v>
       </c>
       <c r="K22">
-        <v>1.0382560662097</v>
+        <v>1.037783726529673</v>
       </c>
       <c r="L22">
-        <v>1.032352833268157</v>
+        <v>1.032214005484559</v>
       </c>
       <c r="M22">
-        <v>1.043753781112428</v>
+        <v>1.043516280791487</v>
       </c>
       <c r="N22">
-        <v>1.013202066836156</v>
+        <v>1.015384426653873</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043200568424232</v>
+        <v>1.043012603520653</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038188829865627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037870325037999</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022521384963956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9984052374733705</v>
+        <v>0.9983325068099559</v>
       </c>
       <c r="D23">
-        <v>1.023962046653035</v>
+        <v>1.023398907992733</v>
       </c>
       <c r="E23">
-        <v>1.018212920198801</v>
+        <v>1.018021777481758</v>
       </c>
       <c r="F23">
-        <v>1.029694915213647</v>
+        <v>1.029396243229797</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046616597851302</v>
+        <v>1.046435575601879</v>
       </c>
       <c r="J23">
-        <v>1.028554614618164</v>
+        <v>1.028485010242447</v>
       </c>
       <c r="K23">
-        <v>1.038771123276215</v>
+        <v>1.038218235691386</v>
       </c>
       <c r="L23">
-        <v>1.033127345594161</v>
+        <v>1.03293973207529</v>
       </c>
       <c r="M23">
-        <v>1.044400462648175</v>
+        <v>1.044107147355415</v>
       </c>
       <c r="N23">
-        <v>1.013389136905404</v>
+        <v>1.015336578185555</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04371237141308</v>
+        <v>1.043480233016666</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038543411638413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038167015343223</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022603253527357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003349403105537</v>
+        <v>1.002995583537861</v>
       </c>
       <c r="D24">
-        <v>1.027213497391049</v>
+        <v>1.026366156579707</v>
       </c>
       <c r="E24">
-        <v>1.022502492838405</v>
+        <v>1.022145129932689</v>
       </c>
       <c r="F24">
-        <v>1.033455080018487</v>
+        <v>1.032962132282463</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047716960272133</v>
+        <v>1.047376830151044</v>
       </c>
       <c r="J24">
-        <v>1.030719127345644</v>
+        <v>1.03037880656814</v>
       </c>
       <c r="K24">
-        <v>1.040778992992063</v>
+        <v>1.039945550685953</v>
       </c>
       <c r="L24">
-        <v>1.03614563657203</v>
+        <v>1.035794201428936</v>
       </c>
       <c r="M24">
-        <v>1.04691909936797</v>
+        <v>1.046434108774339</v>
       </c>
       <c r="N24">
-        <v>1.014117466135241</v>
+        <v>1.015343639980778</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045705691957614</v>
+        <v>1.045321857066125</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039955598070228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039380086449022</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022930556193315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008920877164946</v>
+        <v>1.008386719974308</v>
       </c>
       <c r="D25">
-        <v>1.030899763251699</v>
+        <v>1.029824608490973</v>
       </c>
       <c r="E25">
-        <v>1.027379531895435</v>
+        <v>1.02690220207986</v>
       </c>
       <c r="F25">
-        <v>1.037726647650716</v>
+        <v>1.037086642731355</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04892759905523</v>
+        <v>1.048471087111231</v>
       </c>
       <c r="J25">
-        <v>1.033151703270955</v>
+        <v>1.032635096847559</v>
       </c>
       <c r="K25">
-        <v>1.043036615875137</v>
+        <v>1.041976928500163</v>
       </c>
       <c r="L25">
-        <v>1.03956718003153</v>
+        <v>1.039096771884666</v>
       </c>
       <c r="M25">
-        <v>1.049766232789843</v>
+        <v>1.049135277702495</v>
       </c>
       <c r="N25">
-        <v>1.01493607546348</v>
+        <v>1.01589922802651</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047958987599103</v>
+        <v>1.047459633881358</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041548991932371</v>
+        <v>1.040813213030889</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023316593160569</v>
       </c>
     </row>
   </sheetData>
